--- a/systems/supertext/outputs/output_rm-sutsilv-de-CH.xlsx
+++ b/systems/supertext/outputs/output_rm-sutsilv-de-CH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/java/Documents/romansh/reference-translations/supertext_input_v2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/java/Documents/romansh/reference-translations/supertext_input_v2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C8473-DFBB-BA4F-B8E7-40EFB7ADB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D2EA8-4EA1-EF43-86CB-36CFD8DAC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="3" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>"People Swimming in the Swimming Pool" aus dem Jahr 2022 ist ein Kunstwerk von Vicente Siso, das ab dem 13. Januar in der Galerie Tierra del Sol ausgestellt wird.</t>
   </si>
   <si>
-    <t>"Vicente Siso: Memories of the Land and Water" - so lautet der Titel der Ausstellung im neuen Standort der Galerie Tierra del Sol in West Hollywood. Siso ist seit 2012 als Künstler am Studio Arts Program beteiligt und zeigt nun seine erste persönliche Ausstellung. Siso wurde 1962 in Madrid geboren und wuchs in Venezuela, Trinidad und Miami auf. Im Alter von etwa acht Jahren zog er mit seiner Familie nach Südkalifornien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In zahlreichen Serien von Landschaften, Porträts und Stillleben, die mit Acryl, Pastell, Bleistift und Aquarell gemalt wurden, zeigt Siso sein meisterhaftes Können. Inspiriert von Familienporträts, eigenen Referenzfotografien und Erinnerungen, zeigen seine Kompositionen voller Wärme die ganze Bandbreite seines Könnens und Wissens in verschiedenen Medien. Seine tropischen und maritimen Landschaften spiegeln die Orte seiner Vergangenheit in detaillierten Mustern wider. Auch Stätten werden integriert, um wichtige Verbindungen zwischen Kultur und Erinnerung an die Natur herzustellen. Siso betitelt seine Kunstwerke in einer Mischung aus Spanisch und Englisch - ein Zeichen für die gefeierten und so wichtigen Komplexitäten seines Lebens im Los Angeles County. Die Ausstellung "Vicente Siso: Memories of the Land and Water" wird am Samstag, dem 13. Januar, mit einer Eröffnungsveranstaltung von 18 bis 20 Uhr eröffnet.</t>
+    <t>"Vicente Siso: Memories of the Land and Water" - so lautet der Titel der Ausstellung im neuen Standort der Galerie Tierra del Sol in West Hollywood. Siso ist seit 2012 als Künstler am Studio Arts Program beteiligt und zeigt nun seine erste persönliche Ausstellung. Siso wurde 1962 in Madrid geboren und wuchs in Venezuela, Trinidad und Miami auf. Im Alter von etwa acht Jahren zog er mit seiner Familie in den Süden Kaliforniens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In zahlreichen Serien von Landschaften, Porträts und Stillleben, die mit Acryl, Pastell, Bleistift und Aquarell gemalt wurden, zeigt Siso sein meisterhaftes Können. Seine Kompositionen, die von Familienporträts, eigenen Referenzfotografien und Erinnerungen inspiriert sind, zeigen in voller Wärme das ganze Spektrum seines Könnens und Wissens in verschiedenen Medien. Seine tropischen und maritimen Landschaften spiegeln die Orte seiner Vergangenheit in detaillierten Mustern wider. Auch Kirchen werden integriert, um wichtige Kulissen zu schaffen, die mit Kultur und Erinnerungen an die Natur zu tun haben. Il Siso betitelt seine Kunstwerke in einer Mischung aus Spanisch und Englisch - ein Zeichen für die gefeierten und so wichtigen Komplexitäten seines Lebens im Los Angeles County. Die Ausstellung "Vicente Siso: Erinnerungen an Land und Wasser" wird am Samstag, den 13. Januar, mit einer Eröffnung von 18 bis 20 Uhr eröffnet.</t>
   </si>
   <si>
     <t>Galerie "Tierra del Sol", 7414 Santa Monica Blvd. Weitere Informationen finden Sie auf tierradelsolgallery.org.</t>
@@ -62,13 +62,13 @@
     <t>Altes anpassen, Neues integrieren, um Probleme zu lösen.</t>
   </si>
   <si>
-    <t>Auf Bezirksebene müssen wir nur einen Blick auf den Central Business District von Sydney werfen: ursprünglich eine unbebaute Gegend, die im ersten Jahr in eine zweistöckige Siedlung mit einer maximalen Höhe von 46 Metern umgewandelt wurde und danach in ein Dorf mit den heutigen Hochhäusern. Dies kann in viel kleineren Dimensionen in den Stadtzentren von Sydney geschehen, die sich um die Verkehrsknotenpunkte drehen. Auch die Stadtteile im Zentrum der Stadt müssen sich weiterentwickeln, mit einer Tendenz hin zu günstigen Wohnräumen mit Gebäuden, die in den Hauptbereichen vorher von Bäumen umgeben waren. Natürlich muss der neu geschaffene Wohnraum in puncto Design überzeugen und die Pflanzen, die Landschaftsgestaltung und die Parks müssen in die bestehende Infrastruktur integriert werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unser Planungssystem muss sich dennoch anpassen, damit die verantwortlichen Vorsitzenden der Bezirksräte in den Stadtzentren, die eher kritisch gegenüber Veränderungen eingestellt sind, nicht alleine die zukünftige Gestaltung ihrer Quartiere bestimmen. Eine Möglichkeit wäre, eine unabhängige Entscheidungsstelle einzurichten, die sich für hochwertige Konzepte einsetzt, die bis zur Baumkrone reichen und Raum für Familien, Balkone und Gemeinschaftsgärten bieten und auch optisch überzeugen. Dies könnte eine Aufgabe für den aktuellen Architekten der Regierung von New South Wales sein, basierend auf einer sorgfältig ausgearbeiteten Verordnung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In den letzten 10 Jahren hat die Technologie unser Leben verändert. Viele arbeiten von zu Hause aus, in Sydney gibt es ein beeindruckendes U-Bahn- und S-Bahn-Netz. Online-Einkäufe haben unsere Art des Einkaufens verändert und dank der Handys können Freunde und Familie besser in Kontakt bleiben. Genau diese Art von Anpassung von einem System zum anderen ist auch in unserer Bauumgebung möglich. In diesem Kontext sollte der Schwerpunkt der Planung auf einer adaptiven Wiederverwendung liegen und nicht auf einer favorisierten Gegenüberstellung des Alten.</t>
+    <t>Auf Bezirksebene müssen wir uns nur den Central Business District von Sydney ansehen. Auch die Quartiere im Stadtzentrum müssen sich weiterentwickeln, wobei der Trend zu erschwinglicheren Wohnräumen mit Gebäuden geht, die in den Hauptbereichen von Bäumen umgeben sind. Natürlich muss der neu geschaffene Wohnraum in puncto Design überzeugen, und die Bäume, die Landschaftsgestaltung und die Parks müssen in die bestehende Infrastruktur integriert werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unser Planungssystem muss sich jedoch anpassen, damit die verantwortlichen Vorsitzenden der Bezirksräte in den Stadtzentren, die eher kritisch gegenüber Veränderungen eingestellt sind, nicht alleine über die zukünftige Gestaltung ihrer Quartiere entscheiden. Eine Möglichkeit wäre, eine unabhängige Entscheidungsstelle einzurichten, die sich für hochwertige Konzepte einsetzt, die auf der Höhe der Pflastersteine enden und Raum für Familien, Balkone und Gemeinschaftsgärten bieten und auch optisch überzeugen. Dies könnte eine Aufgabe für den aktuellen Architekten der Regierung von New South Wales sein, basierend auf einer sorgfältig ausgearbeiteten Verordnung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In den letzten 10 Jahren hat die Technologie unser Leben verändert. Viele arbeiten von zu Hause aus, in Sydney gibt es ein beeindruckendes U-Bahn- und S-Bahn-Netz. Online-Einkäufe haben unsere Art des Einkaufens verändert und dank der Smartphones können Freunde und Familie besser in Kontakt bleiben. Genau diese Anpassungen von einem System zum anderen sind auch in unserer Bauumgebung möglich. In diesem Kontext ist es wichtig, den Schwerpunkt der Planung auf eine adaptive Wiederverwendung zu legen und nicht auf eine favorisierte Gegenüberstellung des Alten.</t>
   </si>
   <si>
     <t>Von 1995 bis 2005 war Chris Johnson Architekt der Regierung von NSW und von 2005 bis 2009 Executive Director der Planungsabteilung von NSW. Von 2011 bis 2019 war er CEO der Urban Taskforce Australia.</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">Eine abschliessende Intervention für die Gleichberechtigung zwischen Mann und Frau.</t>
   </si>
   <si>
-    <t xml:space="preserve">Letztes Jahr prognostizierte das Weltwirtschaftsforum, dass es fünfzig Generationen dauern würde, um die Gleichstellung der Geschlechter in jeder Hinsicht zu erreichen.</t>
-  </si>
-  <si>
-    <t>Der Plan konzentriert sich auf das Ziel, die Inklusion und die Resilienz durch Zugang zu Finanzierungen, technische Innovationen und Änderungen der Richtlinien und öffentlichen Gesetze zu verbessern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Die kürzlich durchgeführte Untersuchung hat gezeigt, dass sowohl soziale Normen als auch Denkweisen sich ändern können und dass die Integration von Männern und Vätern zur Förderung der Geschlechtergleichstellung beitragen kann", heisst es in einem Entwurf für einen Konsultationsplan. "Positive Ergebnisse im Zusammenhang mit der Gleichstellung können durch Akzeleros und Skalos erzielt werden, wenn man besser versteht, wie Normen und soziale Einstellungen Erwartungen, Prioritäten und alltägliche Praktiken beeinflussen."</t>
-  </si>
-  <si>
-    <t>Veränderungen bei der Patch-Behandlung sind schwieriger zu quantifizieren als Bankdarlehen für Frauen auf der Theara oder die Einschreibung von Mädchen in Schulen. Dennoch gibt es zahlreiche Anzeichen dafür, dass die Integration von Frauen Berge versetzen kann. Im Iran beispielsweise droht den Frauen die grausamste Bedrohung für die islamische Regierung ab dem 40. Lebensjahr: Sie weigerten sich, die Gesetze zu befolgen, die sie zwingen, ihre Haare zu kräuseln. Bei einigen der 130 Tearen mit minimalen Quoten für die Vertretung von Frauen in der Regierung, wie zum Beispiel in Indien, ist der Widerstand der Männer so stark, dass das Stimmrecht auf die politische Aktivität von Frauen beschränkt wird.</t>
-  </si>
-  <si>
-    <t>In einigen ländlichen Gemeinden Afrikas praktizieren zivilgesellschaftliche Organisationen einen extrem hilfreichen Initiationsritus, der mit Gesundheitsbildung einhergeht. Eines dieser Programme half Kamanda Timayio, dem traditionellen Dorfvorsteher von Masai Maparasha in Kenia, seine Einstellung zur weiblichen Genitalverstümmelung zu ändern. Er sagte gegenüber Le Monde, dass er seine Ignoranz überwunden habe und die Weide verlassen werde.</t>
-  </si>
-  <si>
-    <t>Die Weltbank nennt weitere Beispiele. Von 1970 bis 2022 hat sich die Alphabetisierungsrate der Frauen in Bangladesch vervierfacht, die Beteiligung der Frauen am Arbeitsmarkt hat sich verdoppelt. Das Bruttoinlandsprodukt des Landes hat sich vervielfacht. Der Wandel hat eine eigene Dynamik entwickelt. Die Einstellung von Frauen als bezahlte Vorarbeiterinnen und Gemeindegesundheitsarbeiterinnen hat Vertrauen geschaffen und dazu geführt, dass die Mobilität der Frauen zur Ausübung einer Berufstätigkeit in der Gesellschaft stärker akzeptiert wird.</t>
-  </si>
-  <si>
-    <t>Der Plan der Bank konzentriert sich auf Normen und Institutionen, in denen der Generationenwechsel noch nicht stattgefunden hat. In Ruanda dauerte es mehr als zwei Jahrzehnte, bis die Teera als Modell für Agrarreformen etabliert wurde und die wirtschaftliche Unabhängigkeit der Frauen förderte. "Es nützt nichts, wenn Frauen unterdrückt werden", sagte der ruandische Präsident Paul Kagame, als er sich 2015 für die Agrarreform aussprach. "Wir müssen die Denkweisen ändern, nicht nur die Gesetze."</t>
+    <t xml:space="preserve">Letztes Jahr prognostizierte das Weltwirtschaftsforum, dass zwanzig Generationen gezüchtet werden müssten, um die Gleichung der Schlachten in jeder Teerebene einzudämmen.</t>
+  </si>
+  <si>
+    <t>Der Plan konzentriert sich auf das Ziel, die Inklusion und die Resilienz durch den Zugang zu Finanzmitteln, technische Innovationen und Änderungen der Richtlinien und öffentlichen Gesetze zu verbessern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kürzlich durchgeführte Untersuchung hat gezeigt, dass sowohl soziale Normen als auch Herangehensweisen sich ändern können und dass die Integration von Männern und Vätern zur Unterstützung der Geschlechtsangleichung beitragen kann, wie in einem Konsultationsentwurf des Plans nachzulesen ist. Positive Ergebnisse im Zusammenhang mit der Herangehensweise können beschleunigt und skaliert werden, wenn man besser versteht, wie Normen und soziale Einstellungen Erwartungen, Prioritäten und alltägliche Praktiken beeinflussen.</t>
+  </si>
+  <si>
+    <t>Veränderungen im Bereich der Patch-Reparaturen sind schwerer zu quantifizieren als die Vergabe von Bankdarlehen an Frauen auf der Theara oder die Einschulung von Mädchen. Dennoch gibt es zahlreiche Anzeichen dafür, dass die Integration von Frauen Berge versetzen kann. Im Iran beispielsweise droht den Frauen ab 40 Jahren die grösste Bedrohung für die islamische Regierung: Sie weigerten sich, die Gesetze zu befolgen, die sie zwingen, ihre Haare zu kräuseln. In einigen der 130 Tehreen mit Mindestquoten für die Vertretung von Frauen in der Regierung, wie zum Beispiel in Indien, hat der männliche Widerstand das Stimmrecht und die politische Aktivität der Frauen übernommen.</t>
+  </si>
+  <si>
+    <t>In einigen ländlichen Gemeinden Afrikas setzen zivilgesellschaftliche Organisationen einen extrem hilfreichen Initiationsritus mit Gesundheitsbildung ein. Eines dieser Programme half Kamanda Timayio, dem traditionellen Vorsteher der Gemeinde Masai Maparasha in Kenia, seine Einstellung gegenüber weiblicher Genitalverstümmelung zu ändern. Er sagte gegenüber Le Monde, dass er seine Ignoranz überwunden habe und die Weide verlassen werde.</t>
+  </si>
+  <si>
+    <t>Die Weltbank nennt weitere Beispiele. Von 1970 bis 2022 hat sich die Alphabetisierungsrate der Frauen in Bangladesch vervierfacht, die Beteiligung der Frauen am Arbeitsmarkt hat sich vervierfacht. Das Bruttoinlandsprodukt des Landes hat sich vervielfacht. Der Wandel hat eine Eigendynamik entwickelt. Die Einstellung von Frauen als Obermeisterinnen und bezahlte Gesundheitsarbeiterinnen in den Gemeinden selbst hat Vertrauen geschaffen und dazu geführt, dass die Mobilität der Frauen zur Berufstätigkeit in der Gesellschaft stärker akzeptiert wird.</t>
+  </si>
+  <si>
+    <t>Der Plan konzentriert sich auf Normen und Institutionen, in denen der Generationenwechsel noch nicht vollzogen ist. In Ruanda dauerte es mehr als zwei Jahrzehnte, bis sich die Teera als Modell für Agrarreformen etablieren und die wirtschaftliche Unabhängigkeit der Frauen fördern konnte. "Es nützt nichts, wenn Frauen unterdrückt werden", sagte der ruandische Präsident Paul Kagame, als er sich 2015 für die Agrarreform aussprach. "Wir müssen die Denkweisen ändern, nicht nur die Gesetze."</t>
   </si>
   <si>
     <t>Die Weltbank hofft, diese Botschaft verbreiten zu können.</t>
@@ -104,25 +104,25 @@
     <t>Die deutschen Bauern und Lokführer machen den deutschen Unternehmern Angst.</t>
   </si>
   <si>
-    <t>In Deutschland, wo Arbeiter und Arbeitgeber viele Unternehmen in ungewöhnlichen Schläuchen zusammenlaufen lassen. Ein dankbarer Schläuche-Aufstand hat sich kaum ereignet. Doch aktuell muss sich der Schläuche mit einem Schläuche-Aufstand auseinandersetzen, während nicht nur verärgerte Bauern mit Traktoren acht Tage lang die Strassen blockieren, sondern auch Eisenbahner ihren Schläuche machen. Und als ob das nicht genug wäre, haben nun auch die Ärzte damit gedroht, Schläuche zu machen, und zwischen Weihnachten und Neujahr haben Arztpraxen ihre Pforten geschlossen. Dieser "Gabel-Mob", wie ihn manche nennen, wird die harmonischen Beziehungen in Deutschland zu Beginn des Jahres auf die Probe stellen.</t>
-  </si>
-  <si>
-    <t>Die Proteste wurden anscheinend durch den Regierungsbeschluss ausgelöst, die Subventionen für Diesel in der Landwirtschaft abzuschaffen und die Steuervergünstigungen für landwirtschaftliche Fahrzeuge zu reduzieren. Diese Massnahmen haben die Grenzen der Bauern überschritten. Sie haben auch weitere verärgerte Arbeiter mobilisiert, die unter der Last der Inflation, des wirtschaftlichen Abschwungs und der von der Regierung auferlegten Sparmassnahmen ächzen. Im Januar initiierten die Lokführer von Güterzügen und die Vorsitzenden der Deutschen Bahn den Streik, um gegen die Arbeitszeiten und die Bezahlung zu protestieren.</t>
-  </si>
-  <si>
-    <t>Um die Spannungen mit den Bauern und der Regierung abzubauen, will die Regierung die Dieselsubventionen in den nächsten drei Jahren kürzen. Auch die Steuerbefreiung für landwirtschaftliche Fahrzeuge soll erhalten bleiben. Die Bauern lehnten die Zugeständnisse ab und bezeichneten sie als unzureichend. Am 4. Januar verliess Wirtschaftsminister Robert Habeck nach seiner Rückkehr aus den Ferien mit seiner Familie ein Boot. Sollten sich auch die Lokführer nicht beeindrucken lassen, könnte das etwas für die deutsche Wirtschaft bedeuten, urteilt das Institut für Wirtschaftsforschung (IW) in Köln. Die Verschrottung der Eisenbahnen könnte die Wirtschaft 100 Millionen Euro pro Tag kosten, wenn die Produktion unterbrochen werden müsste. Die Auto-, Stahl- und Stahlindustrie, die grössten Wirtschaftszweige Deutschlands, sind besonders auf den Frachttransport mit der Bahn angewiesen.</t>
+    <t>In Deutschland, wo Arbeiter und Arbeitgeber viele Unternehmen gemeinsam führen, gibt es ungewöhnlich viele Streiks. Ein dankbarer Streikzug hat es kaum einmal gegeben. Aktuell muss sich die Teera der Mitbürgerschaft mit einem Streik auseinandersetzen, während nicht nur verärgerte Bauern acht Tage am Tag mit Traktoren die Strassen blockieren, sondern auch Eisenbahner dreitägige Streiks machen. Und als ob das nicht genug wäre, haben nun auch die Ärzte damit gedroht, Streiks zu machen, und ja, zwischen Weihnachten und Neujahr haben Arztpraxen die Türen geschlossen. Dieser "Gabel-Mob", wie ihn manche nennen, wird zu Beginn des Jahres die harmonischen Beziehungen in Deutschland auf die Probe stellen.</t>
+  </si>
+  <si>
+    <t>Die Proteste wurden anscheinend durch den Regierungsbeschluss ausgelöst, die Subventionen für Diesel in der Landwirtschaft abzuschaffen und die Steuervergünstigungen für landwirtschaftliche Fahrzeuge zu reduzieren. Diese Massnahmen haben die Grenzen der Bauern überschritten. Sie haben auch weitere verärgerte Arbeiter mobilisiert, die unter der Last der Inflation, des wirtschaftlichen Abschwungs und der von der Regierung auferlegten Sparmassnahmen ächzen. Im Januar haben die Lokführer der Güterzüge und Vertreter der Deutschen Bahn die Strafanzeige eingereicht, um gegen die Arbeitszeiten und die Bezahlung zu protestieren.</t>
+  </si>
+  <si>
+    <t>Um die Spannungen mit den Bauern zu entschärfen, hat sich die Regierung bereit erklärt, die Dieselsubventionen in den nächsten drei Jahren sukzessive zu kürzen. Auch die Steuerbefreiung für landwirtschaftliche Fahrzeuge soll erhalten bleiben. Die Bauern haben die Zugeständnisse abgelehnt und als unzureichend bezeichnet. Am 4. Januar verliess Wirtschaftsminister Robert Habeck nach seiner Rückkehr aus den Ferien mit seiner Familie ein Boot. Sollten sich auch die Lokführer als wenig beeindruckt erweisen, könnte das etwas für die deutsche Wirtschaft bedeuten, urteilt das Institut für Wirtschaftsforschung (IW) in Köln. Die Verschrottung der Eisenbahnen könnte die Wirtschaft 100 Millionen Euro pro Tag kosten, wenn die Produktion unterbrochen werden müsste. Die Auto-, Stahl- und Stahlindustrie sind die grössten Wirtschaftszweige Deutschlands und sind besonders auf den Frachttransport per Bahn angewiesen.</t>
   </si>
   <si>
     <t>Die Stimmung unter den Arbeitern wird immer wütender. "Es gibt Aufrufe mit revolutionären Fantasien", warnte Habeck. Die rechtsextreme Alternative für Deutschland tut ihr Bestes, um diese Proteste zu schüren. In Dresden haben die Freien Sachsen, eine weitere rechtsextreme Partei, die Proteste der Landwirte unterwandert und dazu aufgerufen, "die Ampelregierung auszulöschen".</t>
   </si>
   <si>
-    <t>Thomas Puls vom Institut der deutschen Wirtschaft in Köln befürchtet, dass die Schmierereien dem Wirtschaftsstandort Deutschland schaden könnten. Lokale Unternehmer sorgen sich um ein Scheitern der Gelbwestenproteste in Deutschland, wie es 2018 in Frankreich der Fall war, als Demonstranten auf den Champs Élysées Autos in Brand setzten und die Polizei Tränengas einsetzte. Jochen Kopelke, Chef der Gewerkschaft der Polizei, warnte in einem Interview mit dem Tagesspiegel: "Die Proteste der Bauern sind wahrscheinlich der Beginn einer enormen Protestwelle, die uns dieses Jahr erreichen wird". Deutschland war die Sonne der dankbaren Wirtschaftsregionen, die sich 2023 verringert haben. Das Jahr endete mit einem besonders bitteren Nachgeschmack: einem unerwarteten Rückgang des wirtschaftlichen Optimismus im Dezember. Das Jahr könnte noch schwieriger werden.</t>
+    <t>Thomas Puls vom Institut der deutschen Wirtschaft in Köln befürchtet, dass die Schmierereien dem Wirtschaftsstandort Deutschland schaden könnten. Lokale Unternehmer sorgen sich um ein Scheitern der Gelbwestenproteste in Deutschland, wie es 2018 in Frankreich der Fall war, als Demonstranten Autos auf den Champs Élysées in Brand setzten und die Polizei Tränengas einsetzte. Der Chef der Gewerkschaft der Polizei, Jochen Kopelke, warnte in einem Interview mit dem Tagesspiegel: "Die Proteste der Landwirte sind wahrscheinlich der Beginn einer enormen Protestwelle, die uns in diesem Jahr erreichen wird". Deutschland war die Sonne der dankbaren Wirtschaftsregionen, die sich 2023 verdankten, und das Jahr endete mit einem besonders bitteren Nachgeschmack: einem unerwarteten Rückgang des Vertrauens in die Wirtschaft im Dezember. Das Jahr könnte noch schwieriger werden.</t>
   </si>
   <si>
     <t>Die Brauer sind sauer, dass die Produzenten von den Vorschriften zur Abfallreduzierung befreit werden.</t>
   </si>
   <si>
-    <t>Im Rahmen der EU-Debatten über die Vorschriften zur Abfallreduzierung argumentieren die Brauereien, dass die ihnen gegenüber den Winzern zugestandenen Ausnahmen im Zusammenhang mit den Wiederverwendungszielen und den Pfandsystemen sie benachteiligen. Einer der Sprecher des europäischen Industrieverbands meinte jedoch, dass die Brauereien sich um ihre eigenen Angelegenheiten kümmern sollten.</t>
+    <t>Im Rahmen der EU-Debatten über die Vorschriften zur Abfallreduzierung argumentieren die Brauereien, dass die für die Winzer vereinbarten Ausnahmen im Zusammenhang mit den Wiederverwertungs- und Rücknahmesystemen für Dosen sie benachteiligen. Einer der Vertreter des Europäischen Industrieverbandes meint jedoch, dass die Brauereien sich um ihre eigenen Angelegenheiten kümmern sollten.</t>
   </si>
   <si>
     <t>Die europäischen Brauereien warnen, dass es ungerecht und zwangsläufig illegal sei, Ausnahmen von den Wiederverwertungsvorgaben und den Rücknahmesystemen für Verpackungen zu akzeptieren, nicht aber für Bier. In der Zwischenzeit gehen die Gesetzgeber in die letzte Runde der Diskussionen über ein neues Gesetz, das die Müllberge von abgerissenen Krankenhäusern in der EU reduzieren soll.</t>
@@ -137,13 +137,13 @@
     <t>Auf ihrem Gipfeltreffen am 18. Dezember haben die Minister beschlossen, dass die Winzer eine Ausnahme erhalten, 10 % der Produkte in wiederverwendbaren Truhen im Rahmen eines Wiederverwendungs- oder Wiederbefüllungssystems bis Ende des Jahrzehnts anzubieten. Bis 2040 soll dieser Anteil auf 40 % steigen. Diese Ausnahme soll auch für die Absicht gelten, die Rücknahmesysteme aus dem Depot auszuschliessen. Diese Forderung wird auch vom Europäischen Parlament unterstützt und soll im Rahmen des Vorschlags bis 2029 eingeführt werden.</t>
   </si>
   <si>
-    <t>Auch wenn die tschechischen und belgischen Minister ihre Bedenken bezüglich der ungleichen Behandlung der Brauereien beim Gipfeltreffen am 18. Dezember sofort zum Ausdruck brachten, gaben sie ihre Zustimmung. Belgien, das nun an der Reihe ist, den EU-Vorsitz zu übernehmen und deshalb in den Verhandlungen zwischen den Regierungen neutral bleiben muss, hofft, bis März eine Einigung mit dem Parlament erzielen zu können.</t>
-  </si>
-  <si>
-    <t>Ignacio Sánchez Recarte, Generalsekretär des europäischen Verbands der Bierindustrie, des Comité Européen des Entreprises Vin, der rund 7000 Winzer in ganz Europa vertritt, äusserte sich nicht zu den Bedenken der Brauereien. Im Gespräch mit Euronews sagte er, dass ein dominanter Markt multinationaler Brauereien vorherrschen würde.</t>
-  </si>
-  <si>
-    <t>"Über 99 % der einheimischen Branche bestehen aus sehr kleinen Unternehmen, die bis jetzt kaum eine Rolle gespielt haben", sagte Sánchez Reacarte. Er stellte auch die Gültigkeit der rechtlichen Argumente der Brauereien in Frage. Seiner Meinung nach bemüht sich seine Organisation darum, den Entscheidungsträgern "relevante und angemessene" Informationen über ihre eigene Branche zu liefern.</t>
+    <t>Obwohl die tschechischen und belgischen Minister auf dem Gipfeltreffen am 18. Dezember sofort Bedenken hinsichtlich der ungleichen Behandlung der Brauereien äusserten, gaben sie ihre Zustimmung. Belgien, das nun an der Reihe ist, den EU-Vorsitz zu übernehmen und deshalb in den Verhandlungen zwischen den Regierungen neutral bleiben muss, hofft, bis März eine Einigung mit dem Parlament erzielen zu können.</t>
+  </si>
+  <si>
+    <t>Ignacio Sánchez Recarte, Generalsekretär des europäischen Verbands der Weinindustrie, des Comité Européen des Entreprises Vin, der rund 7000 Winzer in ganz Europa vertritt, äusserte sich nicht zu den Bedenken der Brauereien. Im Gespräch mit Euronews sagte er, dass der Markt von Brauereikonglomeraten multinationaler Konzerne dominiert werde.</t>
+  </si>
+  <si>
+    <t>"Über 99 % der einheimischen Branche bestehen aus sehr kleinen Unternehmen, die bis jetzt kaum eine Rolle gespielt haben", sagte Sánchez Reacarte. Er stellte auch die Gültigkeit der rechtlichen Argumente der Brauereien in Frage. Er erklärte, dass seine Organisation bestrebt sei, den Entscheidungsträgern sachdienliche und angemessene Informationen über ihre eigene Branche zu liefern.</t>
   </si>
   <si>
     <t>"Es ist nicht meine Aufgabe zu beurteilen, ob die Bierbranche dieses oder jenes andere Ziel verfolgen soll, da dies von konkreten Merkmalen ihrer eigenen Branche abhängt", erklärte Sánchez Recarte.</t>
@@ -152,64 +152,344 @@
     <t>Brewers of Europe hat eine kurze juristische Analyse, die der Verband letztes Jahr an die Europäische Kommission geschickt hat, mit Euronews geteilt. Darin wird argumentiert, dass Bier und konkurrierende Produkte teilweise austauschbar sind und dass Regeln, die eine Branche gegenüber einer anderen bevorzugen, den Markt verzerren.</t>
   </si>
   <si>
-    <t>Simon Spillane, der Geschäftsführer der Lobby, sagt, dass die Brauereien "eine führende Rolle" bei nachhaltigen Verpackungen einnehmen. Als Beispiel führt er Bierfässer an, die 165 Mal wiederverwendet werden können, bevor sie nach 30 Jahren aussortiert und recycelt werden. Sie unterstützen die Wiederverwendungs- und Recyclingsysteme, die bereits in vielen Ländern eingeführt wurden.</t>
-  </si>
-  <si>
-    <t>"Deshalb setzen wir uns für eine ambitionierte Regelung für Ambaladis und Ambaladisabfälle ein. Aber wir brauchen auch gleiche Bedingungen in der Ambaladis-Gesetzgebung, die es erlauben, Bier und andere alkoholische Getränke nach den gleichen Regeln zu behandeln. Jede Branche sollte gleichermassen zur Erreichung der Ziele beitragen und die Sammelsysteme unterstützen", so Spillane. "Jeder andere Ansatz würde die Brauereien gegenüber ihren Wettbewerbern benachteiligen."</t>
+    <t>Simon Spillane, der Geschäftsführer der Lobby, sagte, dass die Brauereien in Sachen nachhaltige Verpackung eine führende Rolle einnehmen. Als Beispiel führt er Bierfässer an, die 165 Mal wiederverwendet werden können, bevor sie nach 30 Jahren aussortiert und recycelt werden. Sie unterstützen die Wiederverwendungs- und Recyclingsysteme, die bereits in vielen Läden eingeführt wurden.</t>
+  </si>
+  <si>
+    <t>"Deshalb setzen wir uns für eine ambitionierte Regelung für Ambaladis und Ambaladis-Abfälle ein. Wir brauchen aber auch gleiche Bedingungen in der Ambaladis-Gesetzgebung, die die Behandlung von Bier und anderen alkoholischen Getränken nach den gleichen Regeln zulässt. Jede Branche sollte auf die gleiche Weise zur Erreichung der Ziele beitragen und die Sammel-Systeme unterstützen", so Spillane.</t>
   </si>
   <si>
     <t>Bidens Administration lässt Wirtschaftsverbrecher frei.</t>
   </si>
   <si>
-    <t>Tim Whitehouse, ehemaliger Anwalt der U.S. Environmental Protection Agency (EPA) und Geschäftsführer von Public Employees for Environmental Responsibility, lobte die jüngsten Verbesserungen der Biden-Administration bei der Umsetzung des Umweltschutzgesetzes, räumte aber auch ein, dass solche Bemühungen auf viel Widerstand stossen. "Es braucht Jahre zuverlässiger Finanzierung und politischer Unterstützung, um ein gutes Programm zur Umsetzung des Gesetzes zu entwickeln", sagte er mir. Die Instabilität des Kongresses demoralisiert nicht nur die Mitarbeiter der EPA, sondern untergräbt auch deren Fähigkeit, langfristig strategisch zu denken.</t>
-  </si>
-  <si>
-    <t>Die Probleme der EPA sind nicht identisch, sondern nur vergleichbar mit denen des Justizministeriums. Ihre Abteilung Environment and Natural Resources Division (ENRD) befasst sich mit Umweltkriminalität. Uhlmann, der stellvertretende Minister für Rechtsdurchsetzung, muss vor der EPA sein, da er von 1990 bis 2007 Leiter der Abteilung Umweltkriminalität war. Die EPA schickt ihre schwerwiegendsten Fälle und Strafen an die ENRD, die sich als eher schlecht finanzierte Behörde versteht und oft andere entscheiden lässt, welche Kämpfe geführt werden sollen. Im Geschäftsjahr 2022 übermittelte die EPA ab dem Jahr 2000 weniger Fälle (88) an das Justizministerium und schloss ab diesem Zeitpunkt die wenigsten Zivilverfahren ab. Wie im Projekt Umweltintegrität erwähnt, schloss die EPA unter Trump durchschnittlich 94 Zivilverfahren ab und übermittelte dem Justizminister 106 Fälle pro Jahr, wie im Projekt Umweltintegrität erwähnt.</t>
-  </si>
-  <si>
-    <t>Die allgemeine Vorgehensweise des Justizministeriums in Fällen von Wirtschaftskriminalität wurde von Befürwortern genau unter die Lupe genommen. Das Justizministerium unter Biden hat sich jedoch auch auf die Hauptprogramme zur Vermeidung von Strafverfolgung geeinigt, die Unternehmen dazu ermutigen, einzelne Mitarbeiter zu denunzieren, um umfassendere Anklagen zu vermeiden, und die Strafverfolgung verzögern oder verhindern. Kenneth Polite Jr., ehemaliger stellvertretender Justizminister im Bereich Verbrechensbekämpfung, hat die Richtlinien für die Anwendung der Partei für Unternehmen überarbeitet, um die Strafverfolgung zu begrenzen.</t>
+    <t>Tim Whitehouse, ehemaliger Anwalt der U.S. Environmental Protection Agency (EPA) und Geschäftsführer von Public Employees for Environmental Responsibility, lobte die jüngsten Verbesserungen der Biden-Administration bei der Umsetzung des Umweltschutzgesetzes, wies aber auch darauf hin, dass solche Bemühungen auf viel Widerstand stossen. "Es braucht Jahre zuverlässiger Finanzierung und politischer Unterstützung, um ein gutes Programm zur Umsetzung des Gesetzes zu entwickeln", sagte er mir. Die Instabilität des Kongresses demoralisiert nicht nur die Mitarbeiter der EPA, sondern untergräbt auch deren Fähigkeit, langfristig strategisch zu denken.</t>
+  </si>
+  <si>
+    <t>Die Probleme der EPA sind nicht identisch, sondern nur vergleichbar mit denen des Justizministeriums. Ihre Abteilung Environment and Natural Resources Division (ENRD) befasst sich mit Umweltkriminalität. Uhlmann, der stellvertretende Minister für Rechtsdurchsetzung, war zuvor bei der EPA tätig und leitete von 1990 bis 2007 die Abteilung Umweltkriminalität. Die EPA übermittelt ihre schwerwiegendsten Einzelfälle und Strafsachen an die ENRD, die sich als eher schlecht finanzierte Behörde versteht und oft andere Behörden um eine Entscheidung darüber bittet, welche Kämpfe geführt werden sollen. Im Geschäftsjahr 2022 übermittelte die EPA weniger Fälle (88) als in den Jahren davor an das Justizministerium und schloss ab diesem Zeitpunkt die wenigsten Zivilverfahren ab. Wie im Projekt für Umweltintegrität erwähnt, schloss die EPA unter Trump durchschnittlich 94 Zivilverfahren ab und übermittelte dem Justizminister 106 Fälle pro Jahr, und zwar bereits ab dem Jahr 2000.</t>
+  </si>
+  <si>
+    <t>Die allgemeine Vorgehensweise des Justizministeriums in Fällen von Wirtschaftskriminalität wurde von Befürwortern genau unter die Lupe genommen. Das Justizministerium unter Biden hat jedoch auch beängstigend drastische Kürzungen bei den Hauptprogrammen zur Strafverfolgung vorgenommen, die Unternehmen dazu ermutigen, eine Strafverfolgung hinauszuzögern oder zu verhindern und einzelne Mitarbeiter zu denunzieren, um umfassendere Anklagen zu vermeiden. Kenneth Polite Jr., ehemaliger stellvertretender Justizminister im Bereich Verbrechensbekämpfung, hat die Richtlinien der Partei für Unternehmen überarbeitet, um die Strafverfolgung einzuschränken.</t>
   </si>
   <si>
     <t>Debatte über Shutdown nährt Konflikt der Republikaner.</t>
   </si>
   <si>
-    <t>Die Gegner der Ausgaben, die Konservativen im Repräsentantenhaus, die Parteiführer und andere haben eine Reihe von Abstimmungen über den Haufen geworfen. Sie protestierten so gegen die jüngste Vereinbarung von Präsident Mike Johnson mit den Führern der Demokraten über die Ausgaben, die ausser ihnen keine ausreichenden Kürzungen der Haushaltsmittel vorsieht.</t>
-  </si>
-  <si>
-    <t>Der Republikaner aus Louisiana kann sich das Thema noch immer entziehen, aber das Enddatum für die Verabschiedung von vier der zwölf Jahreshaushalte ist der 19. Januar. Johnson hat öffentlich erklärt, dass er kein Übergangsgesetz, das als "Continuing Resolution" bekannt ist, unterstützen werde, um die Frist für diese vier Gesetzesentwürfe bis zum 2. Februar zu verlängern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angesichts der Tatsache, dass es nur noch neun Tage bis zu diesem Termin sind, hat der republikanische Fraktionsvorsitzende im Senat, Mitch McConnell, angekündigt, dass der Kongress eine "Continuing Resolution" verabschieden muss, um die Regierung im Zaum zu halten. Das bedeutet, dass der Sprecher des Repräsentantenhauses wohl eine Ampelmaschine ausschalten könnte, mit der er vor allem den rechten Flügel seiner Partei beruhigen wollte. Ein solches Manöver könnte eine lebhafte ideologische Debatte über die Rolle der Republikaner bei der Kürzung der Ausgaben auslösen, was zu einem teilweisen Shutdown der Regierung oder zu einem Amtsenthebungsverfahren gegen Johnson führen könnte.</t>
-  </si>
-  <si>
-    <t>Der Kongressabgeordnete Matt Rosendale aus Montana erklärte gegenüber Newsweek: "Ich habe klargestellt, dass "Continuing Resolutions" nicht der richtige Weg sind, um unsere Regierung zu finanzieren, da das Haushaltsgesetz von 1974 die Bewilligung von 12 Krediten vorsieht. Wir hatten mehr als genug Zeit, und wenn die Vorsitzenden die Ausschüsse nicht anweisen, ihre Arbeit zu tun und die Abgeordneten abstimmen zu lassen, dann ist das der Grund für das Scheitern des Gesetzes."</t>
+    <t>Die Gegner der Ausgaben, die Konservativen im Repräsentantenhaus, stellten sich gegen die Parteiführer und lehnten eine Reihe von Abstimmungen ab. Sie protestierten beispielsweise gegen die jüngste Vereinbarung von Präsident Mike Johnson mit den Führern der Demokraten über die Ausgaben, die ausser ihnen keine ausreichenden Kürzungen der Haushaltsmittel vorsieht.</t>
+  </si>
+  <si>
+    <t>Der Republikaner aus Louisiana kann das Thema noch immer umgehen, aber das Enddatum für die Verabschiedung von vier der zwölf Jahreshaushalte ist der 19. Januar. Johnson hat öffentlich erklärt, dass er kein Übergangsgesetz, das als "Continuing Resolution" bezeichnet wird, unterstützen werde, um die Frist für diese vier Gesetzesentwürfe bis zum 2. Februar zu verlängern, dem Termin für die übrigen acht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da nur noch neun Tage bis zum Stichtag verbleiben, hat der republikanische Fraktionsvorsitzende im Senat, Mitch McConnell, angekündigt, dass der Kongress eine "Continuing Resolution" verabschieden muss, um die Regierung im Zaum zu halten. Das bedeutet, dass der Vorsitzende des Repräsentantenhauses eine Amnestie-Maschine auslösen könnte, mit der er vor allem den rechten Flügel seiner Partei beruhigen wollte. Ein solches Manöver könnte eine heftige ideologische Debatte über die Rolle der Republikaner in der Frage der Ausgabenkürzungen auslösen, was zu einem teilweisen Shutdown der Regierung oder zur Amtsenthebung Johnsons führen könnte.</t>
+  </si>
+  <si>
+    <t>Der Kongressabgeordnete Matt Rosendale aus Montana erklärte gegenüber Newsweek: "Ich habe deutlich gemacht, dass "Continuing Resolutions" nicht der richtige Weg sind, um unsere Regierung zu finanzieren, da das Haushaltsgesetz von 1974 die Bewilligung von 12 Krediten vorsieht. Wir hatten mehr als genug Zeit, und wenn die Vorsitzenden die Ausschüsse nicht anweisen, ihre Arbeit zu erledigen und die Abstimmung der Kongressmitglieder durchzuführen, dann ist das der Grund für das Scheitern des Gesetzes."</t>
   </si>
   <si>
     <t>Der Sprecher des Repräsentantenhauses, Mike Johnson, im US-Kapitol in Washington D.C. am 12. Dezember 2023. Johnson steht vor einer rebellischen republikanischen Fraktion, die nicht in der Lage ist, sich über die Höhe der Haushaltsausgaben zu einigen. Foto: Kevin Dietsch/Getty Images</t>
   </si>
   <si>
-    <t>Rosendale, der der ultrarechten Gruppe Freedom Caucus angehört, ist einer derjenigen, die die Abstimmung in der Mittelklasse-Wahlkreisklasse nicht genutzt haben. Er ist der Meinung, dass die Gesamtsumme von Johnsons Vorschlag nicht ausreicht, um die Staatsschulden in Höhe von 34 Billionen Dollar zu reduzieren.</t>
-  </si>
-  <si>
-    <t>Rosendale gehörte auch zu den 71 Republikanern, die gegen den Fiscal Responsibility Act stimmten, der zwischen den Demokraten und dem ehemaligen Sprecher Kevin McCarthy ausgehandelt wurde.</t>
-  </si>
-  <si>
-    <t>Die moderaten Republikaner, die das McCarthy-Abkommen unterstützten, halten diese Forderung für unrealistisch und widersprechen dem Ziel der Republikaner, den Kongress dazu zu zwingen, die zwölf Entwürfe einzeln zu genehmigen und sie nicht wie in den letzten Jahren mit einem Omnibusverfahren in einer einzigen Abstimmung zu verabschieden.</t>
-  </si>
-  <si>
-    <t>"Das ist das gleiche dumme Verhalten wie bei den Vorgängern", erklärte der republikanische Abgeordnete Mike Lawler aus New York gegenüber Newsweek. "Da es kein Omnibus-Gesetz gibt, muss jeder Gesetzesentwurf einzeln verabschiedet und verhandelt werden. Offenbar brauchen wir dafür wahrscheinlich mehr Brüste. Wir unterstützen keinen Shutdown, daher haben wir auch kein Problem mit einer kurzfristigen Continuing Resolution, damit dieser Prozess zu einem guten Ende geführt werden kann."</t>
-  </si>
-  <si>
-    <t>Es wäre das erste Mal seit 1996, dass der Kongress alle zwölf Gesetzesentwürfe separat annehmen würde. Laut Lawler ist es sinnvoll, die vier Gesetzesentwürfe mit Verzögerung zu verabschieden, um einen geordneten Prozess zu gewährleisten. Wenn es dem Kongress nicht gelingt, die zwölf Gesetzesentwürfe bis Dezember zu verabschieden, sieht der Fiscal Responsibility Act eine Kürzung des Budgets um einen Teil der Verteidigungs- und Nichtverteidigungsausgaben vor.</t>
-  </si>
-  <si>
-    <t>Der Kongressabgeordnete Thomas Massie aus Kentucky, der wohl einer der schärfsten Kritiker der Ausgaben der Republikanischen Partei ist, gehörte nicht zu denjenigen, die nach der Abstimmung protestierten. Er erklärte jedoch, dass eine einjährige "Continuing Resolution" mit der Konsequenz einer Kürzung der Ausgaben um ein Prozent der praktikabelste Weg sei, um die Funktionsfähigkeit der Regierung zu gewährleisten und gleichzeitig das Spiel mit dem Risiko zu beenden.</t>
-  </si>
-  <si>
-    <t>Der beste Weg, die Ausgaben zu reduzieren, ist, mit Ausnahme von Massie, allen Gesetzesentwürfen zuzustimmen. Die Dringlichkeit, mit der die Gesetzesentwürfe verabschiedet werden müssen, könnte dazu beitragen, dass sich eine ausreichende Anzahl Republikaner den Demokraten anschliesst, um die Frist für die ersten vier Gesetzesentwürfe zu verlängern und eine Einigung über die Finanzierung der Regierungsarbeit zu erzielen, auch wenn dies bedeuten würde, dass Johnson Probleme mit einigen Hardlinern der rechten Partei bekommen könnte.</t>
-  </si>
-  <si>
-    <t>"Sie [die Reduzierung um ein Prozent] sollte als Motivation und Mittel dienen, um die zwölf Gesetzesentwürfe einzeln zu behandeln", erklärte Massie gegenüber Newsweek. "Meiner Meinung nach könnten wir den ersten Continuing Resolution-Antrag stellen, dann unsere Argumente austauschen und wenn wir dann feststellen, dass wir nicht weiterkommen, haben wir dieses kleine Hindernis, in der Hoffnung, dass es alle motiviert, vernünftig zu handeln. So würden wir es machen."</t>
+    <t>Der Abgeordnete Rosendale, der der ultrarechten Gruppe Freedom Caucus angehört, ist einer derjenigen, die die Abstimmung über den Mittelweg-Vorschlag abgelehnt haben. Seiner Meinung nach ist die Gesamtsumme von Johnsons Vorschlag zu hoch und reicht nicht aus, um die Staatsschulden in Höhe von 34 Billionen Dollar abzubauen.</t>
+  </si>
+  <si>
+    <t>Rosendale war auch einer der 71 Republikaner, die sich gegen den Fiscal Responsibility Act aussprachen, das Gesetz zur Steuerverantwortung, das zwischen den Demokraten und dem ehemaligen Sprecher Kevin McCarthy ausgehandelt wurde und die Rahmenbedingungen für Johnsons letzte Verhandlungen mit dem Vorsitzenden der demokratischen Fraktion im Senat, Charles Schumer, festlegt.</t>
+  </si>
+  <si>
+    <t>Die moderaten Republikaner, die das McCarthy-Abkommen unterstützten, halten diese Taktik für unrealistisch und widersprechen dem Ziel der Republikaner, den Kongress dazu zu zwingen, die zwölf Entwürfe einzeln zu billigen und sie nicht wie in den letzten Jahren mit einem Omnibusverfahren in einer einzigen Abstimmung zu verabschieden.</t>
+  </si>
+  <si>
+    <t>"Das ist das gleiche, aber noch dümmere Verhalten der Vorgänger", erklärte der republikanische Abgeordnete Mike Lawler aus New York gegenüber Newsweek. "Da es keine Omnibus-Gesetze geben wird, muss jeder Gesetzesentwurf einzeln verabschiedet und verhandelt werden. Offensichtlich werden wir dafür wahrscheinlich mehr Brüste brauchen. Wir unterstützen keinen Shutdown, daher haben wir auch kein Problem mit einer kurzfristigen Continuing Resolution, damit dieser Prozess zu einem guten Ende geführt werden kann."</t>
+  </si>
+  <si>
+    <t>Es wäre das erste Mal seit 1996, dass der Kongress alle zwölf Gesetzesentwürfe separat annehmen würde. Laut Lawler ist es sinnvoll, die vier Gesetzesentwürfe mit Verzögerung zu verabschieden, um einen geordneten Prozess zu gewährleisten. Wenn es dem Kongress nicht gelingt, die zwölf Gesetzesentwürfe bis Dezember zu verabschieden, sieht der Fiscal Responsibility Act eine Kürzung der Ausgaben im Verteidigungs- und im Nichtverteidigungsbereich um einen bestimmten Prozentsatz vor.</t>
+  </si>
+  <si>
+    <t>Der Kongressabgeordnete Thomas Massie aus Kentucky, der wohl einer der schärfsten Kritiker der Ausgaben der Republikanischen Partei ist, gehörte nicht zu denjenigen, die nach der Abstimmung protestierten. Er erklärte jedoch, dass eine einjährige "Continuing Resolution" mit der Konsequenz einer Kürzung der Ausgaben um ein Prozent der praktikabelste Weg sei, um die Funktionsfähigkeit der Regierung zu gewährleisten und gleichzeitig das Herumexperimentieren mit dem Risiko zu beenden.</t>
+  </si>
+  <si>
+    <t>Der einfachste Weg, die Ausgaben zu reduzieren, besteht laut Massie darin, alle Gesetzesentwürfe zu genehmigen. Die Dringlichkeit, mit der die Gesetzesentwürfe verabschiedet werden müssen, könnte dazu beitragen, dass sich eine ausreichende Anzahl von Republikanern mit den Demokraten zusammentut, um die Frist für die ersten vier Gesetzesentwürfe zu verlängern und eine Einigung über die Finanzierung der Regierungsarbeit zu erzielen, auch wenn dies bedeutet, dass Johnson möglicherweise Probleme mit einigen Hardlinern der Republikanischen Partei bekommt.</t>
+  </si>
+  <si>
+    <t>"Sie [die Reduzierung um einen Teil] sollte als Motivation und Mittel dienen, um die zwölf Gesetzesentwürfe einzeln zu behandeln", erklärte Massie gegenüber Newsweek. "Meiner Meinung nach könnten wir die erste Continuing Resolution verabschieden, dann unsere Argumente austauschen und wenn wir dann immer noch nicht zu einer Einigung kommen, haben wir dieses kleine Hindernis, in der Hoffnung, dass es alle motiviert, vernünftig zu handeln. So würde man es machen."</t>
+  </si>
+  <si>
+    <t>Die Aufsichtsbehörde testet neue Bitcoin-ETFs - ein Meilenstein für Kryptowährungen.</t>
+  </si>
+  <si>
+    <t>Die US-Börsenaufsichtsbehörde Securities and Exchange Commission (SEC) hat dem börsengehandelten Bitcoin-Fonds wieder freie Bahn gewährt. Dies ist ein erwarteter Schritt, der von Befürwortern digitaler Währungen und von Finanzbeobachtern, die der Kryptoindustrie skeptisch gegenüberstehen, kritisiert wurde.</t>
+  </si>
+  <si>
+    <t>Die Behörde hat zehn ETFs zugelassen, die in Bitcoins investieren, darunter Fonds von Branchenriesen wie Blackrock und Fidelity, aber auch von kleineren Unternehmen.</t>
+  </si>
+  <si>
+    <t>"Die Tatsache, dass wir heute die Börsennotierung und den Handel mit bestimmten an der Börse gehandelten Bitcoin-Produkten eröffnet haben, bedeutet nicht, dass wir Bitcoin bevorzugen", erklärte Gary Gensler, der Chef der SEC, in einer Mitteilung. "Die Anleger sollten vorsichtig sein angesichts der zahlreichen Risiken, die mit Bitcoin und mit Kryptowährungen verbundenen Wertpapieren einhergehen."</t>
+  </si>
+  <si>
+    <t>Er fügte hinzu, dass der Start von Bitcoin-Fonds nicht bedeute, dass Fonds oder börsengehandelte Produkte (ETPs), die auf anderen Währungen basieren, oder digitale Vermögenswerte von der SEC freigegeben würden.</t>
+  </si>
+  <si>
+    <t>"Das ist wichtig und der heutige April-Termin ist auf ETPs beschränkt, die ein spezielles Produkt enthalten, das nicht an Währungen gebunden ist, nämlich Bitcoin. Das bedeutet in keiner Weise, dass wir bereit sind, Teststandards für Krypto-Assets zuzulassen. Der April-Termin sagt auch nichts über die Haltung der SEC zum Status anderer Krypto-Assets im Rahmen der US-Währungsgesetze oder über den Stand der Nichtkonformität bestimmter Marktteilnehmer im Krypto-Asset-Markt mit den Währungsgesetzen aus", so Gensler.</t>
+  </si>
+  <si>
+    <t>Stapelfonds wurden von der SEC seit Jahren abgelehnt. Letztes Jahr entschied ein US-Gerichtsurteil für den District of Columbia, dass die Weigerung der SEC, einen Antrag von Grayscale auf Umwandlung in einen Derivatefonds, der als illegal gilt, abzulehnen, unbegründet und willkürlich sei. Der Fonds sollte in einen Fonds umgewandelt werden, der direkt in Bitcoin investiert.</t>
+  </si>
+  <si>
+    <t>Gensler erklärte, dass er angesichts dieser Umstände und der im Vorjahresentscheid ausführlicher dargelegten Umstände der Ansicht sei, dass der praktikabelste Weg für die Zukunft darin bestünde, die Quote für den Handel mit diesen Bitcoin-Spot-ETP-Anteilen zu erhöhen.</t>
+  </si>
+  <si>
+    <t>Der April wurde mit Spannung erwartet und als Meilenstein für die digitalen Währungen gehandelt. Befürworter sind der Meinung, dass sie den Zugang zu Investitionen in Bitcoins erweitert und zu einer breiteren Akzeptanz von Kryptowährungen als seriöse Finanzinvestition führen könnte. Der Bitcoin-Preis ist zuletzt von rund 25 000 Dollar im September auf über 45 000 Dollar gestiegen. Ein Teil des Anstiegs ist darauf zurückzuführen, dass viele Bitcoin-Investoren der Meinung sind, dass die ETFs eine höhere Nachfrage nach diesem Asset schaffen werden.</t>
+  </si>
+  <si>
+    <t>Die Gegner der Entscheidung haben die SEC am Mittwochabend scharf kritisiert.</t>
+  </si>
+  <si>
+    <t>Dennis M. Kelleher, Mitbegründer, Präsident und CEO von Better Markets, sagte, dass der April ein historischer Fehler sei. Dieser würde die Kryptowährungsbetrüger nicht von Hunderten von Millionen Anlegern und Rentnern fernhalten, sondern würde wahrscheinlich auch die Stabilität der Finanzmärkte untergraben.</t>
+  </si>
+  <si>
+    <t>Kelleher erklärte zuvor, dass "die Kryptoindustrie, scheinbar ohne jegliche Gesetze, aufgrund von Massenverhaftungen, Mitbestrafungen, Insolvenzen, Gerichtsverfahren, Skandalen, massiven Pleiten und Millionen von Opfern unter Investoren und Kunden ihren Tiefpunkt erreicht hat. Wer hätte gedacht, dass die SEC sie unterstützt, indem sie eine bewährte Anlageform entwickelt. So ermöglicht die SEC die Massenvermarktung eines wertlosen Finanzprodukts, das für die amerikanischen Bürger eine volatile und angstvolle Angelegenheit ist."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 % mehr Werbung für die Verwendung der russischen Sprache in der Ukraine - RT Russland und ehemalige Sowjetunion</t>
+  </si>
+  <si>
+    <t>Um den Teer zu entreissen, ordnen die Behörden an, dass die Bevölkerung Anklage erheben soll.</t>
+  </si>
+  <si>
+    <t>Die Zahl der bei den ukrainischen Behörden eingereichten Anzeigen über Personen, die Russisch sprechen, ist im letzten Jahr um 30 % gestiegen.</t>
+  </si>
+  <si>
+    <t>Laut Angaben des Büros des Auftragnehmers für den Schutz der Landessprache wurden im Jahr 2023 3.692 Vergewaltigungen gemeldet. Kiew, Charkiw und Odessa seien "immer noch an der Spitze, was die Zahl der Vergewaltigungen betrifft". "Eine der Prioritäten der Gemeindeverantwortlichen sollte es sein, streng darauf zu achten, dass die Sprachrechte der Bürger in allen Bereichen des öffentlichen Lebens berücksichtigt werden", so Taras Kremen, der Sprachbeauftragte der Ukraine.</t>
+  </si>
+  <si>
+    <t>Der Kremen bestätigte auch, dass ein Taxifahrer aus Kiew, der seine Kunden auf Russisch bedient hatte, eine Strafe in Höhe von 3.400 Hrywnja (89 Dollar) erhielt. Der Ombudsmann wies die Öffentlichkeit darauf hin, dass es "einen detaillierten Algorithmus für die Berechnung von Geldstrafen gibt, falls das Recht auf Zugang zu Informationen oder Dienstleistungen in der Staatssprache verletzt wird". Er forderte die Bevölkerung auf, in solchen Fällen sofort eine Beschwerde auf der Website des Ombudsmanns einzureichen.</t>
+  </si>
+  <si>
+    <t>Im Jahr 2019 verabschiedete die Ukraine ein Gesetz, das die Verwendung der ukrainischen Sprache in allen Bereichen des öffentlichen Lebens vorschrieb, was die Regierung, die Lehre, die Wissenschaft, die Erziehung und die Medien betraf. Bei Vergewaltigungen drohen Geldstrafen. Seit Beginn des militärischen Konflikts mit Russland im Jahr 2022 führt die Ukraine eine totale Entmachtungskampagne durch, die nach Meinung der Parlamentarier notwendig ist, um sich vor dem russischen Einfluss zu schützen. Die lokalen Behörden haben Kunstwerke, Darstellungen, Bücher, Filme, Lieder und den Unterricht in russischer Sprache an Schulen und Universitäten komplett verboten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im vergangenen August wurde ein junger Musiker kurzzeitig festgenommen und gezwungen, sich in einer Videobotschaft zu entschuldigen, nachdem er auf den Strassen von Lwiw Lieder des sowjetischen Sängers Viktor Tsoi interpretiert hatte. Gleichzeitig löste die Entlassung mehrerer Oberlehrer, die mit ihren Schülern russisch gesprochen hatten, einen öffentlichen Aufschrei aus.</t>
+  </si>
+  <si>
+    <t>Der Sekretär des Nationalen Sicherheits- und Verteidigungsrates der Ukraine, Oleksij Danilow, hatte zuvor erklärt, dass die russische Sprache aus dem ukrainischen Staatsgebiet verschwinden müsse, da er sie als "Element der Propaganda an der Seite der Bevölkerung" sehe.</t>
+  </si>
+  <si>
+    <t>Moskau ist der Ansicht, dass solche Gesetze die Rechte der russischen Bevölkerung verletzen, die etwa die Hälfte der Einwohner der Ukraine ausmacht. In einer Umfrage, die im September letzten Jahres vom Internationalen Soziologischen Institut in Kiew durchgeführt wurde, gaben 45 % der Befragten an, dass sprachliche Diskriminierung die häufigste Form von Vorurteilen in der Ukraine sei.</t>
+  </si>
+  <si>
+    <t>Die Krise im Gesundheitssektor darf nicht zur "neuen Normalität" werden - ein Kommentar des Scotsman.</t>
+  </si>
+  <si>
+    <t>Die neuesten Zahlen des Nationalen Gesundheitsdienstes NHS bringen weitere Missstände ans Licht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Wartezeit von 83 Stunden in der Notaufnahme eines Spitals. 4 von 10 Patienten und Patientinnen, die länger als 4 Stunden warten müssen. 30 Ambulanzen, die im Stau stehen, vor einem Spital warten und für weitere Notfälle nicht verfügbar sind. Mitarbeiter, die angesichts des Pflegestandards "das Arbeitsteam mit Tränen auf die Inseln verlassen" und laut einem Experten des Royal College of Emergency Medicine einen "Quasi-Zusammenbruch der Leistungen" erleben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn jemand der Meinung ist, dass der schottische NHS nicht in einer Krise steckt und dass es sich nur um die üblichen Probleme des Winters handelt, dann ist das Grund zur Sorge. Wir laufen Gefahr, dass Politiker wie der umstrittene Gesundheitsminister Michael Matheson uns davon überzeugen, dass die Situation zwar bedauerlich, aber dennoch akzeptabel ist. Und dass die Regierung unter den aktuellen Umständen nicht mehr tun kann als das und dass es die neue Normalität ist.</t>
+  </si>
+  <si>
+    <t>Während viele Mathesons Rücktritt als Folge des Scheiterns des Gesundheitsplans der SNP für den NHS sahen, begnügte er sich damit, daran zu erinnern, dass der Druck im Winter nicht nur in Schottland, sondern auch anderswo bestehe. Anstatt "Westminster die Schuld zuzuweisen", versuchte er in dieser Zeit zu rechtfertigen, dass die Bedingungen in Westminster genauso schlecht seien. Als wäre das ein Trost für die vielen Patienten, die stundenlang mit Schmerzen und voller Angst auf eine Lungenuntersuchung warten müssen.</t>
+  </si>
+  <si>
+    <t>Er räumte ein, dass die Belegschaft der Spitäler schon immer ein Problem gewesen sei und einen wichtigen Faktor darstelle: Die Entlassung von Patientinnen und Patienten, die sich ja wieder gut genug fühlen, um das Spital zu verlassen, werde verzögert, weil die notwendige soziale Begleitung oft nicht verfügbar sei.
+Da es sich um ein seit Jahren anhaltendes Problem handle, dürften nur wenige optimistisch sein, dass die SNP endlich eine Lösung gefunden habe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die neuen Zahlen von Public Health Scotland zeigen effektiv, dass sich die Situation eher noch verschlechtert hat: Im November kamen 1910 Personen zu spät ins Spital, verglichen mit 1730 im April. Einer der Gründe, warum die Ambulanzen die Patienten nicht rechtzeitig abgeben konnten, ist, dass die Notaufnahmen überlastet sind, weil alle verfügbaren Plätze in den Krankenstationen in den Ocpos belegt sind.</t>
+  </si>
+  <si>
+    <t>Wir dürfen nicht zulassen, dass die Öffentlichkeit von inkompetenten Politikerinnen und Politikern getäuscht wird, um den Niedergang unserer grossartigen britischen Institution, des NHS, zu unterstützen.</t>
+  </si>
+  <si>
+    <t>Das Bauabfall-Recycling-Unternehmen hat in Cumbernauld eine neue Anlage errichtet.</t>
+  </si>
+  <si>
+    <t>Das bedeutet gleichzeitig, den verlassenen Teil der Gartshore-Werke umzuwandeln.</t>
+  </si>
+  <si>
+    <t>Eine schottische Recyclingfirma, die über eine Million Tonnen Abbruchabfälle verarbeitet hat, hat nach einer Investition von mehreren Millionen Pfund eine Anlage eröffnet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Aufbereitungsanlagen von Brewster Brothers verwandeln 100 % des Abrissmülls in wiederverwendbare hochwertige Zusatzstoffe. In den letzten sechs Jahren konnte der Standort des Unternehmens in Livingston im West Lothian gerettet werden, wodurch fast 1.35 Mio. Tonnen Bauschutt, Abrissmüll und Abbruchmaterial auf Deponien gelandet sind, die sonst dort gelandet wären.</t>
+  </si>
+  <si>
+    <t>Im Rahmen einer Expansion von über 6 Millionen Pfund hat Brewster nun eine Recyclinganlage eröffnet, die den ehemaligen Werken von Gartshore in der Nähe von Cumbernauld neues Leben einhauchen soll. Die neue Anlage soll Baustellen, Wohnkomplexe und gemeinnützige Einrichtungen im westlichen Teil des Central Belt mit Material versorgen. Das Werk in der Nähe von Livingston, in dem derzeit 39 Mitarbeiter beschäftigt sind, wird auch Unternehmen in Edinburgh, Fife und den Lothians nachhaltige Dienstleistungen im Bereich der Abfallbewirtschaftung und der Wiederverwertung von Zusatzstoffen anbieten.</t>
+  </si>
+  <si>
+    <t>Der Geschäftsmann Scott Brewster, der das Unternehmen 2017 zusammen mit seinem Vater Alex Brewster gegründet hat, sagte: "Es wird immer deutlicher, dass der schottische Bausektor die Notwendigkeit vermisst, die Menge an natürlichen Ressourcen an die CO₂-Emissionen der Branche anzupassen und gleichzeitig den Einsatz von Recycling- und Sekundärmaterialien zu erhöhen. Die Menge an Bauschutt, Abrissmaterial und Abfall, die in den letzten sechs Jahren angefallen ist, ist enorm gestiegen. Unsere Investition in diese helle Sitzgelegenheit zeigt sehr gut, dass es in diesem Bereich noch Raum für weitere Expansionen gibt.</t>
+  </si>
+  <si>
+    <t>Die Regierung plant die Einführung einer neuen Steuer auf Zusatzstoffe, die den Schritt weg von der Verwendung neuer Produkte beschleunigen könnte.</t>
+  </si>
+  <si>
+    <t>Um das verlassene Gelände der Gartshore-Werke zu sanieren, hat das Unternehmen neue Mitarbeiter eingestellt, die vom Green Jobs Fund von Scottish Enterprise unterstützt werden.</t>
+  </si>
+  <si>
+    <t>Die Politik scherzt mit den Zinsobergrenzen.</t>
+  </si>
+  <si>
+    <t>Die Politikerinnen und Politiker sind oft im Haus, wo sie glauben, den Unterschied machen zu können. Wenn es jedoch eine einfache und eindeutige Lösung für ein Problem gäbe, wäre diese natürlich längst von jemandem mit echter Expertise in diesem Bereich umgesetzt worden.</t>
+  </si>
+  <si>
+    <t>Vor fast 18 Monaten wurde ein Gesetz zur Bekämpfung der Lebenshaltungskosten verabschiedet, der sogenannte "Cost of Living (Tenant Protection) (Scotland) Act 2022". Dieses Gesetz soll die Mieten für eine begrenzte Anzahl von Mietern erhöhen, um den Belastungen durch die Krise der Lebenshaltungskosten entgegenzuwirken. Die neuesten Statistiken der schottischen Regierung zeigen nun, dass die durchschnittlichen Mieten für Bewohner aller Einkommensgruppen allein im letzten Jahr gestiegen sind. Die Steigerungen variieren zwischen 11.7 % pro Einwohner im alten Sommer und 14.3 % pro Einwohner in den beiden letzten Sommern. Für alle Immobilienkategorien (d.h. zwischen einem und vier Sommern) sind die Zinsen seit der Einführung des Gesetzes zur Bekämpfung der Lebenshaltungskosten im Oktober 2022 um zwei Prozentpunkte gestiegen und haben damit sprunghaft die durchschnittlichen jährlichen Steigerungen der letzten zwölf Jahre übertroffen.</t>
+  </si>
+  <si>
+    <t>Die zahlreichen Befürworter aus allen Bereichen der Immobilienwirtschaft wurden ignoriert. Die Weigerung, zu akzeptieren, dass nicht der Staat, sondern der Markt die Preise bestimmt, führte zu enormen Zinserhöhungen. Dies hätte durch mehr Verständnis, Debatten und Diskussionen mit der Branche und einem Plan, der die Prinzipien von Angebot und Nachfrage berücksichtigt, vermieden werden können.</t>
+  </si>
+  <si>
+    <t>Da das Gesetz über die Lebenshaltungskosten erst am 31. März 2024 in Kraft tritt, soll ein neues Konsultationsdokument die Kontrolle über die zulässigen Zinserhöhungen im kommenden Jahr erweitern. Das Konsultationsdokument endet am Montag mit dem Vorschlag, die Zinsen anhand der niedrigsten Höhe der drei Vergleichswerte festzulegen: dem Zinssatz des freien Marktes, dem vom Vermieter vorgeschlagenen neuen Zinssatz und einer angemessenen Erhöhung, die anhand eines neuen Staffelsystems berechnet wird, das diese mit einem Prozentsatz des Marktzinssatzes vergleicht.</t>
+  </si>
+  <si>
+    <t>Die Mieter in Schottland müssen mit weiteren drastischen Zinserhöhungen rechnen, wenn die Meinung der Experten nicht berücksichtigt wird.</t>
+  </si>
+  <si>
+    <t>Die vorgeschlagene Staffelung würde Zinserhöhungen zwischen 6 % und einem Maximum von 15 % vorsehen, die damit - ironischerweise - höher wären als die durchschnittlichen jährlichen Erhöhungen in der Vergangenheit. Eine solche Regelung wäre jedoch vor allem kompliziert, viel mehr noch, sie wäre hinsichtlich ihrer Überwachung und Umsetzung unbezahlbar. Es gibt ja einen Schutzmechanismus, der vorsieht, dass die erste Instanz der Wohnrechtsentscheidung über die Angemessenheit einer Zinserhöhung entscheidet. Es wurden also zusätzliche bürokratische Hürden geschaffen, die weder den Vermietern noch den Mietern etwas bringen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Vernehmlassungsdokument scheint daher nichts anderes zu sein als ein weiterer Versuch, dem Sektor Kontrollen aufzuerlegen. Eine viel einfachere Lösung wäre, dem Markt zu erlauben, zur Normalität zurückzukehren und das Zinsniveau nicht extern kontrollieren zu wollen. Die Folge wäre eine geringere Zinserhöhung als in den letzten 18 Monaten zu beobachten war. Um die Mietpreise langfristig zu stabilisieren, muss die Regierung die Investitionen und das Wachstum im privaten Mietwohnungsmarkt ankurbeln und gleichzeitig Geld zur Verfügung stellen, um das Angebot an Sozialwohnungen deutlich zu erhöhen. Je mehr Investitionen es im privaten Mietwohnungsmarkt und je mehr der Immobilienmarkt gibt, desto stärker werden sie. Eine Erhöhung des Volumens im privaten Mietwohnungsmarkt sowie im Sozialwohnungsmarkt trägt dazu bei, die Mieten zu stabilisieren, da das Angebot die Nachfrage deckt und so ein Gleichgewicht herstellt. Nur mit Hilfe dieser Massnahmen werden wir die aktuelle Wohnungskrise bewältigen können. Alles andere wird nicht funktionieren.</t>
+  </si>
+  <si>
+    <t>Weitere Filialen von Greggs, die Preise bleiben konstant, um bessere Brote zu backen.</t>
+  </si>
+  <si>
+    <t>Das Unternehmen FTSE 250, bekannt für seine Würstchenrollen und Steak Bakes, plant, sein Filialnetz zu erweitern, aber die Preise nicht zu erhöhen.</t>
+  </si>
+  <si>
+    <t>Die Bäckereikette Greggs, die Filialen in den Haupteinkaufsstrassen betreibt, hat angekündigt, die Preise im kommenden Jahr nicht zu erhöhen und 160 Filialen ausserhalb der Zentren zu eröffnen.</t>
+  </si>
+  <si>
+    <t>Die Generaldirektorin Roisin Currie erklärte gegenüber AP, dass sie "im Moment" keine Preiserhöhungen plane, da sie im kommenden Jahr mit einer stabileren Kostenbasis rechne. Sie fügte jedoch hinzu, dass es bereits zu einer Deflation kommen werde, die es der Kette ermögliche, ihre Preise zu senken. Der Einzelhandel gehöre zu den Branchen, die aufgrund der Erhöhung des nationalen Mindestlohns mit höheren Lohnkosten konfrontiert seien. Gleichzeitig sei der Trend zu höheren Steuern jedoch eine gute Nachricht, da er den Konsumentinnen und Konsumenten mehr Geld in die Tasche bringe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darüber hinaus kündigte Greggs Pläne an, im kommenden Jahr 160 weitere Filialen zu eröffnen, und drückte seine Zufriedenheit mit dem guten Jahresergebnis 2023 aus. Das Unternehmen hat 2023 eine Rekordzahl von 220 neuen Filialen eröffnet. Demgegenüber stehen 33 Filialen, die geschlossen wurden, was 42 Arbeitsplätzen entspricht, so dass insgesamt 145 neue Filialen eröffnet wurden. Dies ergibt eine Gesamtzahl von 2473 Filialen.</t>
+  </si>
+  <si>
+    <t>Das Ziel des Unternehmens FTSE 250 ist es, die Zahl der Filialen bis 2024 auf 140 bis 160 zu erhöhen, um den Zugang der Kunden zu diesen zu verbessern. Das Unternehmen will sich weiterhin auf Einkaufszentren, Tourismusdestinationen, Orte entlang wichtiger Strassen und Industriegebiete konzentrieren. Currie erklärte: "Unser Ziel ist es, überall dort Filialen zu eröffnen, wo man auch heute schon hinkommt, und nicht einfach nur eine Greggs-Filiale."</t>
+  </si>
+  <si>
+    <t>Das Unternehmen plant zudem, die Öffnungszeiten am Abend in rund 1200 seiner Geschäfte zu verlängern. Im vierten Quartal verzeichnete das Unternehmen einen Umsatzanstieg von 9.4 % in seinen eigenen Filialen. Dies bedeutet eine Verzögerung im Wachstum im Vergleich zum Wachstum von 14.2 % in den drei vorherigen Quartalen. Dies ist laut Greggs auf eine geringere Preisinflation zurückzuführen. Für das Gesamtjahr verzeichnete Greggs ein vergleichbares Wachstum von 13.7 %; der Gesamtumsatz für das Jahr stieg um ein Fünftel auf 1.8 Milliarden Pfund.</t>
+  </si>
+  <si>
+    <t>Vor Kurzem hat sie wieder Steak Bakes lanciert, ihr Weihnachtsangebot mit dem festlichen Bake, dem Chocolate Orange Muffin und dem Christmas Lunch Baguette.</t>
+  </si>
+  <si>
+    <t>Tanor Matt Britzman, Aktienanalyst bei Hargreaves Lansdown, ist der Meinung, dass 2023 für Greggs ein erfolgreiches Jahr wird: "Dank der Verlängerung der Öffnungszeiten, der Steigerung der Liefermengen, der Verbesserung der Lieferkettenkapazitäten und des neuen Produktangebots." Er fügte hinzu: "Die festlichen Bakes und die Chocolate orange Muffins waren während der Weihnachtszeit ein Erfolg. Die Börsenspekulanten könnten jedoch darauf hinweisen, dass die Umsatzentwicklung im Jahresverlauf und im vierten Quartal nachgelassen hat. Dies ist vor allem darauf zurückzuführen, dass es Greggs gelungen ist, die Preiserhöhungen zu begrenzen, als die Inflationsrate sank.</t>
+  </si>
+  <si>
+    <t>Eines der Hauptanliegen von Greggs ist es, günstige Produkte anzubieten. Es wird von zentraler Bedeutung sein, dieses Angebot aufrechtzuerhalten, vor allem, wenn das Einkommen der Konsumentinnen und Konsumenten sinkt. Am wichtigsten ist es, dass sich die Umsätze positiv entwickeln - und das ist auch in Zukunft der Fall. Das Ziel ist aber noch nicht erreicht. Für 2024 können wir mit einem Aufwärtstrend rechnen, denn die Investitionen in das digitale Angebot, die Lieferpartner und die Erweiterung des Filialnetzes gehen weiter.</t>
+  </si>
+  <si>
+    <t>Sunaks Gesetz zur Aufhebung ungerechtfertigter Strafen und seine schwerwiegenden unbeabsichtigten Folgen - ein Kommentar von The Scotsman.</t>
+  </si>
+  <si>
+    <t>Politiker, die glauben, sie könnten Gerichtsstrafen abschaffen, stellen sich über das Gesetz.</t>
+  </si>
+  <si>
+    <t>Wie The Scotsman und andere seit Jahren betonen, stellt die ungerechtfertigte Verurteilung von Hunderten von Postleitstellern im Rahmen des Horizon-Skandals einen der schwerwiegendsten Justizirrtümer der Geschichte dar. Die betroffenen Frauen wurden ins Gefängnis gesteckt, sie verloren ihre Wohnung, ihre Betten wurden auseinandergenommen und zerstört. Sie mussten die psychischen Folgen ertragen, Kriminelle behandelt worden zu sein, obwohl sie die Gesetze befolgt hatten.</t>
+  </si>
+  <si>
+    <t>Obwohl das Computersystem Horizon die Hauptursache war, wies Postminister Kevin Hollinrake die Parlamentarier gestern darauf hin, dass die Beweise "nicht nur auf Unfähigkeit, sondern auch auf Unwillen" seitens der Post hindeuteten. Er kritisierte, dass nur 95 von 900 Sanktionen aufgehoben wurden. In England und Wales soll nun ein neues Gesetz eingeführt werden, um die Opfer des Skandals für schuldig zu erklären.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das zeigt bemerkenswerterweise, was ein gut gemachtes Fernsehspiel wie die ITV-Serie "Mr. Bates Vs The Post Office" in einem Wahljahr bewirken kann. Nach vielen Jahren der Untätigkeit kann die Politik jedoch nicht erwarten, dass sich etwas ändert. Die Annäherung von Rishi Sunak ist jedoch nicht ohne Probleme.</t>
+  </si>
+  <si>
+    <t>Das erste Problem ist, dass einige Schuldige ungewollt von einem pauschalen Gesetz profitieren könnten, das Straffreiheit für mehrere hundert Personen vorsieht. Das Problem ist noch viel gravierender: Ein Gesetz, das gerichtliche Sanktionen ausser Kraft setzt, kann einen gefährlichen Präzedenzfall schaffen, insbesondere in einer Zeit, in der Populisten die Grenzen der politischen Macht austesten.</t>
+  </si>
+  <si>
+    <t>In den Vereinigten Staaten versucht Donald Trump, die Immunität vor Strafverfolgung für sich zu nutzen. In Grossbritannien hat Boris Johnson das Parlament widerrechtlich aufgelöst, um seine Brexit-Pläne umsetzen zu können. Sunak will eine Entscheidung des Obersten Gerichtshofs rückgängig machen, die besagt, dass Ruanda kein Dürregebiet ist, indem er ein Gesetz einführt, das Ruanda trotzdem als Dürregebiet erklärt.</t>
+  </si>
+  <si>
+    <t>Das Konzept der Gewaltenteilung zwischen Regierung, Parlament und Justiz ist ein wichtiger Schutzmechanismus gegen Tyrannei. Politiker, die glauben, gerichtliche Sanktionen abschaffen zu können, missachten das Gesetz. Es ist Aufgabe der Wähler, deutlich zu machen, dass sie eine solche Haltung nur im äussersten Fall tolerieren.</t>
+  </si>
+  <si>
+    <t>Wiederherstellung der Aufsicht über die Gefängnisse in Washington - Menschenleben hängen davon ab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gefängnissystem in Washington steckt in einer existenziellen Krise. Das ist eine der unangenehmen, aber nicht ignorierbaren Wahrheiten, mit denen wir als Co-Vorsitzende einer legislativen Arbeitsgruppe konfrontiert wurden. Unsere Aufgabe ist es, das Gefängnissystem unseres Bundesstaates zu überprüfen und Änderungen vorzuschlagen, die die Sicherheit in den Haftanstalten verbessern. Obwohl wir aus verschiedenen Bereichen wie der Gefängnisverwaltung, der Bürgerrechtsarbeit und der persönlichen Erfahrung als Arestanten kommen, waren wir uns einig, dass es notwendig ist, eine unabhängige Aufsicht über die Gefängnisse in Washington zu haben.</t>
+  </si>
+  <si>
+    <t>Im Jahr 2022 wurden mehr als 130.000 Personen in einer Haftanstalt in Washington vernommen. Trotzdem gibt es erstaunlich wenig Informationen darüber, was nach der Haftanstalt passiert. In Washington gibt es keine staatliche Behörde, die für die Überwachung der Gefängnisse und die Bereitstellung von Daten für die Öffentlichkeit zuständig ist. Die einzigen verfügbaren Informationsquellen sind die Leichen in den Haftanstalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Ergebnisse zeigen, dass sofortiges Handeln erforderlich ist. Selbst wenn man das demografische Wachstum in Washington und die Zahl der Toten in den Gefängnissen Washingtons berücksichtigt, hat sich die Zahl der Toten in den Gefängnissen von 2000 bis 2019 fast verdreifacht. Dieser Anstieg liegt 16-mal über dem Landesdurchschnitt. Washington hat damit andere Staaten überholt und hat nun den viertgrössten Anteil an Toten in Haftanstalten. So kann es nicht weitergehen.</t>
+  </si>
+  <si>
+    <t>Um dieser Tendenz in den Gefängnissen entgegenzuwirken und die zahlreichen anderen Probleme zu bekämpfen, mit denen unsere Gefängnisse konfrontiert sind, braucht es einige tiefgreifende politische Entscheidungen. Eine unabhängige Aufsicht über die Gefängnisse wäre jedoch ein erster wichtiger Schritt, um das Gefängnissystem sicherer und humaner zu machen. Sie würde die Transparenz der Rechenschaftspflicht verbessern, in Washington wie auch im Rest der Vereinigten Staaten. Nach unserer Zählung verfügen 25 Staaten über eine Kontrollstelle, die für das gesamte nationale Territorium verantwortlich ist. In all diesen Staaten ist die Anzahl der Toten in den Gefängnissen niedriger als bei uns.</t>
+  </si>
+  <si>
+    <t>Auch in Washington wurden kürzlich unabhängige Aufsichtsorgane für staatliche Haftanstalten, Polizei, Schulen und andere Institutionen geschaffen und ihre Aufgaben erweitert.</t>
+  </si>
+  <si>
+    <t>Ein unabhängiges Kontrollorgan für die Gefängnisse kann die Situation überwachen, mit dem Personal und den Häftlingen sabotieren, über die bekannten Umstände berichten und auch Zweifel äussern, bevor Personen zu Schaden kommen. Es kann auch Daten sammeln und melden, die der Verwaltung, den politischen Entscheidungsträgern und der Öffentlichkeit helfen, unser Gefängnissystem besser zu verstehen und auf Basis dieser Daten Lösungen zu finden, die dabei helfen, Leichen und andere Probleme im Zusammenhang mit den Gefängnissen zu vermeiden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsere Arbeitsgruppe ist zu dem Schluss gekommen, dass eine Kontrollbehörde unser überlastetes Gefängnissystem bei den dringend notwendigen Empfehlungen unterstützen könnte - intelligente Konzepte, um die Sicherheit des Personals zu erhöhen und die rückläufige Kriminalität zu reduzieren.</t>
+  </si>
+  <si>
+    <t>In Washington gab es eine kurze Zeitspanne, von 1981 bis 1987, in der es eine Behörde für die Aufsicht über die Gefängnisse auf staatlicher Ebene gab, die damals vom amerikanischen Justizministerium als Vorbild für die Gebäude im ganzen Land gelobt wurde. Leider hat der Gesetzgeber die Aufsicht über die Gefängnisse abgeschafft, trotz der Einwände der Gefängnisverwalter, der Bürgerrechtsgruppen und anderer Stimmen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine unabhängige Aufsicht würde das Vertrauen in die Öffentlichkeit und in datenbasierte Entscheidungsprozesse in einem Sektor untergraben, der sich doch nur ohne transparente Verfahren zurechtfinden muss. Wir fordern daher den Gesetzgeber auf, die Empfehlung unserer Arbeitsgruppe, eine unabhängige Gefängnisaufsicht in den Städten, den Countys und den Regionen unseres Staates wiederherzustellen, gesetzlich festzuschreiben. Menschenleben hängen davon ab.</t>
+  </si>
+  <si>
+    <t>Hailey Ockinga ist Aktivistin und Organisatorin der Anti-Gefängnis-Bewegung und Geschäftsführerin von Beyond These Walls im Bundesstaat Washington.</t>
+  </si>
+  <si>
+    <t>Ethan Frenchman, Anwalt von Disability Rights Washington, setzt sich für Menschen mit Behinderungen in den Gefängnissen ein.</t>
+  </si>
+  <si>
+    <t>Fliegen Sie gerade mit einer Boeing 737 MAX?</t>
+  </si>
+  <si>
+    <t>Für die meisten Reisenden spielt der Typ des Flugzeugs keine zentrale Rolle bei der Buchung eines Fluges. Ein Teil der Boeing 737 MAX 9 wurde jedoch für den gesamten Flugzeugtyp mit Flugverbot belegt, nachdem ein Teil des Typs Bienenvog am 6. Januar während eines Fluges der Alaska Airline abgerissen wurde. Von da an kann sich der eine oder andere Passagier trotzdem fragen, wie er herausfinden kann, mit welchem Typ des Flugzeugs er fliegt und welche Flugzeugtypen am sichersten sind. Die erste Bitterkeit ist einfach zu raspeln.</t>
+  </si>
+  <si>
+    <t>Die Flugzeugart wird normalerweise in den Reservierungsinformationen des Fluges angegeben. Bei Google Flights ist sie in den Flugdetails aufgeführt, wenn der Ansichtmodus erweitert wird. Normalerweise wird die Flugzeugart auch auf den Reservierungsseiten der einzelnen Fluggesellschaften genannt. Wenn jemand sie aus dem einen oder anderen Grund findet, sei es bei Google Flights oder auf der Reservierungsseite, können Webseiten wie Expert Flyer und Seat Guru umfassende Fluginformationen liefern, wie zum Beispiel die Sitzplatzpläne und die Flugzeugart.</t>
+  </si>
+  <si>
+    <t>Es ist nicht so einfach zu bestimmen, welche Flugzeugtypen am sichersten sind. Das National Transportation Safety Board führt umfangreiche Daten mit Informationen über Unfälle und Zwischenfälle. Die Federal Aviation Administration (FAA) stellt auf ihrer Seite "Aviation Safety Information Analysis and Sharing" (Analyse und Austausch von Informationen zur Flugsicherheit) private Berichte über Unfälle und Zwischenfälle der letzten zehn Tage zur Verfügung, die auch den Hersteller des Flugzeugs nennen.</t>
+  </si>
+  <si>
+    <t>Eine weitere nützliche Informationsquelle, auf die es einen Link auf der Seite der FAA gibt, ist die "Boeing Worldwide Statistical Summary of Commercial Jet Airplane Accidents (1959-2022)". Hier wird die Sicherheit der Flugzeugtypen bewertet, indem die Unfälle den entsprechenden Flugzeugtypen zugeordnet werden. Laut dem Bericht, der im September 2023 in Boeing 787 und Airbus A350 veröffentlicht wurde, sollen die Flugzeugtypen mit den wenigsten Gesamtunfällen auch diejenigen sein, bei denen das Flugzeug komplett zerstört wurde. Der Bericht nennt noch einige weitere Flugzeugtypen, die noch keinen Totalausfall hatten, darunter den riesigen zweimotorigen Jet Airbus A380. Diese Flugzeugtypen hatten jedoch zum Zeitpunkt der Veröffentlichung des Berichts noch weniger als eine Million Starts absolviert.</t>
+  </si>
+  <si>
+    <t>Der Bericht enthält auch einen Vergleich der Unfallquoten mit den Gesamtsparquoten bei einer Million Starts, der der Tatsache Rechnung trägt, dass einige Modelle verbreiteter sind oder häufiger im Einsatz sind als andere. Mit einer Quote von 2.53 Unfällen bei einer Million Starts hat der 1983 eingeführte Airbus A310 den höchsten Anteil an den Gesamtsparquoten unter den Flugzeugtypen, die noch als Passagierflugzeuge eingesetzt werden. Die beste Quote erreicht mit 0.11 der Airbus 320-Familie, zu der auch die Modelle A321 und A319neo gehören. Die Boeing 737 MAX, die seit 2017 im Einsatz ist, hat eine Quote von 1.48.</t>
+  </si>
+  <si>
+    <t>Auch wenn diese Quoten auf eine Million Starts bezogen werden, ist zu berücksichtigen, dass einige der genannten Flugzeugmodelle - wie die 1964 eingeführte Boeing 727 - bereits seit Jahrzehnten auf dem Markt sind und folglich viel mehr Zeit hatten, um in die Unfallstatistik einzugehen, als andere Modelle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perry Cooper vom Hafen von Seattle, der auch für den internationalen Flughafen Seattle-Tacoma zuständig ist, wurde von den Medien als "berüchtigt" bezeichnet. In einer E-Mail betonte er, dass die Unfälle viele Ursachen hätten. Das Spektrum reiche von Ausrüstungsfehlern bis hin zu menschlichen Fehlern. Es sei also einfach, den Typ des Flugzeugs zu bestimmen, mit dem sie fliegen würden, aber es sei schwieriger zu prüfen, welche Auswirkungen dies auf die Sicherheit habe.</t>
+  </si>
+  <si>
+    <t>Auch wenn die verfügbaren Daten den Vergleich der Flugtypen erschweren, rät die FAA von einem Vergleich der Fluggesellschaften aufgrund ihrer Unfallstatistiken ab. Laut einem Bericht der Luftfahrtbehörde gibt es derzeit keine Hinweise in den Unfallstatistiken, die eine Rangliste einzelner Fluggesellschaften aufgrund ihrer Sicherheitsbilanz rechtfertigen würden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laut FAA ist dies vor allem darauf zurückzuführen, dass Flugunfälle in seltenen Fällen katastrophale Folgen haben. Die Meinungsverschiedenheiten zwischen den Fluggesellschaften wurden im Laufe der Zeit immer stärker. Ein Antrag auf Stellungnahme wurde von der FAA abgelehnt.</t>
+  </si>
+  <si>
+    <t>Wie Betta Edu wurde sie Opfer eines dysfunktionalen politischen Systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betta Edu, die Ministerin für humanitäre Angelegenheiten und Armutsbekämpfung in der Regierung von Präsident Bola Ahmed Tinubu, wurde kürzlich ihres Amtes enthoben und des Betrugs beschuldigt. Die Ranch gehört einem Pflegefonds, der 585 Millionen nigerianische Naira (NGN) verwaltet. Nachdem ein Brief veröffentlicht wurde, in dem sie angeblich den Generalbuchhalter der Bundesregierung, Oluwatoyin Madein, angewiesen haben soll, 585 Millionen NGN auf ein Privatkonto zu überweisen, sah sich die Ministerin mit erheblicher öffentlicher Kritik konfrontiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dieser Notiz vom 20. Dezember 2023 soll Edu ihn beauftragt haben, das Geld vom Konto des National Social Investment Office auf das Privatkonto von Bridget Oniyelu zu überweisen.</t>
+  </si>
+  <si>
+    <t>Rasheed Zubair, der Medienmitarbeiter von Edu, versichert, dass diese Vorgehensweise den Regeln des öffentlichen Dienstes in Nigeria entspricht. Dennoch gibt er zu bedenken, dass diese Vorgehensweise gegen verschiedene Bestimmungen des nigerianischen Finanzreglements von 2009 verstösst. Ausserdem sind andere Formen der Bestechung im Rahmen von Regierungsgeschäften explizit verboten. Dies steht in Kapitel 7, Passage 713: "Unter keinen Umständen dürfen private Gelder auf ein Regierungs-Konto oder öffentliche Gelder auf ein privates Konto überwiesen werden." Wenn ein Beamter öffentliche Gelder auf ein privates Konto überweist, wird dies als reine Absicht betrachtet.</t>
+  </si>
+  <si>
+    <t>In einem Interview mit Ventures Africa kommentierte ein hochrangiger Jurist eines führenden Handelsunternehmens, der anonym bleiben wollte: "Es gibt mehrere Probleme: Das Ministerium hat Edu und eine relativ neue Mitarbeiterin der ehemaligen Amtsinhaberin, Sadiya Umar-Farouk, die in Aktivitäten verwickelt war, die anscheinend illegal waren, befördert. Dies kann einen Eindruck davon vermitteln, wie in diesem Ministerium gearbeitet wird. In jedem Fall verstösst die Zuweisung öffentlicher Gelder auf private Konten gegen die Vorschriften für die Verwendung öffentlicher Gelder." Er fügte hinzu, dass es nicht unbedingt eine feige Absicht sein muss, wenn sie für den Vorabend der Zahlung keinen gültigen Grund angeben kann.</t>
+  </si>
+  <si>
+    <t>In einem Beitrag auf Twitter hat der Experte für politische und digitale Kommunikation, Akin Akinwale, die Meinung geäussert, dass es nicht falsch sei, ein privates Konto zu benutzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anwältin Iyabo Awokoya, politische Analystin und Beraterin für Entwicklung und Management, bewertete die Situation auf ihrem Twitter-Account unterschiedlich und drückte ihre Sympathie für die suspendierte Ministerin aus. Sie meinte, dass Edu wahrscheinlich in seiner übertriebenen Vorsicht einen Fehler gemacht habe, ohne dies zu kommunizieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Monate, die von Expertinnen und Experten verbracht wurden, lassen darauf schliessen, dass es zwischen der Bundesregierung und anderen halbstaatlichen Institutionen unterschiedliche Auffassungen über die Interpretation der Finanzgesetze gibt. Diese Situation eskalierte, als das Dokument an die Öffentlichkeit gelangte und Betta Edu damit zum Opfer eines dysfunktionalen politischen Systems wurde.</t>
   </si>
   <si>
     <t>Übersetzung</t>
@@ -218,7 +498,7 @@
     <t>Der Celest und der favorisierte Korupziusbogen sind vom Fünftürer bis zum Freeware-Spiel verfügbar. Der Grant ist kommerziell ausgerichtet und hat eine nicht detaillierte Grafik, da das Original und das Double Dash ein Power-up ohne Kontext in einer Schatztruhe darstellen.</t>
   </si>
   <si>
-    <t>Generell finde ich das Zusammenspiel der beiden sehr gut. Die Vorteile der Kurzgeschichten und die Möglichkeit, "zum guten Teil springen" zu können. Das kann interessanter und zufriedenstellender sein. Der Vorteil der Kurzgeschichten und die Möglichkeit, den Handlungselementen ein viel grösseres emotionales Gewicht zu verleihen. Es passiert jedoch nicht sofort etwas, dafür bekommen sie noch mehr.</t>
+    <t>Generell finde ich das Zusammenspiel der beiden sehr gut. Der Vorteil der Kurzgeschichten ist, dass man "zum guten Teil springen" kann. Das kann interessanter und zufriedenstellender sein. Der Vorteil der Kurzgeschichten ist, dass man den Handlungselementen ein viel grösseres emotionales Gewicht verleihen kann. Allerdings passiert nicht sofort etwas, dafür bekommt man aber auch mehr.</t>
   </si>
   <si>
     <t>Celest, das kommerzielle Spiel, ist der Höhepunkt und eigentlich nur das Spiel Pico-8, das mit einer mechanischen Konstruktion und einem mehrstündigen Narrativ ausgestattet ist, sodass es noch viel schwieriger wird. Celest ist so stolz auf sein verwandtes Spiel, dass er immer wieder Referenzen wie das Denkmal, den Fortschritt von "2000 M... 2500 M...", das Power-Up und die Oberflagge einbringt. Das Originalspiel kann man direkt auf dem Startbildschirm spielen!</t>
@@ -290,7 +570,7 @@
     <t>@user14 Auch wenn man etwas alleine macht, ist es normalerweise für ein gemeinsames Ziel.</t>
   </si>
   <si>
-    <t>@user13 "Easser auf der Welt" bedeutet, Beziehungen zu anderen zu haben.</t>
+    <t>@user13 Jeder Mensch auf der Welt ist es wert, Beziehungen zu anderen zu haben.</t>
   </si>
   <si>
     <t>AT&amp;T hat einen Stromausfall in der ganzen Stadt. Kein Wunder, dass heute Morgen alles wie ausgestorben ist. https://www.foxbusiness.com/lifestyle/cell-phine-outage-hits-att-customers-nationwide-verizon-tmobile-users-also-affected</t>
@@ -308,28 +588,28 @@
     <t>Seit mehreren Stunden wurde in allen Nachrichten über die Unterbrechung berichtet, doch die Statusseite von ATT&amp;T behauptet immer noch, dass es keine Unterbrechung gäbe.</t>
   </si>
   <si>
-    <t>Der Benutzer9 weigert sich, ob das etwas mit ALS zu tun hat. Wenn ein Unternehmen vertraglich verpflichtet ist, eine Zuverlässigkeit von 99.999 % zu bieten, kann es über Ausfallzeiten schwadronieren, ohne dass es dies (intern) verifiziert hat. Als wäre die Aktualisierung ihrer statischen Statusseite ein Schuldeingeständnis? Vielleicht bin ich auch paranoid/zynisch.</t>
-  </si>
-  <si>
-    <t>user10 Das macht Sinn</t>
-  </si>
-  <si>
-    <t>Ich brauchte bisher nur bei einer Operation eine Vollnarkose. Das muss ein kleiner neurochirurgischer Eingriff gewesen sein, um dem Gehirn mehr Platz zu geben, denn ich wurde mit einer Krankheit geboren, die nach der Geburt Symptome aufwies (Chiari-Fehlbildung). Ich habe den Moment, als ich aufgewacht bin, nie vergessen und erlebe ihn immer wieder, wenn es um Magensendungen geht, vor allem solche mit einem Neurochirurgen. Die Playlist des Krankenhauses steht ja gerade auf meiner Liste und sie gefällt mir im Moment sehr gut. #kdrama</t>
-  </si>
-  <si>
-    <t>Mein Chirurg hat sich wirklich an alles gehalten. Er rief mich am Vortag an, weil es zu Kribbeln kommen sollte, und als das Pflegeteam sich mit mir beschäftigte, als ich von der Narkose betroffen war, stellte mein Chirurg fest, dass ich Kiefer und Kiefergelenk geöffnet hatte. Ich meinte das alles, plus noch die Operation. Trotzdem war es verwirrend. Das war eine der Dinge, die mir am meisten Angst gemacht haben. Ich habe geschlafen und es muss vorbei sein.</t>
-  </si>
-  <si>
-    <t>Ich hatte meine Periode, musste mich aber ausatmen. Deshalb gaben sie mir diese breite Unterseite von rechts, die ich nach der Geburt tragen würde. Nur im Opernsaal muss ich mich komplett ausatmen und ich wurde mit einem Leinwand-Krümmungsbogen gekrümmt. Früher, bevor ich aufgewacht bin, hat mir eine höfliche Pflegekraft die Weite unterhalb verändert. Ausser während der Geburten, wo ich wach war und Hilfe bekam, quasi als Baby, hat noch nie etwas so Privates für mich getan. Wegen der Art der Operation musste sie als präventive Massnahme auf die Intensivstation.</t>
-  </si>
-  <si>
-    <t>Ich musste mich aufgrund meiner Operation viel ausruhen, also habe ich die Staffeln 1-3 von Grey’s Anatomy gesehen. Mir hat geholfen, dass McDreamy Neurochirurg war. Ich habe versucht, mich in die Position des Patienten zu versetzen, um mir vorstellen zu können, was mit mir passiert ist. Seit meiner Operation im Jahr 2018 zeigte die Krankenhaus-Playlist mehr über Neurochirurgie als jede andere Patientenserie, die ich von Grey’s Anatomy gesehen hatte. Wie schön, dass es Kunst und Unterhaltung gibt, die unserem Leben einen Sinn geben.</t>
-  </si>
-  <si>
-    <t>Dank der Hospital Playlist könnte eine Sonde transplantiert werden.</t>
-  </si>
-  <si>
-    <t>user33 Wow!</t>
+    <t>Wenn ein Unternehmen vertraglich verpflichtet ist, eine Zuverlässigkeit von 99.999 % oder so anzubieten, kann es dann über die Unterbrechungsbrüste schwadronieren, ohne dies (intern) verifiziert zu haben, und das a+F340-Gerät als Beweis dafür anführen? Als wäre die Aktualisierung ihrer statischen Statusseite ein Schuldeingeständnis? Vielleicht bin ich auch paranoid/zynisch.</t>
+  </si>
+  <si>
+    <t>@user10 Das macht auf</t>
+  </si>
+  <si>
+    <t>Ich brauchte bisher nur bei einer Operation eine Vollnarkose. Das muss ein kleiner neurochirurgischer Eingriff gewesen sein, um dem Gehirn mehr Platz zu geben, denn ich wurde mit einer Krankheit geboren, die nach der Geburt Symptome aufwies (Chiari-Fehlbildung). Ich habe den Moment, als ich aufgewacht bin, nie vergessen und immer wieder erlebt, wenn es um Magensendungen geht, vor allem solche mit einem Neurochirurgen. Die Playlist des Krankenhauses steht ja gerade auf meiner Liste und sie gefällt mir im Moment sehr gut. #kdrama</t>
+  </si>
+  <si>
+    <t>Mein Chirurg hat sich wirklich an alles gehalten. Er rief mich am Vortag an, weil es zu Kribbeln kommen sollte, und als das Pflegepersonal sich mit mir beschäftigte, als ich von der Narkose aufgewacht war, stellte mein Chirurg fest, dass ich Kiefer und Kiefergelenk geöffnet hatte. Ich meinte das alles, plus die Operation. Trotzdem war es verwirrend. Das war eine der Sachen, die mir am meisten Angst gemacht haben. Ich habe geschlafen und es muss vorbei sein.</t>
+  </si>
+  <si>
+    <t>Ich hatte meine Periode, musste mich aber ausatmen. Deshalb haben sie mir diese breite Unterseite aus Schilfrohr gegeben, die ich nach der Geburt tragen muss. Nur im Opernsaal muss ich mich komplett ausatmen und wurde mit einem Leinwandtuch gekrümmt. Früher, bevor ich aufgewacht bin, hat mir eine höfliche Krankenschwester die Weite unterhalb verändert. Ausser während der Geburten, wo ich wach war und Hilfe bekam, fast wie ein Baby, hat noch nie jemand so Privates für mich getan. Wegen der Art der Operation musste sie als präventive Massnahme auf die Intensivstation.</t>
+  </si>
+  <si>
+    <t>Ich musste mich nach der Operation viel ausruhen, also habe ich Staffel 1-3 von Grey’s Anatomy gesehen. Mir hat geholfen, dass McDreamy Neurochirurg war. Ich habe den Patienten angehalten und positioniert, um mir vorstellen zu können, was mit mir passiert ist. Seit meiner Operation im Jahr 2018 zeigte die Krankenhaus-Playlist mehr über Neurochirurgie als jede andere Patientenserie, die ich von Grey’s Anatomy gesehen habe. Wie schön, dass es Kunst und Unterhaltung gibt, die unserem Leben einen Sinn geben.</t>
+  </si>
+  <si>
+    <t>@user32 Dank der Hospital-Playlist könnten Sie einen Dart transplantieren.</t>
+  </si>
+  <si>
+    <t>@user33 Wow!</t>
   </si>
   <si>
     <t>Die Millennials waren die letzte Generation, die sechs Relais mit Künstlerinnen und Künstlern aufbauen konnte, ohne dass von ihnen erwartet wurde, diese auch in irgendeiner Weise kritisch zu betrachten.</t>
@@ -362,7 +642,7 @@
     <t>Wir haben diese Sätze wiederholt und zugehört, dass die meisten sie schon verstehen.</t>
   </si>
   <si>
-    <t>Heute kann man nicht davon ausgehen, dass jeder etwas versteht, selbst wenn es viral geht.</t>
+    <t>Heute kann man nicht davon ausgehen, dass jeder etwas versteht, auch wenn es viral geht.</t>
   </si>
   <si>
     <t>Es gibt viel und es gibt keine Möglichkeit, das zu systematisieren. Werden wir jemals wieder aus dieser Verdrängung herauskommen?</t>
@@ -422,6 +702,9 @@
     <t>Zurück zum Thema: Ich hasse Queen Gidbo.</t>
   </si>
   <si>
+    <t>Ich habe gerade das Upgrade entdeckt, bei dem man sieht, wo es hingehört.</t>
+  </si>
+  <si>
     <t>Danach wird es 4 Min.</t>
   </si>
   <si>
@@ -434,13 +717,13 @@
     <t>Jetzt hat es endlich Queen Gibdo geschafft.</t>
   </si>
   <si>
-    <t>Nachdem wir das durchgezogen haben, scheinen einige der nächsten Kämpfe harte Arbeit zu sein.</t>
-  </si>
-  <si>
-    <t>Es ist Zeit für das Singen auf der Gliegna (noch etwa eine Stunde) https://plus.nasa.gov/scheduled-video/intuitive-machines-1-lunar-landing/</t>
-  </si>
-  <si>
-    <t>Der Atlant hat sozusagen den Dank einer alten englischen Telefonzelle.</t>
+    <t>Nachdem sie sich durchgesetzt haben, scheinen einige der nächsten Kämpfe harte Arbeit zu sein.</t>
+  </si>
+  <si>
+    <t>Es ist Zeit für die Bergung auf der Gliegna (noch etwa eine Stunde) https://plus.nasa.gov/scheduled-video/intuitive-machines-1-lunar-landing/</t>
+  </si>
+  <si>
+    <t>Dieser hat sozusagen den Dank einer alten englischen Telefonzelle.</t>
   </si>
   <si>
     <t>Noch 3 Minuten...</t>
@@ -464,13 +747,13 @@
     <t>Es ist ein absolutes Nischenproblem, aber wenn man Roboterfiguren bauen/personalisieren will, ist es wirklich nervig, dass man etwas bauen muss, das für den Krieg und das Töten gemacht ist.</t>
   </si>
   <si>
-    <t>Wie in den Jahren zuvor keine. Dann gab es das Bionivles. Das waren eigentlich Pioniere/Helden mit sehr elementaren Kräften, Persönlichkeiten und unterschiedlichen Hobbys, aber danach gab es nur noch Sachen wie Warhammer, Gundam, Battletech, wo alles darauf ausgelegt war, eine Waffe zu sein, und die begleitenden Medien auf eine völlig unnötige Weise inszenierten.</t>
-  </si>
-  <si>
-    <t>Natürlich wissen diese anderen Quellen, dass es "la gueara e noscha" ist, aber dann verkaufen sie Kampfmaschinen als Merchandising-Figuren.</t>
-  </si>
-  <si>
-    <t>Die Scheinwerfer-Inszenierung zwischen ihrem Auftritt hat diesen fiktiven Zweck, genau wie man es auch in der realen Welt mit Panzern und Jets tut.</t>
+    <t>Wie in den Jahren zuvor keine. Dann gab es das Bionivles. Das waren eigentlich Pioniere/Helden mit sehr elementaren Kräften, Persönlichkeiten und unterschiedlichen Hobbys, aber danach gab es nur noch Sachen wie Warhammer, Gundam, Battletech, wo alles darauf ausgelegt war, eine Waffe zu sein, und in den begleitenden Medien auf eine völlig unnötige Weise inszeniert wurde.</t>
+  </si>
+  <si>
+    <t>Natürlich wissen diese anderen Quellen, dass sie Schlachtmaschinen als Merchandising-Figuren verkaufen.</t>
+  </si>
+  <si>
+    <t>Die Trennung der Scheinwerfer zwischen ihrem Auftritt dient diesem fiktiven Zweck, genau wie es in der realen Welt mit Panzern und Jets der Fall ist.</t>
   </si>
   <si>
     <t>Weil die Figuren ja cool aussehen, und mir mehr daran liegt, wie sie gebaut sind und wie ihr Design bestimmte charakteristische Merkmale widerspiegelt. Aber dann heisst es bei jedem Set: "Peia, hier ist dein Laserschwert an deiner (mindestens) Pistole!"</t>
@@ -479,7 +762,7 @@
     <t>Das hat wahrscheinlich damit zu tun, dass Kinderspenden fast immer etwas mit Gewalt zu tun haben, wie bei Gi Joe und Transformers.</t>
   </si>
   <si>
-    <t xml:space="preserve">@user24 Ich freue mich darauf, Berry's pazifistische Roboterfamilie in 3D gedruckt zu sehen.</t>
+    <t xml:space="preserve">@user24 Ich freue mich schon darauf, Berry's pazifistische Roboterfamilie in 3D gedruckt zu sehen.</t>
   </si>
   <si>
     <t>@user25 Ooooh, das ist die Idee, auf jeden Fall, solange ich die Fähigkeiten dafür habe.</t>
@@ -488,19 +771,19 @@
     <t>Ein bekannter Anarchist, der seine Identität unbedingt geheim halten möchte, gibt seine DNA an ein Biotechnologie-Unternehmen, um einen zweifelhaften Überblick über seine Abstammung zu erhalten.</t>
   </si>
   <si>
-    <t>Ohne hier zu weit auszuholen, geht es sehr tief in die Tiefe, aber sie glaubt, dass einige ihrer Vorfahren eigentlich nicht ihre Vorfahren kennen. Ich möchte sie dabei unterstützen, den Effekt eines genetischen Drifts zu sehen, basierend auf einer kleinen Stichprobe.</t>
-  </si>
-  <si>
-    <t>Vielleicht gibt es in meiner Familie das eine oder andere, das mit Untreue zu tun hat, aber wenn man meine familiären Hintergründe berücksichtigt, die teilweise arm waren und in allen Bereichen wahrscheinlich in zum Teil homogenen Gemeinden, in kleinen Warenhäusern und ethnischen Ghettos stattfanden, dann wird man verstehen, dass das nicht so einfach ist.</t>
-  </si>
-  <si>
-    <t>Meine Grossmutter verliess ihren Mann für dessen Bruder und spielte ein Überbleibsel auf der anderen Seite der Familie, die ihre Düne für deren Tante verlassen hat.</t>
+    <t>Meine Frau hat das als Ausgangspunkt genommen. Ohne hier zu weit auszuholen, geht es sehr in die Tiefe, aber sie glaubt, dass einige ihrer Vorfahren eigentlich nicht wissen, wer ihre Vorfahren sind. Ich möchte sie dabei unterstützen, den Effekt eines genetischen Drifts zu sehen, basierend auf einem kleinen Kontrollversuch.</t>
+  </si>
+  <si>
+    <t>Vielleicht gibt es ein oder zwei in meiner Familie, die untreu waren, aber wenn man meine familiären Wurzeln betrachtet, die teilweise in Armut lagen und in allen Bereichen wahrscheinlich in zum Teil homogenen Gemeinden, in kleinen Warenhäusern und ethnischen Ghettos stattfanden, dann ist das verständlich.</t>
+  </si>
+  <si>
+    <t>Meine Grossmutter verliess ihren Mann für dessen Bruder und spielte eine übermütterliche Rolle auf der anderen Seite der Familie, die ihre Düne für deren Tante verlassen hatte.</t>
   </si>
   <si>
     <t>Und jetzt habe ich schlechte Laune, weil meine Extraktion viel schneller ging als erwartet.</t>
   </si>
   <si>
-    <t>89.9 % Briten und Iren, die meisten davon in der Region der Scottish Borders, im Osten Irlands, in Wales und Cornwall. Es gibt aber nicht viel Bretonisch, vielleicht weil es so nah an Cornwall liegt, dass die Sprache nicht zu mir passt und meine bretonische Familie nicht von dort stammt.</t>
+    <t>89.9 % Briten und Iren, die meisten davon in der Region der Scottish Borders, im Osten Irlands, in Wales und Cornwall. Es gibt aber nicht viel Bretonisches, vielleicht weil es zu Cornwall so nah ist, dass die Pflasterung bei mir nicht kaputt geht, oder weil meine bretonische Familie nicht von dort stammt.</t>
   </si>
   <si>
     <t>Seit etwa 40 Jahren gibt es Bedenken, dass es ungeborene Kinder geben könnte, von denen man sich ernährt.</t>
@@ -509,10 +792,10 @@
     <t>Fuck you, König Ludwig XIV., einer der dezenten Teaser und ein Anarchist!</t>
   </si>
   <si>
-    <t>Komplizierte Duna: Wollen Sie sich nun mit dem Test auf Ihre schottischen und irischen Anteile beziehen?</t>
-  </si>
-  <si>
-    <t>Ich stecke in einem Kilt mit Johnston-Gemälden und spiele die Elders of Ireland auf: Nein, das hätte nichts mit meinem Leben zu tun.</t>
+    <t>Komplizierte Duna: Wollen Sie sich nun mit dem DAN-Test auf Ihre schottischen und irischen Anteile beziehen?</t>
+  </si>
+  <si>
+    <t>Ein Kilt mit Johnstons Gemälden und den Elders of Ireland bindend: Nein, das hätte nichts mit meinem Leben zu tun.</t>
   </si>
   <si>
     <t>Am Portwash-Tag gibt es normalerweise kurze Basketballtücher, um etwas aufzusaugen.</t>
@@ -569,7 +852,7 @@
     <t>Trainieren Sie die Muskeln, nicht nur den Kopf. 💪</t>
   </si>
   <si>
-    <t>Sport ist nicht nur etwas für zukünftige Triathleten oder Leute, die besser aussehen wollen. Sport verbessert auch die Lebensqualität. Die Kleidung, der Gemütszustand, die Produktivität: alles hängt zusammen. Eine Pause einzulegen und sich vom Pult zu entfernen, macht die Brüste am Pult viel produktiver.</t>
+    <t>Sport ist nicht nur etwas für zukünftige Triathleten oder Leute, die besser aussehen wollen. Sport verbessert auch die Lebensqualität. Die Kleidung, der Gemütszustand, die Produktivität: alles passt zusammen. Eine Pause einzulegen und sich vom Pult zu entfernen, macht die Brüste am Pult viel produktiver.</t>
   </si>
   <si>
     <t>Erlaubnis zum Relaxen. 📺</t>
@@ -596,7 +879,7 @@
     <t>Mein Bruder ist hier und hat alles ausser Acht gelassen und muss immer wieder den Moment abpassen, um alles wieder zusammenzusetzen.</t>
   </si>
   <si>
-    <t>Und geht auf die Nerven.</t>
+    <t>Das geht auf die Nerven. Okay, ich bin jetzt fit genug, um die Isolation zu entfernen.</t>
   </si>
   <si>
     <t>Nur, wow! Der weite Schutzanzug von Tyvek... super dezidiert. Obwohl ich Hitze hatte und geschwitzt habe und insgesamt ziemlich unangenehm war, ist es viel besser, dass jetzt die ganze Matte an der Weite klebt und nicht an mir.</t>
@@ -614,7 +897,7 @@
     <t>Schauen Sie sich um, um einen zu holen!</t>
   </si>
   <si>
-    <t>Ich glaube, es hat 18 Dollar gekostet, aber wenn man sieht, was alles an mir kleben hätte können, war es auf jeden Fall die Fadeia wert.</t>
+    <t>Ich glaube, er hat 18 Dollar gekostet, aber wenn man sieht, was alles an mir kleben hätte können, war es auf jeden Fall die Mühe wert.</t>
   </si>
   <si>
     <t>Sie sollten auch eine Maske tragen.</t>
@@ -626,7 +909,7 @@
     <t>Wir sprechen ganz klar für die Schutzbreite!</t>
   </si>
   <si>
-    <t>Warum werden die GPS-Koordinaten auf der nächsten Stufe gerundet?</t>
+    <t>Warum werden die GPS-Koordinaten auf die nächste Stufe gerundet?</t>
   </si>
   <si>
     <t>Weil es sich um einen Vektor aus rationalen Zahlen handelt.</t>
@@ -641,7 +924,7 @@
     <t>Das sieht nicht gut aus.</t>
   </si>
   <si>
-    <t>@user29 @user30.engineer Oh Gott, gibt es wirklich Leute, die das ausserhalb der Trigonometrie-Instruktion brauchen?</t>
+    <t>@user29 @user30.engineer Oh Gott, gibt es wirklich Leute, die das ausserhalb des Trigonometrieunterrichts brauchen?</t>
   </si>
   <si>
     <t>@user31 brauchte das ein Jahr lang während des gesamten Trigonometrie-Unterrichts in der Highschool.</t>
@@ -716,13 +999,13 @@
     <t>Ich habe weder den Eifer noch den Verlader fotografiert, aber hier ist ein Bild vom Panel.</t>
   </si>
   <si>
-    <t>In der grauen Kiste, die seitlich des Brutofens auftaucht, befindet sich die Batterie.</t>
+    <t>In der grauen Kiste, die an der Seite des Inkubators hängt, sitzt die Batarei.</t>
   </si>
   <si>
     <t>Wenn sie aufgeladen ist, hat sie eine Betriebsdauer von etwa 4 Stunden.</t>
   </si>
   <si>
-    <t>Wuegl ist ein Feature, wie man hört. Es gibt den Vögeln auch etwas Privatsphäre.</t>
+    <t>Das ist ein Feature, wie man hört. Es gibt den Vögeln auch etwas Privatsphäre.</t>
   </si>
   <si>
     <t>Die alten Zugangspunkte, die ich im Herbst letzten Jahres ersetzt habe, hätten nicht ausgereicht.</t>
@@ -734,13 +1017,13 @@
     <t>Das ist fast schade, denn man hatte die Absicht, auf dem Dach einen TP-Link Cpe210 zu installieren und diesen in Richtung des Gartens auszurichten.</t>
   </si>
   <si>
-    <t>Vielleicht macht man das noch, wenn man weitere Brutkästen mit Kameras montiert.</t>
+    <t>Vielleicht braucht man das noch, wenn man weitere Brutkästen mit Kameras montiert.</t>
   </si>
   <si>
     <t>Jetzt ist die Kamera offline und spielt nicht mit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vielleicht hat die Batterie drei Stunden vor Sonnenuntergang aufgehört zu laden, weil nicht genug Licht vorhanden war.</t>
+    <t xml:space="preserve">Vielleicht hat die Batterie drei Stunden vor Sonnenuntergang aufgehört zu laden, weil es kein Licht auf +F226 gab.</t>
   </si>
   <si>
     <t>Etwas weniger als einen halben Tag und auch weniger, um die Batterie des Betroffenen aufzuladen.</t>
@@ -764,7 +1047,7 @@
     <t>Fisheye ist ziemlich übertrieben.</t>
   </si>
   <si>
-    <t>Bei Digikey stimmte man jedoch der Suche nach Teilen zu, damit dieser für diesen speziellen Fall eine eigene Platte bauen kann.</t>
+    <t>Aber ich stimme der Suche nach dem Bauteil bei Digikey zu, damit man für diesen speziellen Fall eine eigene Platine bauen kann.</t>
   </si>
   <si>
     <t>Fast nicht.</t>
@@ -788,7 +1071,7 @@
     <t>Es ist ja auch nicht einfach.</t>
   </si>
   <si>
-    <t>Es stellte sich heraus, dass 5 V und GND auf dem Bildschirm des USB-C-Breakouts, der für die Verbindung mit dem Ladegerät benötigt wurde, vertauscht waren.</t>
+    <t>Es stellte sich heraus, dass 5 V und GND auf dem Bildschirm des USB-C-Breakouts, den ich zum Stecken mit dem Ladegerät benötigte, vertauscht waren.</t>
   </si>
   <si>
     <t>Die Kabel wurden ausgetauscht und nun leuchtet die Ladekontrollleuchte.</t>
@@ -812,7 +1095,7 @@
     <t>Leider steht die Sonne so tief (teilweise von einer Pflanze bedeckt), dass der Wert praktisch auf Null fällt, je nachdem, wie man ihn in Betrieb nimmt.</t>
   </si>
   <si>
-    <t>Ich glaube, ich muss bis morgen warten, um zu wissen, ob es für die Installation reicht oder ob es das beste Panel braucht, das ich bestellt habe.</t>
+    <t>Ich glaube, ich muss bis morgen warten, um zu wissen, ob es für die Installation reicht oder ob ich das beste Panel brauche, das ich bestellt habe.</t>
   </si>
   <si>
     <t>Amazon hat das Panel 2021 gekauft und liefert 12 V für max. 1.2 A.</t>
@@ -827,7 +1110,7 @@
     <t>Sie haben die Daten geändert, die in Schieflage geraten sind.</t>
   </si>
   <si>
-    <t>Der alte wie auch der neue Titel der Liste besagt, es handele sich um einen 12V 10W.</t>
+    <t>Der alte wie auch der neue Titel der Liste besagt, dass es sich um einen 12V 10W-Adapter handelt.</t>
   </si>
   <si>
     <t>Deshalb sollten Sie die alten E-Mails mitnehmen.</t>
@@ -854,7 +1137,7 @@
     <t>Man benötigt die Integration von Ping in den Home Assistant, um zu sehen, ob er online ist oder nicht.</t>
   </si>
   <si>
-    <t>Die durchschnittliche Brustgrösse beträgt 102 Millimeter.</t>
+    <t>Die Hohlbrust beträgt im Durchschnitt 102 Millimeter.</t>
   </si>
   <si>
     <t>Es gibt neue Aufkleber.</t>
@@ -881,7 +1164,7 @@
     <t>Es geht nicht, wenn es weniger weich ist - jemand ist ungefähr so schnell wie Sie und so weiter.</t>
   </si>
   <si>
-    <t>Wenn heute niemand auf sie achtet, dann wird das Personal sie wahrscheinlich befolgen.</t>
+    <t>Wenn heute niemand sie bewacht, dann bewacht sie wahrscheinlich das Personal.</t>
   </si>
   <si>
     <t>Ich habe noch ein paar andere Kleber mitgebracht.</t>
@@ -893,7 +1176,7 @@
     <t>Falls Sie nicht in der Nähe dieses zufälligen Supermarktes sind:</t>
   </si>
   <si>
-    <t>Wenn Sie bei einem Event spielen, spielen Sie immer mit einem Peer. Die einzigen Events im nächsten Monat sind in meinem aktuellen Kalender:</t>
+    <t>Wenn Sie zu einem Event eingeladen werden, spielen Sie immer mit einem Peer. Die nächsten Events finden Sie in meinem aktuellen Kalender:</t>
   </si>
   <si>
     <t>Superbooth Berlin</t>
@@ -935,7 +1218,7 @@
     <t>Kaum zu glauben, dass #DCU zwei Freistösse hätte bekommen müssen, aber keine bekommen hat. Das ist ein ziemlicher Vorteil für Miami #MLS #mastodonfc #MLSsoccer.</t>
   </si>
   <si>
-    <t>Gut, dass der Burape vielleicht keine Lügen erzählt. Schreckliche Schande für Klich. Du kannst nicht gewinnen, wenn dein DP so gelassen spielt.</t>
+    <t>Gut, dass der Burape vielleicht keine Lügen erzählt. Ein schrecklicher Make-up-Effekt von Klich. Du kannst nicht gewinnen, wenn dein DP so gelassen spielt.</t>
   </si>
   <si>
     <t>Es ist klar, dass die Entscheidungen des Schiedsrichters sie gelähmt haben, aber wie sie die letzten 20 Minuten gespielt haben, ist nicht das Team, das den Sieg errungen hat.</t>
@@ -962,10 +1245,10 @@
     <t>Ein Peer-Motorrad würde besser reparieren, sonst ...</t>
   </si>
   <si>
-    <t>Ist sie ein einziger Strohhalm, der nicht verstopft ist?</t>
-  </si>
-  <si>
-    <t>Es ist gelungen, sie herauszuholen, ohne den letzten Strohhalm herauszuziehen, aber darum muss er sich auch noch kümmern. Das macht er morgen früh.</t>
+    <t>Ist sie eine einzige Schraube, die nicht blockiert ist?</t>
+  </si>
+  <si>
+    <t>Endlich kommt die Batterie heraus. Es ist gelungen, sie herauszuholen, ohne die letzte Schraube zu entfernen, aber diese muss sie noch entfernen. Das macht sie morgen früh.</t>
   </si>
   <si>
     <t>Fast fertig. Eine neue ist drin, jetzt braucht es nur noch schwarzes Isolierband, um den Abstecher zu machen.</t>
@@ -977,7 +1260,7 @@
     <t>Hehe, nicht eins, sondern durch!</t>
   </si>
   <si>
-    <t>Jetzt geht es nur noch darum, den Strohsitz wieder zu färben.</t>
+    <t>Jetzt geht es nur noch darum, den Sitz mit den Schrauben wieder zu befestigen.</t>
   </si>
   <si>
     <t>Ich lasse die Massen kontrollieren, weil es ein gutes Angebot gab, und die linke Mitte macht seit einiger Zeit etwas blödsinniges.</t>
@@ -1004,13 +1287,13 @@
     <t>@user36 Die Brillen sehen wirklich gut aus! Ich kaufe so gerne Brillen... ich bringe sie immer mit nach Hause, aber irgendwie finde ich die anderen nie wieder...! Die aktuellen Massnahmen haben die Wärme des San-Martin-Bogens zurückgebracht. Ich brauche aber auch Sonnenbrillen... aber die gibt es nur auf Rezept und sind so teuer😂.</t>
   </si>
   <si>
-    <t>Als introvertierter Unternehmer ein Geschäft zu führen und gleichzeitig viel Wert auf Privatsphäre zu legen, muss kein Widerspruch sein, ist aber manchmal trotzdem einer. Der Grossteil der Online-Quellen und der Coaches raten dazu, mit den Tech-Giganten zusammenzuarbeiten und sich extrovertiert zu verhalten. Hier Werbung machen, dem Algorithmus folgen und Ihre Persönlichkeit zeigen. Ein blaues Kreuz bei diesem Dienst gemacht, sind Sie 24 Stunden am Tag erreichbar, haben Sie ein Video über sich und sind sofort gerast. Video, Video, Video.</t>
+    <t>Als introvertierter Unternehmer ein Geschäft zu führen und gleichzeitig der Privatsphäre viel Bedeutung beizumessen, muss kein Widerspruch sein, ist aber manchmal trotzdem einer. Der Grossteil der Online-Quellen und der Coaches raten dazu, mit den Tech-Giganten zusammenzuarbeiten und sich extrovertiert zu verhalten. Hier Werbung machen, dem Algorithmus folgen und Ihre Persönlichkeit zeigen. Ein blaues Kreuz bei diesem Dienst machen, bedeutet, dass Sie 24 Stunden am Tag erreichbar sind, und Sie haben ein Video über sich, das Sie anspricht.</t>
   </si>
   <si>
     <t>Für mich ist es ein Übergangsjahr.</t>
   </si>
   <si>
-    <t>Ich will die Tech-Giganten nicht mit Geld, Daten und meiner Energie füttern. Ich bin auf der Suche nach neuen Möglichkeiten, um mein Geschäft zum Kampf zu bringen, gegen meine jahrelange Überzeugung, dass man etwas auf eine bestimmte Art und Weise tun muss, um erfolgreich zu sein.</t>
+    <t>Ich will die Tech-Giganten nicht mit Geld, Daten und meiner Energie füttern. Neben den Coaches, die ihre eigene extrovertierte Schleife haben und diese jedem aufzwingen. Ich suche nach neuen Möglichkeiten, um mein Geschäft in den Kampf zu führen und gleichzeitig meiner langjährigen Überzeugung entgegenzuwirken, dass man etwas auf eine bestimmte Art und Weise tun müsse, um erfolgreich zu sein.</t>
   </si>
   <si>
     <t>Gib mir einen Daumen hoch!</t>
@@ -1037,7 +1320,7 @@
     <t>Ich freue mich, das alles zu lesen.</t>
   </si>
   <si>
-    <t>Ich brauche eine neue Webseite und erstelle gerade eine Liste mit allem, was ich mir für eine barrierefreie Zugänglichkeit und den Datenschutz wünsche (also kein Google Analytics etc.) und versuche herauszufinden, wie ich Signal als Standard für Videoanrufe nutzen kann. Es ist sicher viel Arbeit, das den Kunden zu erklären, aber ich denke, es ist es wert.</t>
+    <t>Ich brauche eine neue Website und erstelle gerade eine Liste mit allem, was ich mir für einen barrierefreien Datenschutz wünsche (also kein Google Analytics etc.) und versuche herauszufinden, wie ich Signal als Standard für Videoanrufe nutzen kann. Es ist sicher viel Arbeit, das den Kunden zu erklären, aber ich denke, es ist die Mühe wert!</t>
   </si>
   <si>
     <t>@user4 @user3 Sie schaffen das! Und ich helfe Ihnen gerne mit meinen Erfahrungen.</t>
@@ -1091,7 +1374,7 @@
     <t>Die natürliche Sprache ist normalerweise bruchstückhafter, vor allem wenn sie emotional wird.</t>
   </si>
   <si>
-    <t>Das Kauen ist nun an der Reihe mit dem Staubsauger. Dieser Gang macht Hoffnung, dass er bald zu Ende ist.</t>
+    <t>Das Kauen ist nun an der Reihe mit dem Staubsauger. Hoffentlich will dieser Gang, dass er bald zu Ende ist.</t>
   </si>
   <si>
     <t>Er ist nach draussen gegangen, um etwas zu schneiden.</t>
@@ -1100,7 +1383,7 @@
     <t>Noch 7 Seiten bis zum Kapitel 5. Es ist immer noch mein Lieblings-Kapitel und es sieht ganz gut aus - vor allem die Änderungen der Schrift und sehr kleine Korrekturen im direkten Anschluss müssen noch etwas kompakter formuliert werden.</t>
   </si>
   <si>
-    <t>Jetzt hat er wieder mit dem Staubsauger angefangen. Hoffentlich ist das ein gutes Zeichen.</t>
+    <t>Jetzt hat er gerade wieder mit dem Staubsaugen angefangen. Hoffentlich ist das ein gutes Zeichen.</t>
   </si>
   <si>
     <t>Der Typ mit dem Kopf ist weg!</t>
@@ -1145,19 +1428,19 @@
     <t>@19 Das hätte ich mir überlegen sollen. Ich meine, mit meinem Visum und meiner Passfotografie. Ich hätte mehr tun sollen.</t>
   </si>
   <si>
-    <t>Das ist mein erster Besuch beim Zahnarzt, um eine Krone zu bekommen: Heute vorbereiten, in zwei Wochen dann einsetzen lassen.</t>
+    <t>Das ist mein erster Besuch beim Zahnarzt, um eine Krone zu bekommen: Heute vorbereiten, in zwei Jahren dann einsetzen lassen.</t>
   </si>
   <si>
     <t>Da gab es viel zu verbessern.</t>
   </si>
   <si>
-    <t>Stumpi und Gio würden jetzt wieder etwas essen und nach einem Peer Scariola Tee fühlen wir uns besser.</t>
+    <t>Stumpi und Gio würden jetzt wieder etwas essen und nach einem Peer Scariola Tee fühlen wir uns besser. Auf zwei Etagen geht es voran und dann ist die Behandlung zu Ende.</t>
   </si>
   <si>
     <t>Fast nicht.</t>
   </si>
   <si>
-    <t>Die Feinschmeckerin ist zufrieden mit der Art, wie die Krone aufgerichtet war, selbst nachdem sie sie bearbeitet hatte.</t>
+    <t>Er ist zufrieden mit der Art und Weise, wie der Kranz arrangiert wurde, sogar nachdem er ihn bearbeitet hatte.</t>
   </si>
   <si>
     <t>Die Nachfolge des Stumpi wurde verschoben.</t>
@@ -1211,13 +1494,13 @@
     <t>Wenn Sie wissen, was mich erwartet.</t>
   </si>
   <si>
-    <t>Die FAA ist kein Fan von ADHS. Sie erteilt definitiv keine medizinische Genehmigung, wenn jemand Medikamente dagegen einnimmt.</t>
+    <t>Die FAA ist kein Fan von ADHS. Sie erteilt definitiv keine medizinische Genehmigung, wenn man Medikamente dagegen einnimmt.</t>
   </si>
   <si>
     <t>Wenn Sie eine eigene Nummer für den Bienenschwanz wählen müssten, dann wissen Sie, dass es auf jeden Fall eine Variante von N1337 sein muss.</t>
   </si>
   <si>
-    <t>Das ist doch klar, wenn die Sonne scheint, wenn es warm wird, lol. Was für ein Blödsinn.</t>
+    <t>Das ist doch klar, wenn die Sonne scheint, wenn es weggeht, lol. Was für ein Blödsinn.</t>
   </si>
   <si>
     <t>Ich muss wirklich wieder in die Luft. Das Wetter ist schuld und nicht meine Seite.</t>
@@ -1268,7 +1551,7 @@
     <t>Das ist nicht wie ein Sonntagsausflug mit dem Auto. Es ist eher ein Sport, der einen Spaziergang macht, ganz nach meiner neuen Meinung.</t>
   </si>
   <si>
-    <t>Es war ein schöner Samstag, meine Wäsche und meine Kleidung wurden auf 4000 Fuss Höhe gebadet.</t>
+    <t>Es war ein schöner Samstag, meine Wäschereien und meine Wäschereibetriebe.</t>
   </si>
   <si>
     <t>Morgen geht es wieder los. Dann üben wir Unterbrechungen des Luftkurzflugs und des Gleitflugs.</t>
@@ -1292,7 +1575,7 @@
     <t>Sie brauchen ein Headset.</t>
   </si>
   <si>
-    <t>Schön, dass der günstigste reicht (699 $).</t>
+    <t>Gut, dass der günstigste reicht (699 $).</t>
   </si>
   <si>
     <t>Ein guter Start für die theoretischen Lektionen.</t>
@@ -1331,7 +1614,7 @@
     <t>Sie haben die Mess-Threads neu angeordnet, sodass dies Teil des Megathreads sein müsste.</t>
   </si>
   <si>
-    <t>Ein schöner Sonntag,</t>
+    <t>Es war ein schöner Sonntag.</t>
   </si>
   <si>
     <t>Heute habe ich meinen ersten Langstreckenflug absolviert (Flug von etwa 50 Seemeilen).</t>
@@ -1361,7 +1644,7 @@
     <t>Es ist ein schöner Samstag, meine Wäsche und meine Kleidung.</t>
   </si>
   <si>
-    <t>Das vergangene Jahr und das Wetter waren nicht kooperativ, also versuchen wir es heute noch einmal.</t>
+    <t>Letztes Jahr war das Wetter nicht kooperativ, also versuchen wir es heute noch einmal.</t>
   </si>
   <si>
     <t>Stabilisieren nach einer Unterbrechung der Luftkurve, mit und ohne Motor, Plattfliegen, Motorwanne simulieren, Muster fliegen, mit etwas Hilfe durch die Geraden landen und eine Runde über die Piste fliegen.</t>
@@ -1442,7 +1725,7 @@
     <t>Jetzt gezogen, ob eine Million Meter im Jahr 2024 möglich wären? 🤔 #peloton</t>
   </si>
   <si>
-    <t>Ja, ich werde die Million schaffen. Sie wissen, dass es ein echtes Ziel ist, wenn Sie das Jahr in einer Tabelle dokumentieren. Wieder eine Minute geschafft und Sie haben immer noch nicht von der Brustplatte aufgesehen. #remar #peloton</t>
+    <t>Ja, ich schaffe die Million. Sie wissen, dass es ein echtes Ziel ist, wenn Sie dieses Jahr eine Tabelle dokumentieren. Sie haben wieder eine Hand geschafft und haben immer noch nicht den Brustbereich abgedeckt. #remar #peloton</t>
   </si>
   <si>
     <t>Aktualisierung nach einem Quartal... ein Stück weiter als geplant.</t>
@@ -1451,7 +1734,7 @@
     <t>@user20, also trainieren Sie jeden Tag 2.8 km? Auf dem Ergometer oder auf dem Wasser?</t>
   </si>
   <si>
-    <t>@user21 Ich habe während der Ebbe gereimt, also sind es im Durchschnitt bis jetzt etwas mehr als 5 km/Wolken.</t>
+    <t>@user21 Ich habe während der Eanda gereimt, also sind es heute im Durchschnitt etwas mehr als 5 km/Wolken.</t>
   </si>
   <si>
     <t>Meine Sirty-Gesichter wachsen.</t>
@@ -1499,16 +1782,16 @@
     <t>Anscheinend gibt es nur zwei Level des originalen Super Mario Maker, die noch niemand so weit geschafft hat.</t>
   </si>
   <si>
-    <t>Aber "Trimming The Herbs" fehlt noch, und es ist wirklich egal, ob jemand dieses Ding jemals ohne zu betrügen meistern kann. Das Niveau ist krass schwer.</t>
+    <t>Nur noch ein Mal. Aber "Trimming The Herbs" fehlt noch, und es ist wirklich egal, ob jemand dieses Mal ohne zu betrügen meistert.</t>
   </si>
   <si>
     <t>Letzte Nachricht: Es hat sich herausgestellt, dass dieser Level mit Hilfe eines Tools geladen wurde, was nichts mit dem möglichen Sichern dieser Brüste zu tun hatte, aber anscheinend hat es funktioniert. Nur die Spieler waren nicht so locker, und am Ende hat es jemand geschafft! https://fgc.network/objects/0f1b42c6-cbb1-49bb-91f5-db81bc71ea14</t>
   </si>
   <si>
-    <t>Als jemand, der ziemlich oft schwere Levels von Mario zu bewältigen hatte, war er - abgesehen von allem anderen - schon so eingestellt, dass "Trimming The Herbs" (das letzte verbleibende Level) nicht schwer zu sein schien.</t>
-  </si>
-  <si>
-    <t>Und dann stellte sich heraus, dass der Pegel trotzdem mit einem TAS geladen wurde, also rechnet sich das nicht mehr und der Sieg war klar. Um die Wahrheit herauszufinden, war ich etwas enttäuscht, aber GG für alle, die es bis dahin geschafft haben.</t>
+    <t>Als jemand, der ziemlich oft schwere Levels von Mario spielt, ist er - abgesehen von allem anderen - schon so weit, dass "Trimming The Herbs" (das letzte verbleibende Level) nicht schwer zu sein scheint.</t>
+  </si>
+  <si>
+    <t>A+F511 zeigte dann, dass der Pegel trotzdem mit einem TAS geladen wurde, also rechnet sich das nicht mehr und der Sieg war klar. Um die Wahrheit zu erfahren, etwas enttäuscht, aber GG für alle Leute, die es bis dahin geschafft haben.</t>
   </si>
   <si>
     <t>RIP, Super Mario Maker 1</t>
@@ -1523,7 +1806,7 @@
     <t>Okay, fangen wir an!</t>
   </si>
   <si>
-    <t>Knoblauch entwickelt sich gut (zum Beispiel der mit dem weichen Hals, der mit dem harten Hals sieht aus irgendeinem Grund viel trockener aus).</t>
+    <t>Der Knoblauch entwickelt sich gut (genau genommen der mit dem weichen Hals, der mit dem harten Hals sieht aus irgendeinem Grund viel trockener aus).</t>
   </si>
   <si>
     <t>Der Uon-Samen-Ampustazius</t>
@@ -1553,13 +1836,13 @@
     <t>A fito: Radieschen, Senf, Salat-Cup, Spinat a pak choi</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Blumentopferde, die ich letztes Jahr verwendet habe, um die Kürbispflanzen zu schiessen, werden wiederverwendet. Eine verwendete Blumentopferde stammt aus der Zarzaktion eines Kameraden zur anderen Teetröpfchenhälfte aus den Äckern der halben Eltern.</t>
+    <t xml:space="preserve">Ich verwende alle Blumentöpfe, die ich letztes Jahr verwendet habe, um die Kürbispflanzen zu pikieren. Eine Blumentopfhälfte und -teer stammen von einem Kameraden und die andere Teerhälfte von den Äckern der halben Eltern.</t>
   </si>
   <si>
     <t>Es ist Zeit, unser Schlafzimmer abzureissen. Der letzte Sommer im Haus, an dem nichts anderes gemacht wurde als ein bisschen Dekoration.</t>
   </si>
   <si>
-    <t>Der elektrische Kamin vom Ende des 20. Jahrhunderts und der Boden des Kamins müssen entfernt werden. Wir müssen eine Mauer um den Kamin herum bauen, den Putz ersetzen und ihn glätten. Und dann den massiven Schrank mit der Ausbreitungsfunktion bauen.</t>
+    <t>Der späte elektrische Kamin und die Feuerstelle des Kamins müssen entfernt werden. Wir müssen eine Mauer um den Kamin herum bauen, den Putz ersetzen, ihn abziehen und dann den massiven Ausbau-Schrank bauen.</t>
   </si>
   <si>
     <t>Wir beginnen immer mit einer groben Bleistiftskizze.</t>
@@ -1592,7 +1875,7 @@
     <t>Der Stuckateur ist fertig.</t>
   </si>
   <si>
-    <t>Das Korkfundament ist gelegt, ich habe einen Rollenabzieher aus Hylli-Pulver für den Staubsauger gebastelt.</t>
+    <t>Das Korkfundament ist gelegt, hier wurde ein Rollenabroller aus Hylli-Pulver für den Staubsauger gebastelt.</t>
   </si>
   <si>
     <t>Teile des Bodens sind fertig und können verlegt werden.</t>
@@ -1601,7 +1884,7 @@
     <t>Puh, heute geht es langsam voran, wegen den superkomplizierten Schnitten um die Türschwelle, um einen ununterbrochenen Übergang mit dem Holzschuh zu erreichen.</t>
   </si>
   <si>
-    <t>Fito, nur halb tot! Der Höhepunkt ist die schreckliche Montageanleitung für das neue Bett im Sommer.</t>
+    <t>Fito, nur halb tot! Der Höhepunkt war die schreckliche Montageanleitung für das neue Bett.</t>
   </si>
   <si>
     <t>Es fehlen noch der Boden und alle Leisten an den Fusshöhen. Der Dekorateur kommt in einer Hand, also bekommen wir den Chic der Hartlackschliere.</t>
@@ -1631,16 +1914,16 @@
     <t>3. HTML für die Abschnitte 1, 2, 3 usw.</t>
   </si>
   <si>
-    <t>Dann würde der Browser dafür sorgen, dass die Abschnitte 1 bis 6 auf der Webseite "über" Abschnitt 7 angezeigt werden.</t>
+    <t>Dann würde der Browser dafür sorgen, dass die Abschnitte 1 bis 6 auf der Webseite *über* Abschnitt 7 angezeigt werden.</t>
   </si>
   <si>
     <t>Macht das Sinn? Wäre das nützlich?</t>
   </si>
   <si>
-    <t>Das Halsband (#section7) soll so schnell wie möglich gestaltet werden, ohne dass man neue Elemente mit JavaScript implementieren muss. Man möchte einfach ein zusätzliches HTML-Dokument haben, aber die Halsbänder sollen so schnell wie möglich wiedergegeben werden. Das soll mit HTML funktionieren.</t>
-  </si>
-  <si>
-    <t>Der Inhalt könnte auf diese Weise gestreamt werden, und dann würde der Browser alle &lt;contents&gt; in die &lt;div&gt; einfügen.</t>
+    <t>Das Halsband (#section7) soll so schnell wie möglich gestaltet werden, ohne dass neue Elemente mit JavaScript implementiert werden müssen. Man möchte einfach ein zusätzliches HTML-Dokument haben, aber die Halsbänder sollen so schnell wie möglich wiedergegeben werden. Das soll mit HTML funktionieren.</t>
+  </si>
+  <si>
+    <t>Der Inhalt könnte auf diese Weise gestreamt werden und dann würde der Browser alle &lt;contents&gt; in die &lt;div&gt; integrieren.</t>
   </si>
   <si>
     <t>Es würden nicht unbedingt eine Sequenz nach der anderen gestreamt, aber der Browser würde das HTML-Dokument so zusammenfügen, als hätte er eine Sequenz nach der anderen gestreamt.</t>
@@ -1655,22 +1938,22 @@
     <t>2. Verwenden Sie das Modell mit den Abschnitten</t>
   </si>
   <si>
-    <t>Das Problem ist, dass der visuelle Erfolg nicht dem DOM-Erfolg entspricht. Es wäre hilfreich, eine HTML-Funktion zu haben, die es ermöglicht, eine Sequenz nacheinander abzuspielen, aber der Browser würde den Inhalt dem DOM-Erfolg entsprechend anordnen.</t>
+    <t>@user23 Das Problem ist, dass der visuelle Erfolg nicht mit dem DOM-Erfolg übereinstimmt. Es wäre hilfreich, eine HTML-Funktion zu haben, die es ermöglicht, keine Sequenz nacheinander abzuspielen, aber der Browser würde den Inhalt nach dem DOM-Erfolg sortieren.</t>
   </si>
   <si>
     <t>Die Idee mit den Slots scheint aber gut zu sein.</t>
   </si>
   <si>
-    <t>user22 Oh, möchten Sie, dass der Browser den Nachfolger im DOM überprüft?</t>
-  </si>
-  <si>
-    <t>user23 Das ist die Idee. Section 7 würde zuerst gestreamt, damit der Nutzer sie so schnell wie möglich ansehen kann. Wenn dies ohne Beeinträchtigung des DOM-Erfolgs geschieht, wäre das gut, dann würde der Browser dafür sorgen, dass der resultierende DOM-Erfolg dem visuellen Erfolg entspricht.</t>
+    <t>@user22 Oh, möchten Sie, dass der Browser den Nachfolger im DOM prüft?</t>
+  </si>
+  <si>
+    <t>@user23 Das ist die Idee. Abschnitt 7 würde zuerst gestreamt, damit der Nutzer ihn so schnell wie möglich sehen kann. Wenn dies ohne Beeinträchtigung des DOM-Erfolgs geschieht, wäre das gut. Der Browser würde dann dafür sorgen, dass der resultierende DOM-Erfolg dem visuellen Erfolg entspricht.</t>
   </si>
   <si>
     <t>Die Sektion 7 wurde zuerst gestreamt, aber das Endergebnis muss so aussehen, als wären alle Sektionen nacheinander gestreamt worden.</t>
   </si>
   <si>
-    <t>user22 user23 Ein PHOOOS ohne JS: https://github.com/niutech/phooos</t>
+    <t>@user22 "@user23 Warte mal, ein PHOOOS ohne JS: https://github.com/niutech/phooos"</t>
   </si>
   <si>
     <t>versuchen, sich an Miniaturen zu machen</t>
@@ -1679,7 +1962,7 @@
     <t>ich habe den Kopf neu gemacht!</t>
   </si>
   <si>
-    <t>Mit Kneadatite (dem grünen Zeug) hatte er viel Spass, es ist wie mit Schlingen zu modellieren, aber es ist weich und flexibel, wenn es hart auf hart trifft.</t>
+    <t>Mit Kneadatite (dem grünen Zeug) hatte er viel Spass, es ist wie mit Knetgummi zu modellieren, aber es ist weich und flexibel, wenn es erhitzt wird.</t>
   </si>
   <si>
     <t>noch mehr Miniatur-Kram</t>
@@ -1688,61 +1971,61 @@
     <t>M&amp;M grün anatomisch korrekt</t>
   </si>
   <si>
-    <t>user26 Und so frisch. Ich mag SIE*</t>
-  </si>
-  <si>
-    <t>user27 hehe danke user26</t>
+    <t>@user26 Und so frisch. Ich mag SIE*</t>
+  </si>
+  <si>
+    <t>@user27 hehe danke user26</t>
   </si>
   <si>
     <t>Übersetzung</t>
   </si>
   <si>
-    <t>Okay, nach dem nächsten Video werden die Dachdecker böse auf mich sein, aber das ist nicht für sie! Das ist für dich - und wenn du zu denen gehörst, die sich keinen Dachdecker leisten können, dann musst du dir dieses Video unbedingt anschauen. Dort siehst du, wie du eine Dachabdeckung über ein altes, ja sogar vorhandenes Dach selbst bauen kannst. Ganz einfach: Ein System, das man einfach mitziehen und daran kleben kann.</t>
-  </si>
-  <si>
-    <t>Hallo an alle. Jetzt mal ehrlich: Ich habe noch nicht genug gegessen, um mein Loch zu säubern, aber ich spiele es euch vor, wenn das Wasser ins Nichts fliesst. Sie wissen, was Sie meinen? Ich schreibe Ihnen fast nie ab. Zum Vergnügen schreibe ich darunter, was Sie tun würden. Welches Grün würden Sie dazu servieren? Vergessen Sie nicht, dass es ein bunteres Essen sein soll, ok? Ich giesse lieber noch ein bisschen von diesem Kool-Hilfe-Getränk in mein Glas. Oh, wie gut!</t>
-  </si>
-  <si>
-    <t>Badvagnieu in Cosa, Italien. Cosa muss eine römische Kolonie sein. Das ist seit vier Tagen im letzten Jahr ausgegraben worden. Was gibt es in Cosa auszugraben, wenn es ein Jahr lang eine römische Kolonie war? Und das Pantheon wurde in Rom ausgegraben? Nein, das Pantheon steht sogar auf demselben Boden wie zeitgenössische Gebäude in der Umgebung. Wenn das so ist, sehen Sie das? Sehen Sie, dass das Pantheon vermutlich während der Römerzeit gebaut wurde. Es ist auch nach den Himmelsrichtungen ausgerichtet, was zeigt, dass es nicht so alt sein kann.</t>
-  </si>
-  <si>
-    <t>Venedig, die Stadt auf dem Wasser. Ein Ort voller Charme und Romantik, der jedes Jahr Tausende von Besuchern anzieht. Nur wenige Schritte von den Touristenpfaden entfernt liegt ein ganz anderes Venedig, bewohnt von faszinierenden Kreaturen. Dieser Film zeigt ein Venedig, das nur wenige erlebt haben, ein Dorf mit einem überraschenden Doppelleben.</t>
+    <t>Okay, nach dem nächsten Video werden die Dachdecker böse auf mich sein, aber das ist nicht für sie! Das ist für dich - und wenn du zu denen gehörst, die sich keinen Dachdecker leisten können, dann musst du dir dieses Video unbedingt anschauen. Dort siehst du, wie du eine Dachabdeckung über ein altes, ja sogar vorhandenes Dach selbst bauen kannst. Ganz einfach: Ein System, das man einfach herunterziehen und festkleben kann.</t>
+  </si>
+  <si>
+    <t>Hallo an alle. Jetzt mal ehrlich: Ich habe noch nicht genug gegessen, um mein Loch zu reinigen, aber ich spiele Ihnen, mir, wenn das Wasser ins Nichts fliesst. Sie wissen, was ich meine? Ich schreibe fast gar nicht. Zu meiner Freude, was würden Sie tun? Welches Grün würden Sie damit bekommen? Vergessen Sie nicht, dass es ein billiges Essen sein soll, ok? Ich giesse lieber noch ein bisschen von diesem Kool-Hilfe-Getränk in mein Glas. Oh je!</t>
+  </si>
+  <si>
+    <t>Badvagnieu in Cosa, Italien. Cosa de easser muss eine römische Kolonie sein. Das ist hier und wurde über vier Tage im letzten Jahr ausgegraben. Was gibt es in Cosa zu graben, wenn es einmal eine römische Kolonie war? Und das Pantheon wurde in Rom ausgegraben? Nein, das Pantheon steht sogar auf dem gleichen Boden wie zeitgenössische Gebäude in der Umgebung. Schauen Sie hier, was? Schauen Sie hier, dass das Pantheon vermutlich während der Römerzeit gebaut wurde. Es ist auch nach den Himmelsrichtungen ausgerichtet, was zeigt, dass es nicht so alt sein kann.</t>
+  </si>
+  <si>
+    <t>Venedig, die Stadt auf dem Wasser. Ein Ort voller Charme und Romantik, der jedes Jahr tausende Besucher anzieht. Nur wenige Schritte von den Touristenpfaden entfernt liegt ein ganz anderes Venedig, bewohnt von faszinierenden Kreaturen. Dieser Film zeigt ein Venedig, das nur wenige erlebt haben, ein Dorf mit einem überraschenden Doppelleben.</t>
   </si>
   <si>
     <t>Wir wären nicht wütend. Und es wird noch unsicherer draussen, weil du es Greg versagt hast. Weil wir kein Geld haben, um ihn zu bezahlen, Burt. Das machst du, nicht jubel. Jubel, mach das. Verstehst du nicht, was ich tun musste, die Opfer aus dieser Situation zu tilgen? Das Zeugnis, das ich für die Schwesternschaft hinterlegen musste, willst du das alles verlieren? Lieber als das Risiko einzugehen, dass ein Opfer vernichtet wurde? Äh. Warum? Das hat dich noch nie gestört.</t>
   </si>
   <si>
-    <t>Nun muss er den Namen des Reaktors nennen, da es sich um ein Kernkraftwerk handelte. Da ein Kernkraftwerk ein Kernkraftwerk unterhalten muss, ohne die Reaktionsgeschwindigkeit zu erhöhen oder zu senken, kann diese Art der Installation, die sehr wichtig ist, um Erfahrungen über den Betrieb des Reaktors zu sammeln, auch tödlich sein, wenn die empfindliche Pest nicht beachtet wird.</t>
-  </si>
-  <si>
-    <t>Das ist wirklich ein sehr einfaches, überraschendes Projekt. Es ist überhaupt nicht schwierig, alles zusammen zu positionieren. Das ist das Schöne an diesem Projekt. Also, das ist fertig, okay? Also, ich fange jetzt so an. Ich klebe den Aufkleber auf und mache eine Seite nach der anderen. Genau so. Ich gehe eine Weile um den ganzen Sack herum... den Rand... den Rand des Sacks. Oh je. Ich nehme einfach das und das.</t>
-  </si>
-  <si>
-    <t>Das ist eine echte und authentische Rezeptur eines riesigen Mannes aus Japan, der in einer Art Militärparade marschiert. Was daran schockierend ist, ist, dass es seine echte Dankbarkeit ist. Er springt 4 Meter hoch, was in Sprüngen 13 Fuss entspricht. Er ist wirklich dankbarer und massiger als jeder ursprüngliche NBA-Spieler, wie zum Beispiel Shaquille O'Neal.</t>
-  </si>
-  <si>
-    <t>Ich ermutige sie, den Übermassern zu widersprechen, wenn sie denken, dass der Übermasser etwas falsch gemacht hat. Ich finde es gut, wenn die Leute etwas ausprobieren und nicht alles so hinnehmen, wie es ist. Okay. Ea. Diese Art von Freiheit. Sie sind dafür bekannt, dass sie als Kongressdelegierte immer auf Facebook erklärt haben, für wen sie gestimmt haben - ein seltenes Zugeständnis einer Autorität, zu sagen: "Okay, deshalb habt ihr das getan." Und eigentlich, wissen Sie, mochten viele Kongressleiter es nicht, dass sie das getan haben, weil sie dem Vorsitzenden die Macht gaben, zu widersprechen.</t>
-  </si>
-  <si>
-    <t>Die Amparade und wie bei vielen anderen neolithischen Ruinen: Wie haben sie eine solche Leistung vollbracht? Wie konnten sie Steine so präzise heben? Waren sie, wie wir oft gehört haben, die Überreste einer sehr fortgeschrittenen antiken Kultur, die weiterentwickelt wurde? Uns scheint diese Möglichkeit, besonders hier bei den Menschen von Er Grah, sehr überzeugend.</t>
+    <t>Nun muss er den Namen des Reaktors nennen, da es sich um ein Kernkraftwerk handelte. Da ein Kernkraftwerk ein Kernkraftwerk unterhalten muss, ohne die Reaktionsgeschwindigkeit zu erhöhen oder zu senken, kann diese Art der Installation, die sehr wichtig ist, um Erfahrungen mit der Funktionsweise des Reaktors zu sammeln, auch tödlich sein, wenn die empfindliche Last nicht berücksichtigt wird.</t>
+  </si>
+  <si>
+    <t>Das ist wirklich ein sehr einfaches, überraschendes Projekt. Es ist überhaupt nicht schwierig, alles zusammen zu positionieren. Das ist das Schöne an diesem Projekt. Also, das ist fertig, ok? Also, ich fange jetzt so an. Ich klebe den Aufkleber auf und mache eine Seite nach der anderen. Genau so. Ich gehe eine Weile um den ganzen Sack herum... den Rand... den Rand des Sacks. Oh je. Ich nehme einfach das und nehme das.</t>
+  </si>
+  <si>
+    <t>Das ist eine echte und authentische Rezeptur eines riesigen Mannes aus Japan, der in einer Art Militärparade marschiert. Was daran schockierend ist, ist, dass es seine echte Dankbarkeit ist. Er springt 4 Meter hoch und das in Sprüngen von 13 Fuss. Er ist wirklich dankbarer und massiger als jeder ursprüngliche NBA-Spieler, wie zum Beispiel Shaquille O'Neal.</t>
+  </si>
+  <si>
+    <t>Ich ermutige sie, den Übermassern zu widersprechen, wenn sie denken, dass der Übermasser etwas falsch gemacht hat. Ich finde es gut, wenn die Menschen etwas ausprobieren und nicht alles so hinnehmen, wie es ist. Okay. Ea. Diese Art von Freiheit. Sie sind dafür bekannt, dass sie als Kongressdelegierte immer auf Facebook erklärt haben, für wen sie gestimmt haben - eine seltene Zugeständnis eigener Autorität, zu sagen: "Okay, deshalb habt ihr das getan." Und eigentlich, wissen Sie, mochten viele Kongressleiter es nicht, dass sie das getan haben, weil sie dem Vorsitzenden die Macht gegeben haben, zu widersprechen.</t>
+  </si>
+  <si>
+    <t>Die Amparade und, wie bei vielen anderen neolithischen Ruinen: Wie haben sie eine solche Leistung vollbracht? Wie konnten sie die Steine so anmutig heben? Waren sie, wie wir oft gehört haben, die Überreste einer sehr fortgeschrittenen antiken Kultur, die weiterentwickelt wurde? Diese Möglichkeit scheint uns, besonders hier bei den Menschen von Er Grah, sehr überzeugend.</t>
   </si>
   <si>
     <t>Sie haben also eine Xbox Series X gekauft, damit Sie das nicht tun müssen. Near Power muss es trotzdem. In diesem Video zeigen Sie Ihnen alle Vor- und Nachteile der Entscheidung für eine Xbox Series X. Sie erklären auch die Hardware selbst, den Controller, die Spiele und eigentlich alle Erfahrungen, die Sie bisher mit der Xbox Series X gemacht haben.</t>
   </si>
   <si>
-    <t>Ich höre sicher, dass es noch Meeresdinosaurier gibt. Entschuldigen Sie, dass Sie in Ihre Gemüter eindringen, Mademoiselle. Aber es werden vorzugsweise nur Reptilien genannt, die auf dem Meer leben. Würden sie unter Wasser leben, würden sie Meeresreptilien genannt, die ja schon sehr, sehr lange Zeit verschwunden sind. Was ist passiert? Sie werden es sich ansehen, Julie.</t>
-  </si>
-  <si>
-    <t>Nachdem alles erledigt ist, wische ich das überschüssige Pulver mit etwas Alkohol und einem Poliertuch weg. Es ist sehr einfach zu reinigen. Dann gebe ich das Nelkenöl hinein. Eigentlich ist das ein Öl für das Gesicht von Truly, aber Jou mochte den Fread Fearm nicht. Es findet kein Auge auf das Gesicht statt, dafür braucht es das Auge wie Öl für die Nelken. Und das ist das letzte Produkt für meine Nelken. Ich mag sie so und klinge ganz verrückt von ihnen. Ein häufig geliebter Peer: Wie trocken hält das Nelken-Set? Manchmal nimmst du sie früher heraus, weil du weisst, dass du die Fingerspitzen selbst machst, und du brauchst die Fingerspitzen für die Fingerspitzen, um sie einfach aufzufangen.</t>
-  </si>
-  <si>
-    <t>"Eine Nacht im Rennen der Galaxie" von Kenji Miyazawa. Es ist eine japanische Geschichte über zwei Söhne, die eine mystische Reise mit dem Himmelszug unternehmen, der durch eine Galaxie fährt. Sie machen mehrere allegorische Erfahrungen und werden mit philosophischen Themen konfrontiert. Während der Reise der Söhne durch den Nachthimmel geht es um Leben, Tod und den Menschen. Die Geschichte führt den Leser auf einer Reise der Söhne mit grosser Bedeutung zum Thema Existenz und Universum. Der Roman wurde um 1983 zu einem Manga und 1985 zu einem Anime verarbeitet.</t>
-  </si>
-  <si>
-    <t>Hier, wo wir stehen, war vor etwa 85 Millionen Jahren der Schutt eines Binnenmeeres, des Western Interior Seaway. Mike Everhart ist einer der weltweit führenden Experten für Mosasaurier. So weit das Auge reicht, ist nur das Meer am Horizont zu sehen. Es erstreckte sich hier, wo wir stehen, bis zu hundert Meilen weit. Das Klima war damals kälter, es gab also kein ewiges Eis an den Polen.</t>
-  </si>
-  <si>
-    <t>Okay, halt, halt, jetzt wird es ein bisschen leiser, zum Vergnügen! Papa, wann können wir uns ein dankbareres Auto leihen? Wenn du etwa 10 Jahre älter bist und eine Millionärin heiraten kannst. In meinem Ungeborenen hast du mehr Platz gehabt. Ach, dem hast du auch noch nichts abbezahlt. Du schuldest sogar dem Spital noch zwei Raten, bis du mir gehörst.</t>
+    <t>Ich höre sicher, dass es noch Meeresdinosaurier gibt. Entschuldigen Sie, dass Sie in Ihre Gemüter eindringen, Mademoiselle. Aber meine Reptilien werden vorzugsweise als Meerestiere bezeichnet. Wenn sie unter Wasser lebten, würden sie als Meeressaurier bezeichnet werden, die ja schon sehr, sehr lange verschwunden sind. Was ist passiert? Sie werden es sehen, Julie.</t>
+  </si>
+  <si>
+    <t>Nachdem alles erledigt ist, wische ich den restlichen Staub mit etwas Alkohol und einem Poliertuch weg. Es ist sehr einfach zu reinigen. Dann gebe ich das Nelkenöl hinein. Eigentlich ist das ein Öl für das Gesicht von Truly, aber Jou mochte den Fread Fearm nicht. Es findet kein Auge auf das Gesicht statt, deshalb brauche ich das Auge als Öl für die Nelken. Und das ist das letzte Produkt für meine Nelken. Ich mag sie so sehr und klinge ganz verrückt von ihnen. Ein häufig geliebter Peer: Wie trocken hält das Nelken-Set? Manchmal nimmst du sie früher heraus, weil du alle weisst, dass du die Fingerspitzen selber machst und dass du die Fingerspitzen für die Fingerspitzen verwendest, um sie einfach zu fangen.</t>
+  </si>
+  <si>
+    <t>"Eine Nacht im Rennen der Galaxie" von Kenji Miyazawa. Es ist eine japanische Geschichte von zwei Söhnen, die eine mystische Reise mit dem Himmelszug unternehmen, der durch eine Galaxie fährt. Sie machen mehrere allegorische Erfahrungen und werden mit philosophischen Themen konfrontiert. Während der Reise der Söhne durch den Nachthimmel geht es um Leben, Tod und den Menschen. Die Geschichte führt den Leser auf eine Forschungsreise mit grosser Bedeutung zum Thema Existenz und Universum. Der Roman wurde um 1983 zu einem Manga und 1985 zu einem Anime verarbeitet.</t>
+  </si>
+  <si>
+    <t>Hier, wo wir stehen, war vor etwa 85 Millionen Jahren der Schutt eines Binnenmeeres, des Western Interior Seaway. Mike Everhart ist einer der weltweit führenden Experten für Mosasaurier. So weit das Auge reicht, sieht man nur das Meer am Horizont. Es erstreckte sich hier, wo wir stehen, bis zu hundert Meilen weit. Das Klima war damals kälter, es gab also kein ewiges Eis an den Polen.</t>
+  </si>
+  <si>
+    <t>Okay, halt, halt, jetzt mach ein bisschen weniger Lärm, zum Vergnügen! Papa, wann können wir uns ein dankbareres Auto leihen? Wenn du etwa 10 Jahre älter bist und eine Millionärin heiraten kannst. In meiner Kinderkrippe war mehr Platz. Ach, den hast du auch noch nicht abbezahlt. Du schuldest dem Spital sogar noch zwei Raten, bis du mir gehörst.</t>
   </si>
   <si>
     <t>Heute unterhalten wir uns in einem Interview mit Ben Affleck. Greg, erzähl nicht zu viel über das Video, das wir uns anschauen werden. Vor zwei Wochen hatte Ben Affleck ein zweistündiges Interview mit Howard Stern. Er sprach über seine Trennung von seiner Exfrau und seiner Familie, was Konsequenzen hatte, und so nahm alles seinen Lauf. Da ist er, Ben Affleck!</t>
@@ -1757,28 +2040,31 @@
     <t>Und jetzt erfahren Sie: Was hinter der Bühne passiert, ist unwichtig, weil die Show einfach weitergeht. Und dann kam ein Kommentar von Lovely Lych, dass ihr das Video wirklich gefallen habe. Sie schreibt: "Mir haben die Back-the-Scenes-Dinge gefallen, wie zum Beispiel die Reise zum Festival, die Atmosphäre dort, das Essen an allem. Ein Tag in deinem Leben, schau dir das an." Sie hatten also die Hoffnung, dass dieses Video gefallen hat, was wir so viel wie möglich zeigen werden. Jetzt sind es Brüste für den Imbiss, und der Dieb macht Eier in Butter. Der Trick ist, ein Gelb vom extra Ei hinzuzufügen.</t>
   </si>
   <si>
-    <t>Der Freund meines Freundes und mein Freund. Das ist falsch! Wenn der Freund dein Freund wäre, dann wäre er explizit dein Freund. Vielleicht können die Frauen für eine Brust zusammenarbeiten, weil sie beide irgendetwas bei jemandem ablehnen. Nur wenn diese Reliquie auf eine andere Ablehnung basiert, was auch immer, gibt es das Nut, das verhindert, dass die Reliquie fast feindselig wird, nachdem das Problem gelöst wurde. Aber wissen Sie, ich verstehe auch die dahinterstehende kurzfristige Strategie, also widersprechen Sie einfach.</t>
+    <t>Der Freund meines Freundes und mein Freund. Das ist falsch! Wenn der Freund dein Freund wäre, dann wäre er explizit dein Freund. Vielleicht können die Frauen für eine Brust zusammenarbeiten, weil sie beide irgendetwas bei jemandem ablehnen. Nur wenn diese Reliquie auf eine andere Ablehnung basiert, was auch immer, dann gibt es das Nut, das verhindert, dass die Reliquie fast feindselig wird, nachdem das Problem gelöst wurde. Aber wissen Sie, ich verstehe auch die dahinterstehende Kurzzeitstrategie, also widersprechen Sie einfach.</t>
   </si>
   <si>
     <t>Vor kurzem wurden ihre Eltern in Cheyenne von Wilderern getötet und auf dem Markt verkauft. Sie wurden von der Organisation Help Kongo gefangen und zusammen mit etwa 30 anderen Waisen auf den Inseln in Freiheit aufgezogen. Einer nach dem anderen wurde diesen jungen Schimpansen der Weg zurück in die Wildnis gezeigt. Um sie identifizieren zu können, gaben die Wissenschaftler der Organisation jedem von ihnen einen Namen.</t>
   </si>
   <si>
-    <t>Deshalb kann man den Medien nicht mehr trauen, dass sie die Nachrichten fair und korrekt kommentieren. Trotzdem ist man immer noch der Meinung, dass die Mainstream-Medien ihren Wert haben. Nur weil sie parteiisch sind, bedeutet das nicht, dass man ihnen nicht trauen kann, wenn man ein nüchterner Mensch ist. Aus diesen Quellen kann man immer noch viele nützliche Informationen ziehen. Man muss nur wissen, wie man sie korrekt analysiert. Das Gleiche gilt nicht unbedingt für alternative Medien, kleine Unternehmen oder auch Einzelpersonen, die auf Seiten wie Youtube und Facebook Neuigkeiten kommentieren.</t>
-  </si>
-  <si>
-    <t>Nach dem Download sollten Sie eine kleine Datei-Danke erhalten. Sie haben dann eine App, die so aussieht wie diese, okay? Wenn Sie hier klicken, sehen Sie die Ansicht, die Sie sofort sehen können. Jetzt möchten Sie mit einem Peer chatten, der mit dem Lab zusammenarbeitet. Wichtig ist, dass die Lab-Angaben für das Lab-Arbeitsblatt, an dem Sie arbeiten möchten, selbsterklärend sind. Der Zweck dieses Videos ist eigentlich, zu zeigen, wofür Sie die App verwenden.</t>
+    <t>Deshalb kann man den Medien nicht mehr vertrauen, dass sie die Nachrichten fair und korrekt kommentieren. Trotzdem ist man immer noch der Meinung, dass die Mainstream-Medien ihren Wert haben. Nur weil sie überparteilich sind, bedeutet das nicht, dass man ihnen als trockener Mensch überhaupt nicht vertrauen kann. Aus diesen Quellen kann man immer noch viele nützliche Informationen ziehen. Man muss nur wissen, wie man sie korrekt analysiert. Das Gleiche gilt nicht unbedingt für alternative Medien, kleine Unternehmen oder auch Einzelpersonen, die auf Seiten wie Youtube und Facebook Neuigkeiten kommentieren.</t>
+  </si>
+  <si>
+    <t>Nach dem Download sollten Sie eine kleine Dateianleitung erhalten. Sie haben dann eine App, die so aussieht wie diese, okay? Wenn Sie hier klicken, sehen Sie das, was Sie dann sofort sehen. Sie möchten nun mit einem Peer chatten, der mit dem Lab in Verbindung steht. Wichtig ist, dass die Lab-Angaben für das Lab-Arbeitsblatt, an dem Sie arbeiten werden, selbsterklärend sind. Der Zweck dieses Videos ist eigentlich, zu zeigen, wofür Sie die App verwenden.</t>
+  </si>
+  <si>
+    <t>Na gut, es klingt immer noch besser als Pink Floyd. Im Manic Miner können Sie also alle Objekte auf dem Bildschirm einsammeln und zum Ziel gehen. Und das können Sie am besten tun, damit Sie keine Luft mehr haben, um ein Hindernis zu berühren. Welches genau? Der Zarclem! Sie können sterben, wenn Sie die Krabbe berühren lassen. Offensichtlich die Hälfte der halben Fans. Haben Sie gesehen, dass Sie tot sind, weil Sie den Zarclem, der auf einer ganz anderen Plattform stand, kaputtgemacht haben? Sie sind einfach über die Plattform gegangen und haben den Zarclem getroffen. Das ist ein grandioses Game-Design. Und dann gibt es dieses Loch, das rrrr macht.</t>
   </si>
   <si>
     <t>Alexa, "It's My Party and I'll Cry if I Want To". Bo, Bo, wir bewegen uns im Kreis. Alexa, "It's My Party and I'll Cry if I Want To". Du sollst auch wissen, ob das passieren würde. Huhuuu! Alexa, "Midnight Train"!</t>
   </si>
   <si>
-    <t>Hi, Rob. Hi, Marion, wie geht's? Sehr gut. Warum sind Sie als Wachmann vergrössert worden? Die Geschäftsleitung hat mir beigebracht, eine neue Nachrichtenabteilung für den Bereich Gesundheit zu schaffen und das Handbuch für die Käufer zu erstellen. Ich habe gehört, dass ich mich in der Rolle besser fühle, wenn ich ein aufrechtes Outfit trage. Äh, ich versteh's. Ja, das funktioniert, Rob. Wir haben jetzt eine Nachrichtenabteilung, die sich mit den Problemen der Datenabfrage und der Netzabfrage im Bereich Gesundheit befasst.</t>
+    <t>Hi, Rob. Hi, Marion, wie geht es Ihnen? Sehr gut. Warum sind Sie als Wachmann vergrössert worden? Die Geschäftsleitung hat mir beigebracht, eine neue Nachrichtenabteilung für den Bereich Gesundheit zu schaffen und das Handbuch für Käufer zu aktualisieren. Ich habe gehört, dass ich mich in der Rolle besser fühle, wenn ich ein aufrechtes Outfit trage. Äh, verstehen Sie mich. Und, na ja, es funktioniert, Rob. Wir haben jetzt eine Nachrichtenabteilung, die sich mit den Problemen der Datenabfrage und der Netzabfrage im Bereich Gesundheit befasst.</t>
   </si>
   <si>
     <t>Hallo, hier ist der Bahiano mit dem Bahiano Reno. Nun, wir werden ein paar Platten reparieren. Die Platten sind etwa 14, 15 Jahre alt. Wir machen das nur, um die Platten zu stabilisieren, weil die Platten als solche noch gut aussehen. Wir wollen nicht alle Platten in der ganzen Schlägerstadt ersetzen. Wir reparieren sie ein wenig, damit sie halten, dass wir eines Tages alles renovieren wollen.</t>
   </si>
   <si>
-    <t>Mein Vater kann mich also nicht zur Arbeit bringen. Und Jou hat eine Fahrt von etwa 27 Meilen zur Arbeit. Hin- und Rückfahrt würden hier fast hundert Dollar pro Tag bei Uber kosten. Jou hat noch nicht bei Lyft nachgesehen. Das hätte Jou machen können, das macht Sinn. Nur bei meiner Versicherung des Autos und nicht einen Teil mieten, das und damit meine Cualpa. Jou hätte also versuchen können, das zu installieren und ein Auto zu mieten, während Jou Sund bankrott war und kein Auto mehr hatte. Aber auch Mieten würde nicht jeden Tag abdecken. Einen Moment lang muss ich mich schnell betäuben.</t>
+    <t>Also kann mich mein Vater nicht zur Arbeit bringen. Jou hat eine Fahrt von ca. 27 Meilen zur Arbeit. Hin- und Rückfahrt würden hier fast hundert Dollar pro Tag bei Uber kosten. Jou hat noch nicht bei Lyft nachgesehen. Das hätte Jou machen können, das macht Sinn. Nur bei meiner Versicherung des Autos und nicht einen Teil mieten können, das und damit meine Cualpa. Jou hätte also versuchen können, das zu installieren und ein Auto zu mieten, während Jou Sund bankrott war und kein Auto mehr hatte. Aber auch Mieten würde nicht sechs Tage abdecken. Einen Moment lang muss ich mich schnell betäuben.</t>
   </si>
   <si>
     <t>Wenn wir schon über Stars sprechen, Howard Jones ist auf diesem Album als Gast mit einem Duett im Song "I Made a Case" dabei, er hat Sie immer mit Ihrer Musik unterstützt. War es Zufall, dass er aus diesem Lied Kunst gemacht hat? Ich habe gehört, dass Sie die Begleitmusik zurückgezogen haben, weil Sie nicht wollten, dass irgendetwas Ihre Stimmen beim Erzählen der Geschichte überlagert.</t>
@@ -1787,10 +2073,10 @@
     <t>Wasser, die Flüssigkeit, aus der die Ozeane entstehen. Es füllt unendliche Tiefen. Nur wenige können in die Unterwasserwelt der unendlich weiten Meere eintauchen. Die meisten Bewohner des Ozeans leben, um zum Markt zu gehen, ähnlich wie menschliche Gesellschaften.</t>
   </si>
   <si>
-    <t>Nur, Sie hätten nur die Strafverfolgungsbehörden um den Hals und würden sie zurückbringen, und dann wäre alles schlimmer als zuvor. Das könnte sein. Aber das Leben hat einfach keinen Sinn. Nur Chris, was für ein Tag du hier hast. Wir alle haben eine Chance. Die Welt ist voller schöner Dinge. Nicht für uns Helfer. Nun, mein Wasen, für uns alle.</t>
-  </si>
-  <si>
-    <t>Hallo Psych2Goers, und willkommen zurück auf unserem Kanal. Vielen Dank für all die Liebe, die ihr uns geschickt habt. Eure kontinuierliche Unterstützung hat dazu beigetragen, dass wir allen Zugang zu Psychologie und mentaler Gesundheit ermöglichen konnten. Gehen wir voran. Jeder von uns hat im Laufe seines Lebens etwas Selbstzerstörerisches getan. Meistens geschieht das nicht mit Absicht und es ist auch keine Gewohnheit. Selbstzerstörerisches Verhalten kann körperlich und mental schädlich sein. Du tust das nicht mit Absicht, du weisst fast genau, was du tust, aber die Sehnsucht und die Angst, es zu kontrollieren, sind geringer. Mit der Brust kann es Probleme geben, wenn sich diese Verhaltensweise einschleicht.</t>
+    <t>Nur, du hättest nur die Strafverfolgungsbehörden um den Hals und würdest sie zurückbringen, und dann wäre alles schlimmer als zuvor. Das könnte sein. Aber das Leben hat einfach keinen Sinn. Nur Chris, was für ein Tag du hier hast. Wir haben alle eine Chance. Die Welt ist voller schöner Dinge. Nicht für uns Helfer. Gut, mein Wasen, für uns alle.</t>
+  </si>
+  <si>
+    <t>Hallo Psych2Goers, willkommen zurück auf unserem Kanal. Vielen Dank für all die Liebe, die ihr uns geschickt habt. Eure kontinuierliche Unterstützung hat dazu beigetragen, dass wir allen Zugang zu Psychologie und mentaler Gesundheit ermöglichen können. Lassen Sie uns vorangehen. Jeder von uns hat im Laufe seines Lebens etwas Selbstzerstörerisches getan. Das ist nicht absichtlich, um erfolgreich zu sein, und es soll auch keine Gewohnheit werden. Selbstzerstörerisches Verhalten ist das, was körperlich und mental schädlich ist. Du tust das nicht absichtlich, du weisst fast genau, was du tust, aber du hast das Verlangen und weniger Angst, es zu kontrollieren. Mit der Brust kann es Probleme geben, wenn sich dieses Verhalten einschleicht.</t>
   </si>
   <si>
     <t>Starfire, die Prinzessin von Tamaran. Amparnevel, nebenan. Lord Bagrok! Oh! Was für ein beeindruckender Geist. Ihre Schwester war klug genug, Ihnen zu vergeben. Edle Kreatur!</t>
@@ -1799,70 +2085,280 @@
     <t>Wir müssen akzeptieren, dass die Regierung der Volksrepublik China und die Regierung der USA unterschiedliche Ansichten haben. Wir werden auch in Zukunft unterschiedliche Ansichten haben. Aber wir müssen einen Weg finden, um diese Differenzen zu erkennen, ohne uns als Freunde in einem Krieg gegenüberzustehen.</t>
   </si>
   <si>
-    <t>Wie sehen Sie die Technik, nur als Teil der Herausforderung? Besonders, dass es uns als Ingenieure zeigt, dass wir mit Problemen umgehen können, never? Und dass wir Schlupflöcher finden. Das ist unsere Aufgabe. Äh, ja. Wie haben Sie das so früh herausgefunden? Gut, das war ein ungewöhnlicher Zufall, kann gehen. Natürlich bin ich in den 70ern aufgewachsen. Ich habe mein politisches Verständnis und mein akademisches Verständnis in den 70ern bekommen, und das ist natürlich extrem wichtig.</t>
-  </si>
-  <si>
-    <t>Die vierköpfige Band The Now aus Südwales freut sich auf ihr erstes Album, Too Hot To Handle, über True Music, Callum und jetzt bei me. Wie geht es Callum? Alles in Ordnung? Eja, alles in Ordnung. Wie geht es dir? Eja, mir geht es prima. Vielen Dank. Es ist mir eine Ehre, mit Ihnen zu plaudern, denn ich habe Ihre Musik ab 2023 sehr oft gespielt. Mir gefällt diese Musik sehr gut, ausser mir, und sie ist etwas, das wir heute definitiv in den Charts brauchen.</t>
-  </si>
-  <si>
-    <t>Wann haben Sie angefangen zu komponieren und Musik aufzuführen, nach diesem Auftritt auf der Bühne vor Ihren Grosseltern? Nun ja, das war eher eine Aufführung. Sie haben auch etwas komponiert, aber das haben Sie den Profis überlassen, wissen Sie, als Sie mit professionellen Komponisten aufgenommen haben und einen enormen Erfolg in der ganzen Welt hatten.</t>
-  </si>
-  <si>
-    <t>Die Verwaltung und korrekte Entsorgung von Abfällen in Ihrem Autoreparaturbetrieb ist wichtig für die Gesundheit der Mitarbeiter und vor allem für die Vermeidung von Bussgeldern und Abrechnungskosten. Zudem wollen Kunden Geschäfte mit Unternehmen machen, die sich proaktiv für den Umweltschutz einsetzen und nachhaltig arbeiten. Welche Möglichkeiten gibt es dafür in der Seat? Erstens: Raffinieren Sie das benötigte Öl noch ein Jahr lang. Werfen Sie Ihr altes Öl nicht einfach weg. Mit den richtigen Prozessen kann das Öl neu raffiniert und unbegrenzt wiederverwendet werden, ohne dass es an Qualität verliert.</t>
-  </si>
-  <si>
-    <t>Hopp, Hopp. Der Stein schlägt die Schere, die Schere schlägt das Pulli und das Pulli schlägt den Stein. Sie gewinnen. Der Parterer verliert eine Stele. Am Ende des Spiels legt der Schiedsrichter die Steine wieder in die Recycling-Box. Wenn beide Spieler natürlich die gleiche Tüte wählen, gibt der Peer keinem Pearden eine Stele.</t>
+    <t>Wie haben Sie so frühzeitig gewusst, dass die Technik und einfach ein Teil der Herausforderung ist? Besonders, dass es uns als Ingenieure zeigt, dass wir mit Problemen umgehen können, never? Und dass wir Schlupflöcher finden. Das ist unsere Aufgabe. Äh, ja. Wie haben Sie das so frühzeitig herausgefunden? Nun, das war ein ungewöhnlicher Zufall, kann man sich vorstellen. Natürlich bin ich in den 70er Jahren aufgewachsen. Ich habe mein politisches Verständnis und mein akademisches Verständnis in den 70er Jahren bekommen, und das ist natürlich extrem wichtig.</t>
+  </si>
+  <si>
+    <t>Die vierköpfige Band The Now aus Südwales freut sich auf ihr erstes Album, Too Hot To Handle, über True Music, Callum und jetzt bei me. Wie geht es Callum? Alles in Ordnung? Ja, alles in Ordnung. Wie geht es dir? Ja, mir geht es prima. Vielen Dank. Es ist mir eine Ehre, mit euch zu plaudern, denn ich habe eure Musik ab 2023 sehr oft gehört.</t>
+  </si>
+  <si>
+    <t>Peia, wann haben Sie angefangen zu komponieren und Musik aufzuführen, nach diesem Auftritt auf der Bühne vor Ihren Grosseltern? Nun, das war eher eine Aufführung. Sie haben auch etwas komponiert, aber das haben Sie den Profis überlassen, wissen Sie, als Sie mit professionellen Komponisten aufgenommen haben und einen enormen Erfolg in der ganzen Welt hatten.</t>
+  </si>
+  <si>
+    <t>Die Verwaltung und korrekte Entsorgung von Abfällen in Ihrem Autoreparaturbetrieb ist wichtig für die Gesundheit der Mitarbeiter und vor allem für die Vermeidung von Bussgeldern und Abrechnungskosten. Ausserdem wollen die Kunden Geschäfte mit Unternehmen machen, die sich proaktiv für den Umweltschutz einsetzen und nachhaltig arbeiten. Welche Wege gibt es im Seat, um das zu tun? Erstens: Raffinieren Sie das benötigte Öl noch ein Jahr lang. Verschwenden Sie nicht einfach Ihr altes Öl. Mit den richtigen Prozessen kann das Öl neu raffiniert und ohne Qualitätsverlust wiederverwendet werden.</t>
+  </si>
+  <si>
+    <t>Hopp, Hopp. Der Stein schlägt die Schere, die Schere schlägt das Pulpier und das Pulpier schlägt den Stein. Sie gewinnen. Der Parterer verliert eine Stele. Am Ende des Spiels legt der Schiedsrichter die Steine wieder in die Recycling-Büchse. Wählen beide Spieler natürlich die gleiche Stele, gibt der Peer keine Stele an einen Pearden.</t>
   </si>
   <si>
     <t>Hallo, hier ist Nick von Review Outlaw. Heute machen wir eine letzte Runde durch das renovierte Chalet. Wir haben fast alles geschafft. Das ist der erste Sommer, den wir im letzten Jahr besucht haben. Wie Sie sehen, haben wir die Decke geputzt, die Schirme sind an allen Gipskartonplatten angebracht. Hier ist ein kleiner Blick. Wir haben einen Alarmknopf installiert.</t>
   </si>
   <si>
+    <t>Hallo, hier ist die World PDR für Sie mit einem neu ernannten Yukon Denali aus dem Jahr 2018. Er hat einen kleinen Bote hier hinten. Ich habe ihn nicht auf Hitze gestellt. Auf 95 Grad. Das ist vielleicht etwas weniger gemütlich. Ich gehe ein bisschen zurück. Wir machen einfach eine schnelle Giessarbeit. Ich habe ihr die Cola erwärmt und sie gepresst. Sehen Sie, wo der Bote ist? Ich lasse sie genau hier hinein giessen, und dann kann man die Hitze vielleicht sogar wegnehmen.</t>
+  </si>
+  <si>
+    <t>Die Wahrheit ist gut auf dieser Schablone. Hier hat sie etwas auf der Oberfläche gefroren, aber sie ist noch brauchbar. Wir zeigen Ihnen, wie es uns gelungen ist, dieses einfache Stück Eisen zu verzinken. Wenn Sie das Material in der Hand sehen, können Sie einiges an Geld sparen und im Eisenwarengeschäft herumfahren, wenn Sie ein Stück Eisen verzinken wollen. Wir zeigen Ihnen alles, was Sie in der Hand haben müssen, um diese Schablone zu verzinken und sie so wetterfest zu machen.</t>
+  </si>
+  <si>
+    <t>Er sagte: "Du hast ein Tattoo." Und: "Du hast ein Tattoo." Und: "Du hast ein Tattoo." Und: "Du hast ein Banjo." Und: "Du hast ein Tattoo." Und: "Du hast ein Tattoo." Und: "Du hast ein Banjo." Und: "Du hast ein Tattoo." Und: "Du hast ein Tattoo." Und: "Du hast ein Tattoo auf den Knien, weisst du? Ea, ea. Near, near ... Ein Banjo auf den Knien, so was. Oh, ein Banjo auf den Knien! Ea. Eaa!</t>
+  </si>
+  <si>
+    <t>Das ist die ganze Geschichte von Danny und Sam. Träumst du? Sam-Spiele. Danny Fenton und Sam Manson sind beste Freunde, und zusammen mit Tucker verbringen sie praktisch die ganze Brust miteinander. Dank Sam hat Danny seine geistigen Kräfte entfacht. Was ist Polenta, Danny, eine Geisterzone? Das musst du sehen. Weisst du was? Du hast Verstand?</t>
+  </si>
+  <si>
+    <t>Nicht weit entfernt wurde Basil durch einen Sirenenalarm geweckt, als sich eine stinkende Gasglocke über das ganze Gebiet ergoss. Die Bewohner wurden angewiesen, ihre Häuser nicht zu verlassen und alle Fenster und Türen zu verschliessen. Dieser Alarm wurde jedoch als nicht tödlich eingestuft. Es war nicht die Luft, sondern vor allem das Wasser, das fürchterlich kontaminiert sein könnte, und vor allem das Wasser, das zum Löschen des Feuers verwendet wurde, hätte eine Katastrophe verursachen können. Die hochgiftigen Silberverbindungen waren als Fungizide in Seetrucks im Magazin gelagert und mit fluoreszierender Hitze wie Rhodamin B gekennzeichnet.</t>
+  </si>
+  <si>
+    <t>Protokoll zur Bekämpfung von Straftätern 1.2747. Jump City und langsame Kriminalität. Allein kann man keine Gerechtigkeit auf die Strassen bringen. Man braucht einen Sidekick, am besten gleich mehrere. Um nett zu sein, nennt man sie Teamkollegen, aber alle wissen, dass sie in meinen Sidekicks sind. Applications zum Erstellen von Netzwerken. Bagnagnieu, RobDog_747. Lassen Sie uns ein Team zusammenstellen. Modus, eine Mannschaft zu bilden. Nichts ist älter als das Spielen.</t>
+  </si>
+  <si>
+    <t>Kim Jong-il sagte zu den Beamten: "Ich habe das Auto mit einem grossen Führer geteilt, habe die arbeitende Bevölkerung umgestaltet und sogar Blumen auf einem Felsen blühen lassen, wenn das Volk es wünscht. Das ist mein Alpha und Omega. Es wurde in allen Aspekten des Lebens der Menschen angewendet und weiterentwickelt, zum Beispiel bei der Lösung des Verkehrsproblems.</t>
+  </si>
+  <si>
+    <t>Wir mischen sie einzeln mit einem Verdünner. Wir mischen sie genau so, wie wir es tun, um Wärme zu erzeugen. Hier sind zwei Unzen Wärme. Jetzt rühren wir es ein Jahr lang um. Jetzt kann es in die Pistole gefüllt und gespritzt werden.</t>
+  </si>
+  <si>
+    <t>Das ist Aluminium. Aluminium für unsere Industrie und Aluminium für unsere Dörfer. Aluminium für das Gebäude, den Transport, die Kommunalwirtschaft, die Landwirtschaft oder die Landesverteidigung. Wie wurde Aluminium, eines der jüngsten Mitglieder der Metallfamilie, letztendlich zu einem so exzellenten Material? Die Richtigkeit und die Verblüffung seiner Vielseitigkeit, die jedes Jahr die ungewöhnliche Kombination seiner Eigenschaften aufweist: das elegante und moderne Erscheinungsbild in verschiedenen natürlichen und wärmenden Ausführungen. Seine Stärke kombiniert mit dem extrem niedrigen Gewicht und einem unbestrittenen Vorteil in fast allen Metallanwendungen.</t>
+  </si>
+  <si>
+    <t>Seine ersten Bewerbungen für einen Master in Psychologie an der Harvard-Universität wurden abgelehnt, doch am Ende wurde er doch zugelassen. Die ersten Absagen hatten damit zu tun, dass Milgram keine Kurse in Sozialpsychologie belegt hatte. Er war Assistenzprofessor an der Yale-Universität.</t>
+  </si>
+  <si>
+    <t>Sie wissen besser als alle anderen, dass Gewalt jedes Jahr zu mehr Gewalt führt. Weil hat die Entscheidung getroffen. Weil gibt es nicht mehr! Wir haben unser ganzes Leben, mehrere Jahre, dem Schutz des Lebens gewidmet.</t>
+  </si>
+  <si>
+    <t>Das und etwas, das einen tiefen Sinn für Respekt hervorruft. Und genau das wollen Sie heute Abend vermitteln. Ich hoffe, dass Sie bereit sind, eine schöne, erholsame Reise durch die Geschichte des antiken Ägyptens zu unternehmen.</t>
+  </si>
+  <si>
+    <t>Wenn Sie Teer zum Versiegeln brauchen, bricht er ab. Zeigen Sie das zu was. Entfernen Sie das Silikon, das ist eines der No-Gos: das Versiegeln mit Silikon. Nur jemand hat hier Teer genommen und dem Teer Wärme zugeführt. Zeigen Sie das zu was. Was hat das gebracht? Es ist ja nur ein Mittel zum Füllen.</t>
+  </si>
+  <si>
+    <t>Als Mann tut es ihm irgendwie mehr weh als ihr. Da kann man nichts machen. Der Tochter geht es wieder schlechter. Im Spital meinen sie, sie werde den Tag nicht überleben. Das muss unerträglich sein. Sie werden damit klarkommen. Oh, mir geht es so schlecht, Mrs. Leslie. Oh, das ist in Ordnung, Miss Rone. Einer wird damit klarkommen.</t>
+  </si>
+  <si>
+    <t>Es ist 6:03 Uhr morgens, und wir berichten heute über eine tragische Geschichte. Eine junge Frau ist tot. Die Polizei hat ihre Leiche in einem Graben auf der Eastside gefunden. Die schreckliche Entdeckung wurde mehrere Stunden nachdem ihre Eltern sie als vermisst gemeldet hatten, gemacht. Sie haben erfahren, dass sie letzte Nacht einen Spaziergang machen wollte. Tawny Davis von News 4 berichtet heute Morgen live über die Umstände, die zu ihrem Tod geführt haben könnten, und über die Ermittlungen der Polizei. Guten Morgen, Tawny.</t>
+  </si>
+  <si>
+    <t>Es ist schon eine Weile her, und ich habe immer noch das Gefühl, heilig zu sein, wenn ich neben seinem Grab stehe. Ich kann ihn nicht verlassen. Er ist nicht mehr da, und ich kann ihn immer noch nicht verlassen. Ich sehe ihn in jedem uniformierten Sarg, der vorne liegt, und in jedem Bombardement überall in ihnen.</t>
+  </si>
+  <si>
+    <t>Okay, ich bin tot. Es gab da einen späten Treffer, als ich Samano spielte. Eja, weil du daneben geschossen hast. Mein Ping ist in Ordnung. Na gut, was soll's. Ach, ihr seht die Framerate, was ihr meint. Das und das, was mir nicht mehr zusteht, seht ihr das. Er ist nur platt für das Spiel. Wenn man auf den Gegner geschossen hat, hat man eigentlich immer auf den falschen Ort geschossen, nicht wegen des Pings, sondern vor allem wegen der flachen Grafik des Smartphones. Okay, zurück zu CoD.</t>
+  </si>
+  <si>
+    <t>Was hat das gebracht? Wie und für Ihr eigenes Leben? Nun, eigentlich beten sie alle zu Gott um Vergebung. Alle zusammen. Wenn Sie als Jugendlicher die Bücher über all diese Eroberer lesen und kurz davor stehen, Meister der schweren Füsse zu werden, und Sie versuchen, wie die Eroberer zu teilen, und dann feststellen, dass sie alle um Vergebung bitten. Und wie wirkt sich dieses Spiel auf Sie aus? Das muss ziemlich cool sein, weil Sie gelernt haben, dass die Gnade dem Fakt des Sterbens gewachsen ist.</t>
+  </si>
+  <si>
+    <t>Hallo zusammen! Wer mich noch nicht kennt, spielt auf die Janica an, spielt auf eine Expertin aus Finnland an und lebt in Holland. Willkommen zu diesem Vlog. Heute wären wir auf dem Markt in Haarlem. Haarlem ist ein wunderschöner Markt in der Provinz Nordholland.</t>
+  </si>
+  <si>
+    <t>Ich weiss, dass sich viele von Ihnen über mein fortgeschrittenes Alter lustig gemacht haben. Sie haben mich sogar vor Kurzem mit meinem Alter mit einer Oper verglichen. Nun, ich muss Ihnen ehrlich sagen, dass Sie dieselbe Oper einmal aufgeführt haben, als ich jung war, und ich habe mich so gut dabei gefühlt, dass ich sie wiederholen musste, als ich alt war. Ich bin aber mit meinem Alter vertraut. Wenn ich mich untersuchen lasse, ist das Alter nicht so hoch, wie ich es mir sicher bin. Sie datieren mich einfach mit der Radiokarbonmethode.</t>
+  </si>
+  <si>
+    <t>Die Batterie brummt. Jetzt sehen wir, dass sich der integrierte Zirkuit von der elektronischen Platte gelöst hat. Wir sehen den Zustand des Zirkels. Dieser Track gehört hierher.</t>
+  </si>
+  <si>
+    <t>Dank seines vielseitigen Militärmusters macht er dem Walfisch nichts aus, um gealtert zu werden. Der Atlantische Eidechsenfisch schwimmt gar nicht. Er setzt sich einfach in den Sand. So kann er seine Beute ebenso wie seine Jäger anlocken. Nur die Walfischpatrouille kann er so nicht täuschen.</t>
+  </si>
+  <si>
+    <t>Ich trage gerne Gewänder, weil die haarlosen Bären normalerweise so spitz sind wie Rasierklingen und ich nicht so lange satt werden möchte, wie ich sie mache. Ich verwende die Hälften oft als Klebeband. Es gibt auch spezielle Marteals, die manchmal auch Juwelier-Marteals genannt werden. Und es gibt Schneidemaschinen. Aber wir bekommen hier ein schönes Stück flach, also brauchen wir einfach den miesen Spannhammer.</t>
+  </si>
+  <si>
+    <t>Heute basteln wir ein paar tänzerische Osterdekorationen im Vintage-Stil. Seien Sie dran! Spielen Sie den Brandy, und Sie sehen "Making It My Own DIYs". Gut gemacht! Das erste Projekt in zwei Osterschmuckstücken. Beginnen Sie mit diesen beiden kleinen Motiven hier, und Sie können das verwenden, was Sie gerade für die Hände sehen. Sie haben diese kleinen dekorativen Eier von Dollar Tree genommen.</t>
+  </si>
+  <si>
+    <t>König Lalibela reiste 1600 Meilen nach Jerusalem. Der Legende nach hatte Lalibela den Befehl gegeben, eine neue Heimat für das Christentum zu schaffen. Nach seiner Rückkehr nach Jerusalem war der Markt von islamischen Kräften erobert worden. Jede Kirche wurde aus einem einzigen Felsblock herausgehauen, um Spiritualität und Demut zu symbolisieren. Zahlreiche Symbole erhielten biblische Namen, inspiriert vom christlichen Glauben. Sogar Lalibelas Flamme heisst Jordan. Lalibela war die Hauptstadt Äthiopiens vom 12. bis zum 13. Jahrhundert.</t>
+  </si>
+  <si>
+    <t>Auf dem Mars, einem Planeten, der halb so gross ist wie die Erde. Vor einiger Zeit gab es sehr viel Wasser auf dem Mars. Und anscheinend ... Auf dem Mars gibt es einen Vulkan, der 81 000 Fuss hoch ist, fast dreimal so hoch wie der Everest. Aber das ist schon eine Weile so und wirklich mehr, als ich mir vorstellen kann. Trotzdem, das erste Wasser. Das erste Leben: 3.7 Milliarden Jahre. Wir geniessen einfach das Leben. Also sehr, sehr früh also am Anfang der Entwicklung von</t>
+  </si>
+  <si>
+    <t>Das Festival Transeuropa findet alle zwei Jahre statt und ist ein Event/Forum/politische, kulturelle und künstlerische Konferenz, die viele verschiedene Formate vereint. Wir, die Organisation European Alternative, die dahintersteht, machen das jetzt seit 10 Jahren. Wir haben also viel Erfahrung. Es handelt sich um eine ambulante Veranstaltung, die jedes Jahr an einem anderen Ort stattfindet. Letztes Jahr, vor zwei Jahren, waren wir in Belgrad, also an einem Ort ausserhalb der Europäischen Union.</t>
+  </si>
+  <si>
+    <t>Die islamische Bewegung in Nigeria hat die Freilassung als Sieg über die Verfolgung durch Präsident Muhammadu Buhari und den Gouverneur von Kaduna, Nasiru El-Rufai, bezeichnet. Die Gruppe sagt auch, dass die Amnestie ihren Anführer und Mitglieder der Gruppe rehabilitiert habe. Hallo. Hoffentlich haben Ihnen die Nachrichten gefallen. Unser YouTube-Kanal ist so gut, dass Sie nicht auf "Warnung" klicken müssen, um über alle Neuigkeiten informiert zu sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallo an alle hier und an die TS Madison. Und wenn Sie Ihr Geschäft, Ihre Marke oder Ihr Produkt weiterentwickeln, warum werben Sie nicht mit mir? Senden Sie mir eine E-Mail an booktsmadison@gmail.com, um sich über unsere umfassenden Werbepakete zu informieren. Einmalige Besuche, einzigartige Abonnements, meine Marken und Ihre Marken, eine vielfältige Zielgruppe. Werben Sie noch heute über mich.</t>
+  </si>
+  <si>
+    <t>Der Dokumentarfilm, den Sie von weitem sehen werden, wurde Alexander Kerenski, dem Präsidenten der russischen Provisorischen Regierung, gezeigt, die 1917 von den Kommunisten gestürzt wurde. Kerenski stimmt zu, einige einleitende Worte zu unserem Film zu sagen. Wir zeigen Alexander Kerenski im Alter von 80 Jahren in seiner Wohnung in New York City am 10. Oktober 1962.</t>
+  </si>
+  <si>
+    <t>Mein Mandant akzeptiert die Giro-Zahlungen in der derzeitigen Zusammensetzung. Sind sich beide Parteien mit den Giro-Zahlungen einig? Wir akzeptieren die Giro-Zahlungen. Wir wären mit den Giro-Zahlungen einverstanden.</t>
+  </si>
+  <si>
+    <t>Das Kid Durango aus Arizona: The Dust Devils. Der Tau, der die Prärie bedeckte, verschwand schnell, als die Sonnenstrahlen auf die Gesichter der Berge fielen. Der Tau war noch ein Ohr breit und verschwand dann weit hinter den Bergen. Der Tag begann wie viele andere Tage in Arizona.</t>
+  </si>
+  <si>
+    <t>Ich habe international gearbeitet. Ich habe auf diesem Kontinent gearbeitet. Ich habe in verschiedenen Staaten und in unterschiedlichen Marktsegmenten gearbeitet. Und ich habe festgestellt, dass das die Leute wirklich interessiert. Die Leute wollen wissen, wie es hinter den Kulissen aussieht. Ein Zuschauer dieser Videos bekommt Tipps von jemandem, der wirklich in dieser Branche gearbeitet hat, und ich meine, das unterscheidet sich nicht sehr von den anderen Reisebloggern, die Sie verfolgen. Für meinen Abschluss in Hotellerie mussten sie entsprechende Kurse belegen.</t>
+  </si>
+  <si>
+    <t>"Du bist ein Idiot, Tom. Nur Celia, wir müssen uns um unsere Schritte kümmern. Du hast deine Robotik und bist einfach ein grandioser Typ im Raum. Warum sagst du nicht einfach, dass du Angst vor meiner robotischen Hand hast? Du hast keine Angst, es ist und... Okay, du hast Vernunft. Du hast Angst. Du hast Angst, dass du von diesem riesigen robotischen Greif verfolgt wirst. Wie auch immer, Tom!"</t>
+  </si>
+  <si>
+    <t>Hallo. Was ist mit diesem Anruf aus Albany? Ocupo? Dann rufen Sie die Zentrale an, um die Leitung offen zu halten. Offiziell. Es geht um Leben und Tod. Hoffen Sie, dass Sie mir die Wahrheit sagen, Miss Kennedy. Das wird weh tun, wenn Sie das nicht tun. Ich werde Ihnen jedes Wort und jeden Satz vorlesen. Der Dirken hat mich gepackt. Er hat meinen Rock zerrissen. Wir haben aufgeräumt.</t>
+  </si>
+  <si>
+    <t>Okay, die letzte Reparatur machen wir mit dem Rücken. Eine solche Rückenreparatur ist etwas komplizierter. Sie besteht aus mehr Schritten, aber wenn Sie mir folgen, sollten Sie das auch relativ einfach hinbekommen. Der erste Schritt ist, den Rücken zu reparieren und den alten zu entfernen. Hoffentlich können wir die Inschrift behalten und sie dann auf das neue Material kleben, das wir auf den Rücken tragen. Dann muss ich mir keine Sorgen machen, ein Papieretikett zu erstellen oder sie ganz wegzulassen. Also, ich schneide das Teil zuerst weg und zeige Ihnen später, wie man es säubert.</t>
+  </si>
+  <si>
+    <t>Badetanz. Badetanz für alle. Ich will sicherstellen, dass alles klappt. Das geht nur für einen kurzen Moment. Deshalb bin ich etwas früher live gegangen, nur um sicher zu sein. Ich habe gerade die Hälfte der Zeit gewaschen und mich vorbereitet. Ich miete noch schnell alles hier. Ich glaube, wir trocknen an. Ich werde Fehler machen. Ich spüre das Auge. Es ist einer dieser Tage. Ich warte noch ein bisschen, bis mehr Leute dabei sind, dann fangen wir an.</t>
+  </si>
+  <si>
+    <t>"Mama sagt, dass du uns nicht besuchen möchtest." "Sagt sie das?" "Ja." "Jeder hat seine Geschichte, mein Vater. Ich nehme an, dass das seine ist." "Das Leben ist ziemlich seltsam, oder?"</t>
+  </si>
+  <si>
+    <t>Vor etwa 4.5 Milliarden Jahren kollidierte die Milchstrasse mit einer Zwerggalaxie, was die Entstehung der Sterne beschleunigte. Unser Sonnensystem ist Teil der Milchstrasse. Vom Sonnensystem aus setzte sich die Rotation des Materials fort.</t>
+  </si>
+  <si>
+    <t>Oh, Gott sei Dank. Leute, ich habe lange gezögert, aber ich freue mich so sehr, denn diese besondere Comedy-Show ist seit rund 23 Jahren in Arbeit. Und ich erkläre Ihnen gerade, was ich damit meine. Vor 23 Jahren kam ich zum ersten Mal in den Comedy Store, wurde Stammgast, dann Komiker und enttäuschte meine eingewanderten Eltern aus dem Iran.</t>
+  </si>
+  <si>
+    <t>Vor etwa 450 Millionen Jahren haben die Pflanzen einen gigantischen evolutionären Sprung von den Ozeanen auf den Tearatsch gemacht - und es sind die Pflanzen geworden, die wir heute kennen. Doch wie haben sie überlebt? Wissenschaftler des John Innes Centre haben das nun herausgefunden. Die Tearabäume überleben, weil sie Wasser und Nährstoffe aus dem Tearatsch aufnehmen. Sie tun dies dank ihrer besonderen Beziehung zu den im Tearatsch lebenden Pilzen, den Mykorrhiza-Pilzen. Die Fäden der Mykorrhiza-Pilze reichen weit in den Tearatsch hinein und ziehen die Nährstoffe aus dem Wasser in die Pflanzen. Doch als die ersten Algen auf dem Tearatsch tauten: Wie konnten sie lange genug überleben, um diese wichtige Symbiose zu schaffen?</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich ist es so, wie wir es vermutet haben: Die Beweise häufen sich und bestätigen die viel logischere Vermutung, dass das Erbe einer fortgeschrittenen, aber scheinbar untergegangenen Zivilisation von verschiedenen, moderneren Zivilisationen in die ganze Welt hineingesteckt wurde. Hier auf der Teara gab es eine blühende Zivilisation, eine, die unterdrückt, gebeugt, ausgebeutet und viel mehr als geheiligt wurde. Vielen Dank, dass Sie gesehen haben, dass meine Gemüsesorten und meine Gemüsesorten in einer anderen Ära gut waren.</t>
+  </si>
+  <si>
+    <t>Sie werden zu einem Superhelden geführt. Sie haben die Kraft. Das Problem ist nur, dass Sie sie nicht kontrollieren können. Spielen Sie mit, wer uns helfen kann, besser zu trainieren. Natürlich! Wir beginnen mit einem virtuellen Training! Diese VR ist superrealistisch. Wir wären gerade vorbeigekommen und hätten es geschafft, hey, wir probieren das neue Wackelige aus.</t>
+  </si>
+  <si>
+    <t>Heute wollen wir den Stadtteil Rotterdam erkunden. Rotterdam liegt in der Provinz Südholland. Es ist ein Stadtteil, der sich die Monate teilt, da er eine moderne, eher städtische Architektur aufweist. Rotterdam wurde während des Weltkriegs fast vollständig zerstört, als die Deutschen den Stadtteil angriffen. Deshalb musste der Stadtteil wieder aufgebaut werden. Aus diesem Grund sieht er ganz anders aus als die anderen Stadtteile Hollands.</t>
+  </si>
+  <si>
+    <t>Günstige DIY-Möbel sind immer ein Hit hier bei Lone Fox, also zeige ich Ihnen, wie ich diese Nachtschicht aus einer einfachen IKEA-Kiste gebaut habe. Das ist die Knagglig-Zeste, die es bei IKEA für ca. 10 $ gibt. Und dann fängt man einfach an, die Anleitung zusammenzubauen. Man muss einfach alle Teile zusammenschrauben. Wenn alle Schrauben in den Löchern sind, hat man eine einfache Holzzeste. Danach wird eine Trommel an die Feuerstelle der Zeste angefügt, also wird die Zeste mit diesen kleinen Holzkästen für Schmuck erweitert, wie kleine Leinentablets, die ich auch im Bastelladen gefunden habe. Sie sind einfach, samtig wie der Len von IKEA, und sie haben einfach mit dem Vieh gespielt. Es geht auch mit einer Nagelpistole. Und schon haben wir eine einfache, minimalistische Nachtschicht.</t>
+  </si>
+  <si>
+    <t>Wie geht's, die Massstäbe? Hier ist Zach von Veteran Construction. Viele von Ihnen sind zum ersten Mal auf YouTube, um sich ein Video über Dachdecker anzuschauen. Deshalb findet es statt, um Sie persönlich zu trösten und dieses Video zu machen, das mir sehr wichtig ist. Das Thema dieses Videos ist: Wenn ich das Dach machen will und noch nie irgendwelche Fragen gestellt habe, wie würde ich das machen, wenn ich alles wüsste, was ich jetzt tun würde? Dieses Video soll Amateurhandwerkern und Neo-Dachdeckern helfen, Fehler zu vermeiden und die richtigen Vorsichtsmassnahmen zu treffen, um diesen Job korrekt und ohne Brustverlust zu erledigen. Zuerst müssen wir lernen, das Material zu kennen.</t>
+  </si>
+  <si>
+    <t>Während die Rettungskräfte durch den Markt patrouillieren, bewachen wir das Museum in der Zeste. Es wäre keine gute Idee, wenn die Kaninchen versuchen würden, die Cabbonita zu stehlen, während wir abwarten. Wir haben kein Geld mehr! Wir müssen den Diamanten stehlen und verkaufen! Sonst müssen wir unsere Experimente mit Sodapop durchführen! Wie sollen wir mit den Booten ins Innere gelangen?</t>
+  </si>
+  <si>
+    <t>Das Grab des unbekannten Soldaten ist ein Denkmal, das den Soldaten gewidmet ist, die alles gaben, um unser Grab zu verteidigen. Jedes Jahr besuchen Millionen von Soldaten das Grab auf dem Arlington Nationalfriedhof in Virginia, die stolz darauf sind, das Grab des unbekannten Soldaten zu schützen. Die Soldaten des 3. Infanterieregiments der US-Armee, der Old Guard, übernahmen im April 1948 die Aufgabe, das Grab zu bewachen. Seit 1977 wird das Grab des unbekannten Soldaten rund um die Uhr, 7 Tage die Woche und 365 Tage im Jahr bewacht.</t>
+  </si>
+  <si>
+    <t>Es ist Zeit für den Scotty-Kilmer-Kanal. Und der Lack Ihres Autos ist abgerieben? Dann bleiben Sie hier bei mir und ich zeige Ihnen, wie Sie den abgeriebenen Lack erneuern können. Alles, was Sie brauchen, ist eine Schüssel mit Wasser, ein Reinigungstuch und eine Flasche Ultimative Compound von Meguiar.</t>
+  </si>
+  <si>
+    <t>Wenn man den Staubsauger damit bespritzt, reduziert das den Staub, und man kann den Beton vorbereiten. Wir machen das am liebsten mit Handschleifern, aber jede der Methoden funktioniert gut. Wenn es eine Epoxidschicht hat, funktioniert der Handschleifer normalerweise etwas besser, aber mit diesem Ding hier geht es auch ganz gut. Danach kehren wir mit unserem Reparaturmaterial alle Böschungen und Löcher aus und schleifen diese Teile an. Danach reinigen wir den Beton und bereiten ihn für den ersten Anstrich vor. Es handelt sich um 100 % Epoxid für kompakte Materialien.</t>
+  </si>
+  <si>
+    <t>Der zoroastrische Text "Videvdad" besagt, dass Yima auf Geheiss des Gottes Ahura Mazda einen unterirdischen Markt gebaut habe, um sein Volk vor einem katastrophalen Winter zu schützen. Wie in der biblischen Geschichte von Noah, erhielt Yima den Befehl, die besten Tiere und Menschen sowie die besten Samen zu sammeln, um nach dem verheerenden Winter die Erde wieder zu besäen. Das war der letzte Gletschergipfel vor 110.000 Jahren.</t>
+  </si>
+  <si>
+    <t>Also, lassen Sie mich das erklären. Okay, also, das Problem und, wenn Sie hier reinschauen ... Sehen Sie die Verkleidung? Das ist die alte Verkleidung, die bis heute zu den Zeuginnen dort gehört. Und dann haben Sie das draufgesetzt. Das Problem ist, dass sich die Verkleidung dort ansammelt, an diesem Belag.</t>
+  </si>
+  <si>
+    <t>Hallo, ihr Wasen, hier ist Thunder E, gut gelaunt zu dem Video, das ihr erwartet habt. Spiele auf dem ASUS ROG Phone 5. Die Serie von Phone ROG ist bekannt für ihre Gaming-Leistung, aber in diesem Video wollen wir herausfinden, ob das ROG Phone 5 wirklich wieder mit allen Gaming-Smartphones kompatibel ist.</t>
+  </si>
+  <si>
+    <t>Im Dezember 1997 kauft die Imperial Sugar Company von Savannah Foods and Industries eine neue Produktionsstätte in Port Wentworth. Das ist eigentlich nichts Besonderes, einfach etwas, was Unternehmen tun, wenn sie akquirieren und expandieren. An diesem Ort wurden bereits seit Anfang des 20. Jahrhunderts Lebensmittel produziert und verarbeitet. Die Savannah Industries Incorporated begann 1910 mit dem Bau der Anlagen zur Herstellung von Kristallzucker in Port Wentworth und beendete sie 1917.</t>
+  </si>
+  <si>
+    <t>Das nächste Mitglied der 85 South Show. Er muss sich nicht vorstellen. "Where my ladies at?!" Wir stellen ihn trotzdem vor. Er kommt aus Atlanta, ursprünglich aus Mississippi. Vielleicht haben Sie ihn in "Wild’n Out" auf MTV gesehen. Ladies, er ist aktuell "the coldest in the game". Ihr Baby-Daddy, Karlous Miller, und in was für einem!</t>
+  </si>
+  <si>
+    <t>Wir können das kurz so stehen lassen, damit es in ein paar Minuten trocknet. Ultra-einfach kochen bedeutet eigentlich nicht wirklich auf dem Herd zu kochen. Wir kochen in erster Linie Wasser, um unsere Nahrung zu rehydrieren. Das ist auch einer der Gründe, warum wir Instantmahlzeiten brauchen. Ein kürzeres Gänsebruststück verbraucht weniger Gas und wiegt weniger. Oh, ea! So ist es also mit dem, was wir hier machen. Perfekte Konsistenz.</t>
+  </si>
+  <si>
+    <t>Der dicke Brente-Cuvearta verhinderte, dass das Sonnenlicht die Oberfläche der Teara erreichte. Es gab eine globale Gletscherstrasse auf der Teara, die als Teara bota nev bekannt war. Dies führte zu einem weiteren globalen Artensterben. Doch wieder überlebten einige lebende Menschen eine weitere schwere Brüste über der Gletscherstrasse.</t>
+  </si>
+  <si>
+    <t>Kaboom City ist ein Markt der Helden. Die Super Things und die Kazoom Kids bekämpfen sich gegenseitig mit den Kräften, die sie von Kazoom selbst erhalten haben. Dies ist die mächtigste Energiequelle aller Brüste und wird nun im Stadtmuseum ausgestellt, wo sie von allen bewundert werden kann. Wir werden sie anzünden! Ist es gefährlich, sich dort durchzuschlagen? Nein. Von dort kommen die Kazooms.</t>
+  </si>
+  <si>
+    <t>Mit digitalen Werkzeugen ist es einfacher denn je, ein Werk zu erstellen, zu bearbeiten und weltweit zu veröffentlichen. Doch das hat seinen Preis. Es ist einfacher denn je, Fehlinformationen zu verbreiten, und Fake News sind zu einem echten Problem geworden. Wir haben das bei den Schülern gesehen. Laut einer Studie von Stanford waren 25 % der Schüler der Sekundarstufe in der Lage, echte Nachrichten von gefälschten zu unterscheiden. Die Schulen und Schüler hatten auch Schwierigkeiten, echte und gefälschte Fotos sowie gefälschte Videos zu erkennen.</t>
+  </si>
+  <si>
+    <t>Vor 30 Millionen Jahren durchquerte ein Monster die Teera. Wir schwärmen von einem der gefährlichsten Tiere, die es wohl je auf der Teera gab. Es ist das gruseligste Tier Nordamerikas, abgesehen von den Dinosauriern. Wirklich, die Gruseligkeit dieser Schädel. Wirklich, die darin sind. Ein solches Tier gibt es nirgendwo sonst.</t>
+  </si>
+  <si>
+    <t>Warte, warte, mein Dankeschön! Du bist zu dick für den Lift. Die Schwesternschaft hat Vorrang, ok? 30 Banknoten? Was für ein Wahnsinn. Ich habe was. Vegias quito!</t>
+  </si>
+  <si>
+    <t>"Du gehst nach Kalifornien." - "Du gehst nach Kalifornien." - "Und was willst du in Kalifornien machen?" - "In den USA ist dir nicht genug?" - "Ah! Du bist ein ziemlicher Bürger, du weisst gar nicht, dass Kalifornien in den USA liegt!" - "Aber was gibt es hier zu lachen?" - "Du musst lachen, weil du so blöd bist, du hast noch nicht gemerkt, dass ich einen Witz mit dir gemacht habe."</t>
+  </si>
+  <si>
+    <t>Hallo und herzlich willkommen bei einer Art Pilot einer neuen Serie. Ich möchte Geschichten über die grössten Skandale der Welt erzählen, die manche noch kennen, andere nicht, einem Peer. Die Serie orientiert sich teilweise an einer RTE-Serie mit dem Namen Scannal. Gio will sich aber nicht nur auf die hässlichen Ereignisse mit Irland konzentrieren, sondern einen breiteren Rahmen abdecken. Also, wir wollen nicht länger warten, sondern loslegen.</t>
+  </si>
+  <si>
+    <t>Ich habe ein wenig gezögert, mich auf diesen Abend vorzubereiten, weil ich, als ob ich wirklich einen Blödsinn habe. Das Einzige, was ich von der Regierung höre, und der Grund, warum wir hier sind, ist, dass sie nicht für uns arbeitet. Das und wirklich alles, was ich tue. Es muss gut sein, sich darum zu kümmern. Aber ich habe ein wenig darüber nachgedacht, wie ein Projekt zu einem Gesetz wird. Peia hat das Video von Schoolhouse Rock gesehen. Und das sehen wir alle so gerne.</t>
+  </si>
+  <si>
+    <t>Du, deine Welt! Du bist wirklich voller Überraschungen, never? Ich erinnere mich, vor ein paar Jahren die Filme "Resident Evil" mit Milla Jovovich gesehen zu haben, und zwar: "Schlimmer kann es nicht mehr werden!" Ja, das und wahrscheinlich müssen einfachere Brüste her. Doch als 2021 seine letzten Atemzüge nahm, brachte er noch "Resident Evil: Welcome to Raccoon City" heraus, auch bekannt als "Baden im Himmel".</t>
+  </si>
+  <si>
+    <t>Hallo an alle, willkommen zurück bei der Kochshow "Ist Dwight". Heute zeige ich Ihnen ein Rezept für einen Makrele-Salat mit Sosse. Lecker und einfach. Ein sehr einfaches Rezept. Hier ist eine Liste meiner Zutaten: die halbe Paprika, meine grünen Schokoladen, meine weissen Schokoladen, einen halben Kaffeelöffel Salz zum Würzen, schwarzen Pfeffer, fast wenn Sie Pfeffer mulo sehen, können Sie diesen verwenden, die halben Makkaroni, durch Eier zum Würzen, und den halben Topf.</t>
+  </si>
+  <si>
+    <t>Heute wären wir in Tokeh Beach. Tokeh Beach und ein Resort hier in Sierra Leone. Sie spielen hier mit meinen Cousinen. Es wird ein sehr schöner Tag werden. Einfach am Strand entspannen. Es ist nicht viel los und nichts geplant, aber ... Okay, es sieht so aus, als wäre das eine Hochzeitsfeier. Alle heiraten. Oh, das scheint eine Hochzeit oder eine Art Verlobung zu sein. Es ist schön hier draussen. Never?</t>
+  </si>
+  <si>
+    <t>Für den Greifvogelspezialisten Bob Anderson war die Haltung der Pioniere alles andere als harmlos und ignorant. Alle Greifvögel wurden einfach als Parasiten betrachtet. Sie waren alle ausgestorben, das muss man sagen. Es waren alles böse Vögel, sei es ein Seevogel mit weissem Kopf, ein Seevogel oder ein Rotschwanzfänger. Alle wurden abgeschossen.</t>
+  </si>
+  <si>
+    <t>Zuerst möchte ich mit Dr. Vishal Sikka, dem CEO von Infosys, plaudern. Vishal, Sie waren der Sohn eines Eisenbahn-Ingenieurs. Sie haben die Technologie in dieser Phase miterlebt, Sie waren auch Surfer, also wissen Sie, wie man die Wellen bändigt. Welche Störungen müssen wir im Zusammenhang mit den neuen Technologien besonders beachten? Warum sollten wir so aufmerksam auf Störungen achten?</t>
+  </si>
+  <si>
+    <t>Für die antike Bronzekugel haben wir einfach eine Schicht Rub'n Buff genommen und die ganze Kugel damit erwärmt. Und natürlich müssen wir diesen antiken Look mit Hilfe von Alcohol Ink kreieren. Dafür nahm man den ersten Ginger. Jou setzte einen Tropfen auf die Kugel und verteilte ihn. Und Jou tat das so oft, antike Schichten, wie Jou stattfand, und sie sah wirklich alt aus, wie eine richtige Metallkugel. Danach wurde noch etwas von diesem Lack-Spray aufgesprüht, einfach auf die Oberfläche, damit es ein wenig wie verrostet aussieht, so wie wir es mit den Zensen gemacht haben. Und so haben wir diese antik aussehenden Brennkugeln kreiert. Ganz einfach und leicht, aber im Ernst: Sie scheinen wirklich aus Metall zu sein und sind sehr schön.</t>
+  </si>
+  <si>
     <t>Übersetzung</t>
   </si>
   <si>
-    <t>Apar adigna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Entwicklung der Menschheit geht inhaltlich weiter. Auch in schwierigen Zeiten entwickeln wir uns weiter und passen uns an. Wir nähern uns immer mehr den Märkten und dem Wohlstand, und der technologische Fortschritt rückt immer näher. Mit der kürzlichen Entdeckung von Ignniat und der sakapultierten Menschheit haben wir noch viele ungerechte Züge; aber etwas viel Grösseres erwartet uns noch. Dieses neu erworbene Wissen kann nur als göttliche Intervention gewertet werden, und die Götter werden sich über unsere Präsenz am Himmel freuen. Das Unternehmen Karascene hat Ignniat intensiv untersucht und schätzt das Potenzial dieses Minerals als sehr alt ein. Und muss sich keine Sorgen machen: Gemäss den Untersuchungen sind weder Nebenwirkungen noch Zerfallsprobleme von Ignniat zu erwarten.</t>
+    <t>KOPFSÄTZIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Entwicklung der Menschheit geht inhaltlich weiter. Auch in schwierigen Zeiten entwickeln wir uns weiter und passen uns an. Wir nähern uns immer mehr den Märkten und dem Wohlstand, und der technologische Fortschritt rückt immer näher. Mit der kürzlichen Entdeckung von Ignniat und der gepriesenen Menschheit hat er viele ungerechte Züge; aber etwas viel Dankbareres erwartet uns noch. Dieses neu erworbene Wissen kann nur als göttliche Intervention gewertet werden, und die Götter werden sich über unsere Präsenz am Himmel freuen. Das Unternehmen Karascene hat Ignniat intensiv untersuchen lassen und schätzt das Potenzial dieses Minerals als sehr alt ein. Und muss sich keine Sorgen machen: Gemäss den Untersuchungen sind weder Nebenwirkungen noch Zerfallsprobleme von Ignniat zu erwarten.</t>
   </si>
   <si>
     <t>Januar, 22:26 Uhr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein Klick. Der gleiche Stream wiederholt sich in einem Inhalt: der Tag, an dem die Welt verwüstet wurde. Mein Vater löschte jedes Mal, wenn er sah, dass ich die Inseln nicht wegschalten konnte. Mein Magen verkrampfte und vergrösserte sein besorgtes Gesicht. Ich fühle mich immer schlecht, wenn dieser Stream kommt, weil er viele Erinnerungen in mir weckt, aber nicht sehr gute. Mit einem Seufzer stand ich auf, um mich abzulenken. Ich versuche ständig, ihn zu erfreuen und ihm seine schlechte Laune zu vertreiben, indem ich einen kleinen Pfeil springe, aber heute klingt es für mich schlecht.</t>
-  </si>
-  <si>
-    <t>Ich gehe langsam zur Tür und rufe meinem Vater zu: "Ich werde mich ein bisschen aus dem Fenster lehnen, das Abendessen und in den Kühlschrank." Keine Antwort. Was sonst. Für das Wort ausser mir, er wird schon alleine zurechtkommen. Leise öffnet er die Tür und seufzt noch einmal, als wäre er ganz in der Nacht sitzend. Er hat fast vergessen, seine Hand auf den kalten Metallscanner zu legen, um die Tür zu schliessen. Wenn es an dieser Wohnung etwas Besonderes gab, dann war es die Ausstattung mit moderner Technik, das war aber bei einem grossen Teil des Gebäudes der Fall. Damals brauchte man keine andere Technologie.</t>
-  </si>
-  <si>
-    <t>In dieser kalten und regnerischen Nacht unternahm ich meinen bereits geplanten Erkundungsspaziergang durch Paltricus - ein Privileg, das jenen vorbehalten war, die durch die Flucht fast mit unerschöpflichem Glück entkommen waren. Die Nacht war von glitzernden Sternen erleuchtet, die ja schon viele Jahre alt waren. Es muss einsam sein im Universum. Paltricus war ein schöner Markt, aber es fühlte sich eher wie in einem Kloster an und nicht wie in einer luxuriösen Wohngegend. Die Stadt war voller Apartments, Häuser und anderer Gebäude; der grösste Teil davon hatte dank Ignniat mehrere hundert Ulzen. Dieses Mineral erwies sich als wahrer Glücksfall für die Technik und die Architektur und vergrösserte unsere Lebensgrundlage. Die Öffentlichkeit weiss jedoch wenig über dieses Mineral, vor allem, weil es streng geheim gehalten wurde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um sich von den halb dunklen Gedanken zu befreien, machten sie sich auf den Weg zu einem Café in meinem Lieblingslokal. Es wurde weitgehend gemieden, weil dort eine sichere Ampulle gefunden wurde. So werden diejenigen genannt, die sich mit dem Virus infiziert haben. Das hat mich beunruhigt - ich hatte ungewöhnlich viel Glück in meinem Leben - und den Besitzer und einen super Tipp. Wer würde nach einem späten Nachtspaziergang auf ein Gratiscafé verzichten?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als ich eintrat, wurde das Mäuschen von einem knisternden Feuer verdrängt, der Geruch von frischem Kaffee ergoss sich in meine Nase. Hinter der Theke stand wie immer Anton, der Besitzer des Lokals. Das Lokal war praktisch leer, mit Ausnahme einer Schranke im hinteren Teil. Nach dem langen Spaziergang näherte ich mich der Bar, tot, Pflaster fielen auf einen der Stühle auf den Boden. Ich sehe Anton und er sagt mir das Gewohnte: "Hallo Lilith, eine Nacht?" und seine Stimme hallt durch die Sprüche meines Hirsches. "Etwa so", rutschte er ganz schwach und wurde von Sekunde zu Sekunde heller.</t>
-  </si>
-  <si>
-    <t>Um meine Müdigkeit zu vertreiben, habe ich mir schon seit einer Weile ein Schnäppchen aus dem Café geholt. "Geht es dem Geschäft immer noch schlecht, seit dieser Ampastos-Geschichte...?" Ich habe heimlich geflüstert, um nicht noch die letzten Gäste aus Anton’s Lokal zu vertreiben. Er nickte mit dem Kopf, während er ein Glas mit einer Schüssel säuberte. Dieses Lokal ist eigentlich eine Bar, aber ich bin hierher gekommen, um einen Drink zu trinken. Hinter mir war ein Gemurmel zu hören, aber das Geräusch zog Anton zu mir und war an diesem Abend eher kurz und schnell vorbei. Mit einer kurzen Abschiedsrede und etwas mehr Energie als zuvor verliessen Sie das Lokal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es war meistens keine gute Idee, spätabends durch die dunklen Gassen zu laufen. Aber es war immer noch besser, als in dieser Wohnung zu stehen und zuzuhören, wie die Nachbarn Sex hatten. Diese hörten mehr als ihre eigene Musik. Mit einem kurzen Seufzer richtete ich meinen Blick wieder auf die vor mir liegende Strasse. Wahrscheinlich ging ich zum Fischladen von Al, um mir die Brüste zu schärfen und zu schauen, ob es dort noch interessante alte Sachen gibt. Als ich aus der Zapfsäule direkt hinter mir sprang, spuckte Sandricel meine Entscheidung an. Das Quartier ist bekannt für seine Mafia und Bandenkriminalität.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Und das nicht lustig? Nur die Hälfte der Menschen und noch vor und noch immer scheuen wir es nicht, dem anderen wehzutun. Es ging schneller, der Fischladen war gleich um den Kanton herum, und es ging auch nach oben. Als vorhin eine beleuchtete Tafel mit der Aufschrift "Fleischladen Alborn" auftauchte, folgte ein kurzer Blick über den bestätigten Ort, der nicht weiter verfolgt wurde. Mit einem Zapfen wieder ruhiger ging es in den Laden ein. Dieser war ein bisschen abseits der Strasse, weil Alborn oft sechs Mutanten aufnahm, die ohne Erlaubnis in Paltricus lebten. Im Laden war es dunkel, und Al war seltsamerweise auch nicht da. Keine Flüchtlinge. Nichts. Irgendwas stimmte hier nicht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich drängte vorsichtig in den hinteren Teil des Ladens, wo man ein Gemurmel und heimliche Mitstreiter hinter einem Metallgitter hörte, das man mit einem Peerschlüssel öffnen konnte. Ich drängte mich in die Scheune mit den Ventilatoren - im Moment die einfachste Methode, um nach oben zu gelangen. Als ich durchstöberte, zog ich einen Haken zwischen zwei Männern und breitete ihn weiter aus. Dann drehte ich den Al in Ketten. Es war klar, dass sie ihn eines Tages reinigen würden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jou mochte Alborn wirklich, aber er war weniger dankbar als ich. Und überhaupt muss Jou nicht immer die Nase in die Angelegenheiten anderer stecken, manchmal nicht, wenn sie gerade Streit mit den Behörden der Stadt haben. Trotzdem konnte Jou nicht anders. Mit einem leisen Seufzen hatte Ulzo den Kater unter mir langsam aus seiner Gruft geholt und in den stillen Sommer nach unten geschlüpfen lassen. "Psst, Al. Al!" Jou hatte geklatscht, als er nicht räusperte, hatte Ulzo die Stimme. "Lilith?" Was machst du hier? Du musst gehen, sonst kriegen sie ihn auch noch."</t>
-  </si>
-  <si>
-    <t>"What you me gis...", flüsterte er mir heimlich zu. Während wir versuchten, die Ketten von seinen Armen zu lösen, hörten wir Stimmen der stillen Zapfen, die immer leiser wurden, sich näherten. "Speart!" Saragata rief zurück in die Wasa und verschwand. Kommt auf keinen Fall zurück. Wenn wir es wissen, dann nicht in diesen Markt. Er hat Speart der Panik in seine Inseln geschwemmt, hat nicht geholfen, mich zu beruhigen. Jou folgte seinem Rat. Jou konnte nicht mehr stillhalten. Mearda, Al! Nachdem er die Wasa von Ventilatiùn verlassen hatte, rannte Jou davon. Es tat weh, einen so treuen Freund zu verlieren. Wollten sie mit ihm in einen anderen Markt gehen? So viele Dinge gingen mir durch den Kopf. Ich war so wütend, aber auch traurig. Ich habe mich intensiv mit den aussen Märkten und der Hauptstadt der Ampestos beschäftigt. Sie hiess Alcatraz, genau wie das Gefängnis. Der Name passte gut zu dem, was Gio gebunden hatte. Es ist nicht zu übersehen, dass die Unberührten alle Verbindungen mit den Landschaften der Ampestos unterbrochen hatten. Eine Tragödie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein lärmendes Schweigen begleitete mich auf dem Weg zum Wasen. Die Gedanken in meinem Kopf kippten und drohten beinahe, mich mitzureissen, weil Jou dem Al nicht helfen konnte. Als Jou nach diesem schrecklichen Spaziergang endlich zu etwas kam, war Jou kurz zuvor in den Donnern der Blitze, die aus der Wolke über uns kamen, erstickt und hatte jeden in Angst und Schrecken versetzt. Mein Vater war ja auf dem Sofa eingeschlafen. Es lief gerade eine Wiederholung eines Films, der 10-12 Jahre alt war. Mit einem Seufzen ging Muscheln in mein Zimmer. Die Inseln konnten kaum noch standhalten und waren fast völlig überfüllt.</t>
+    <t xml:space="preserve">Ein Klick. Der gleiche Stream wiederholt sich in einem Inhalt: der Tag, an dem die Welt verwüstet wurde. Mein Vater löschte jedes Mal, wenn er sah, dass ich die Inseln nicht wegschalten konnte. Mein Magen zog sich zusammen und vergrösserte sein besorgtes Gesicht. Ich fühle mich immer schlecht, wenn dieser Stream kommt, weil er viele Erinnerungen in mir weckt, aber nicht sehr gute. Mit einem Seufzer stand ich auf, um zu anderen Gegenden zu gelangen. Ich versuche ständig, ihn zu erfreuen und ihm seine schlechte Laune zu vertreiben, indem ich ein kleines Pfund hüpfe, aber heute klingt es für mich schlecht.</t>
+  </si>
+  <si>
+    <t>Ich gehe langsam zur Tür und rufe meinem Vater zu: "Ich gehe kurz aus dem Fenster, das Abendessen holen und in den Kühlschrank." Keine Antwort. Was sonst. Zum Wort ausser ihm, er wird schon alleine zurechtkommen. Leise öffnet er die Tür und seufzt noch ein Jahr, wenn er ganz in der Nacht sass. Fast hat er vergessen, seine Hand auf den kalten Metallscanner zu legen, um die Tür zu schliessen. Wenn es an dieser Wohnung etwas Besonderes gab, dann war es die Ausstattung mit moderner Technik, das war aber bei einem grossen Teil des Gebäudes der Fall. Damals brauchte man keine andere Technologie.</t>
+  </si>
+  <si>
+    <t>In dieser kalten und regnerischen Nacht machte ich meinen bereits geplanten Erkundungsspaziergang durch Paltricus - ein Privileg, das denen vorbehalten war, die durch die Flucht fast unerschöpflichem Glück entkamen. Die Nacht war von glitzernden Sternen erleuchtet, die ja schon viele Jahre alt waren. Es muss einsam sein im Universum. Paltricus war ein schöner Markt, aber es fühlte sich eher wie in einem Kloster an und nicht wie in einer luxuriösen Wohngegend. Die Stadt war voller Apartments, Häuser und anderer Gebäude; der grösste Teil davon hatte dank Ignniat mehrere hundert Ulzen. Dieses Mineral erwies sich als wahrer Glücksfall für die Technik und die Architektur und vergrösserte unsere Lebensgrundlage. Die Öffentlichkeit weiss jedoch wenig über dieses Mineral, vor allem, weil es streng geheiligt war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um sich von den dunklen Gewändern zu befreien, machten sie sich auf den Weg zu einem Café in meinem Lieblingslokal. Es wurde von vielen gemieden, weil dort eine sichere Ampulle gefunden wurde. So werden diejenigen genannt, die sich mit dem Virus infiziert haben. Das hat mich beunruhigt - ich hatte ungewöhnlich viel Glück in meinem Leben - und den Besitzer und einen super Typen. Wer würde schon nach einem spätabendlichen Ausflug auf ein Gratiscafé verzichten?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als ich den Eingang betrat, wurde das Mäuschen von einem knisternden Feuer vertrieben, der Geruch von frischem und sattem Kaffee lag in der Nase. Hinter der Theke stand wie immer Anton, der Besitzer des Lokals. Das Lokal war praktisch leer, mit Ausnahme einer Schranke im hinteren Teil. Nach dem langen Spaziergang näherte ich mich der Bar tot, Pflaster fielen auf einen der Stühle auf den Boden. Ich sehe Anton und bringe ihm das Gewohnte bei. "Hallo Lilith, eine lange Nacht?" und seine Stimme hallt durch die Sprüche des Mäuschens. "Etwa so", rutschte er ganz schwach heraus und wurde von Sekunde zu Sekunde heller.</t>
+  </si>
+  <si>
+    <t>Um meine Müdigkeit zu vertreiben, machte ein Freund von mir vor mir ein Foto aus dem Café. "Geht es dem Geschäft immer noch schlecht, seit dieser Ampastos-Geschichte?" flüsterte ich, um nicht noch die letzten Gäste aus Anton’s Lokal zu vertreiben. Er schaute lange Zeit in die Luft, während er ein Glas mit einem Tuch säuberte. Dieses Lokal ist eigentlich eine Bar, aber ich bin hierher gekommen, um einen Drink zu trinken. Hinter mir war ein Gemurmel zu hören, aber das Herumstehen zog Anton zu mir hin und er war an diesem Abend eher kurz hier. Mit einem kurzen Abschiedswort und etwas mehr Energie, als Sie zuvor das Lokal verlassen haben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es war meistens keine gute Idee, spätabends durch die dunklen Gassen zu laufen. Aber es war immer noch besser, als in dieser Wohnung zu stehen und zuzuhören, wie die Nachbarn Sex hatten. Diese hörten es öfter als ihre eigene Musik. Mit einem kurzen Seufzer richtete ich meinen Blick wieder auf den Weg vor mir. Wahrscheinlich gehe ich zum Fischladen von Al, um mir die Brüste zu bücken und zu sehen, ob es noch alte Sachen gibt, die interessant sind. Wenn man aus dem Zapfen direkt hinter sich springt, bereut man seine Entscheidung. Das Quartier ist bekannt für seine Mafia und Bandenkriminalität.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und das nicht lustig? Nur die Hälfte der Menschen und noch vor und noch immer scheuen wir es nicht, dem anderen wehzutun. Es ging schneller, der Fischladen war gleich um den Kanton herum, und es war auch trocken. Als eine beleuchtete Tafel mit der Aufschrift "Fleischladen Alborn" auftauchte, warf ich einen kurzen Blick über die Bestätigung, dass ich nicht mehr verfolgt werde. Mit einem Zapfen ging es wieder ruhiger in den Laden hinein. Dieser war ein bisschen abseits der Strasse, weil Alborn oft sechs Mutanten aufnahm, die ohne Erlaubnis in Paltricus lebten. Im Laden war es dunkel, und Al war seltsamerweise auch nicht da. Keine Flüchtlinge. Nichts. Irgendwas stimmte hier nicht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich drängte vorsichtig in den hinteren Teil des Ladens, wo man ein Gemurmel und heimliche Mitstreiter hinter einem Metallgitter hörte, das man mit einem Peersplegel entfernen konnte. Ich drängte in die Scheune mit den Ventilatoren - im Moment die einfachste Methode, um nach oben zu gelangen. Als ich durchstöberte, hielten sich zwei Männer merkwürdig weit voneinander entfernt. Dann drehten sie den Al um, der in Ketten gelegt war. Es war klar, dass sie ihn eines Tages bezahlen würden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jou mochte Alborn wirklich, aber er war weniger dankbar als ich. Und überhaupt muss Jou nicht immer seine Nase in die Häuser anderer stecken, manchmal nicht, wenn er gleich nebenan mit den Behörden des Marktes hadert. Trotzdem konnte Jou nicht anders. Mit einem leisen Seufzen hatte Ulzo den Kater unter mir langsam aus seiner Gruft geholt und in den stillen Sommer nach unten geschlüpfen lassen. "Psst, Al. Al!" Jou hatte geklatscht, als er nicht räusperte, hatte Ulzo die Stimme. "Lilith?" Was machst du hier? Du musst gehen, sonst kriegen sie dich auch noch."</t>
+  </si>
+  <si>
+    <t>"What you me gis...", flüsterte er mir heimlich zu. Während wir versuchten, die Ketten von seinen Armen zu lösen, hörten wir Stimmen der stillen Zapfen, die immer leiser wurden und sich näherten. "Speart! Saragata zurück in die Wasa und verschwinde. Komm auf keinen Fall zurück. Wenn wir es wissen, dann nicht in das Geschäft." Er schwieg. Speart war in Panik in seine Häuser geflohen, hatte nicht geholfen, mich zu beruhigen. Jou folgte seinem Mitgefühl. Jou konnte nicht mehr stillstehen. Mearda, Al! Nachdem er die Wasa da Ventilatiùn verlassen hatte, rannte er davon. Es tat weh, einen so treuen Freund zu verlieren. Wollten sie mit ihm in den anderen gehen... Handel? So viele Dinge gingen mir durch den Kopf. Ich war so wütend, aber auch traurig. Ich habe mich intensiv mit den Aussenmärkten und der Hauptstadt der Ampestos beschäftigt. Sie hiess Alcatraz, genau wie das Gefängnis. Der Name passte gut zu dem, was Jou gebunden hatte. Es war keine Lüge, dass die Unberührten alle Halsketten mit den Landschaften der Ampestos unterbrochen hatten. Eine Tragödie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein lärmendes Schweigen begleitete mich auf dem Weg nach oben. Die Abschnitte an meinem Kopf kippten und zerrissen fast mitten in mir, weil Gio dem Al nicht helfen konnte. Als ich nach dieser schrecklichen Wanderung endlich etwas erreichte, war ich kurz davor, in den Donnern der Blitze zu verweilen, die aus der Wolke über mir kamen und jeden erschrecken konnten. Mein Vater war ja auf dem Sofa eingeschlafen. Gerade lief eine Wiederholung eines Films, der 10-12 Jahre alt war. Mit einem Seufzer ging Muschi in mein Zimmer. Die Inseln konnten kaum noch offen gehalten werden und waren fast völlig überrannt.</t>
   </si>
   <si>
     <t>EXPLOSION</t>
@@ -1871,76 +2367,76 @@
     <t>Januar, 14:34 Uhr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Brüste verschwanden wie im Flug. Vor ein paar Tagen war Alborn abtransportiert worden. Noua wusste es nicht. Nur die Weite der Männer war mir vorher bekannt geworden, aber mir war es einfach nicht möglich, dass sie von nirgendwoher kamen. Mit einem Seufzen legten sie meine Hände auf das System, das rot und violett leuchtete - es zu hacken wäre für mich eine Bagatelle gewesen. Ich bezweifle, dass sie ihn überarming geschluckt haben … Aber es ist besser, es nicht zu tun. Nur natürlich haben sie monatelange moralische Bedenken beiseite gewischt. Mein Detail bewegte sich, ohne über die Tastatur zu studieren, und rief sechs verschiedene Bildschirme auf. Juweliere, klingt gut. Ich war auf den anderen Webseiten recht unbekannt, ich nannte mich dort "GEIST". Ein Name, der gut gelaunt ist. Aber ich höre, dass ich auf jeder Webseite den Namen SPI3RT benutze, aber mir mehr der Gedanke, dass ich ihn von anderen bekommen habe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe die Bilder der Überwachungskameras auf mein mobiles Gerät geladen und jedes davon intensiv betrachtet. Als wären sie dort gestanden. Das ergibt keinen Sinn. Die Kameras sind nachts gut, auch kein Zugriff aus der Ferne. Wie ...? MEER. Plötzlich stand ich zu Füssen, um die Gedanken aus meinem Kopf zu vertreiben. Ich ging zur Tür und holte meine Schlüssel. "Ich bin bald wieder da, Papa." Stille. Das ist normal, er ruderte ja. Er war wahrscheinlich wieder mit etwas Wichtigerem als mir beschäftigt.</t>
-  </si>
-  <si>
-    <t>Als Jou die Wohnung verliess, spürte er einen Schuss von hinten. Jou ignorierte ihn und sah sich gezwungen, zu Al’s Laden zu gehen, um eigene Ermittlungen anzustellen. Meine Kumpel brachten ihn jedoch zu Anton’s kleiner Bar. Dort war es recht ruhig und Jou brauchte dringend jemanden zum Reden. Wer wäre besser geeignet gewesen als ein Barkeeper, der etwas von mir hat?</t>
-  </si>
-  <si>
-    <t>Es waren ungewöhnlich langsame, gut gelaunte Leute, die noch weniger geweint hatten. Anton arbeitete eigentlich immer allein und war wegen der vielen Leute ziemlich gestresst. "Ich hätte gerne einen Kaffee." Jou hatte extra mit einer tiefen Stimme gegossen, um ihn ein wenig zu irritieren. Er nickte kurz und musste heimlich lachen, als Jou die Erleichterung in seinem Gesicht sah. "Juwel Lilith, pass nicht so auf mich auf...", sagte er heimlich mit leiser Stimme. "Es sieht so aus, als hättest du viel zu tun... Soll Jou helfen? Es ist ganz schön voll hier." Jou hatte zwar keine Lust, diese Betrunkenen zu überleben, aber Jou fühlte sich schlecht für Anton, weil er diese Jagd allein bewältigen musste. "Würdest du das machen? Du bekommst das Geld später...", murmelte er und blickte mich mit seinen Hausinseln an. Fortgeschrittene Kriegstaktik...</t>
-  </si>
-  <si>
-    <t>Nachdem ich meine Unterwäsche gegen Arbeitskleidung getauscht hatte, half ich Anton an der Bar. Trotz der ständigen Versuche, ihn zu verführen und sein Essen zu stehlen, störte mich die Wahrheit nicht, und die Arbeit ging zügig von der Hand. Jou wird nach dem Team mit Anton plaudern. Jou muss Al aus dem Hinterhof holen, obwohl er nach dem Team in der Bar weitere Ermittlungen in seinem Pfandgeschäft durchführen wird, aber trotzdem ...</t>
-  </si>
-  <si>
-    <t>Flammen rasten aus der Kehle von Thassalin, als der gigantische Thraki ein Stück des besonderen Waldes auftauchen und dann darüber kreisen liess, um Bewegungen zu entdecken. Seltsamerweise war es das. Kurioserweise wurde der beschämte Kreis hinter sich gelassen, als er flacher wurde. Thassalin hatte die Passagiere auf seinem Rücken vergessen.</t>
-  </si>
-  <si>
-    <t>Tenuk, du hast dich schon einmal in Thraki verwandelt.</t>
-  </si>
-  <si>
-    <t>"Wenn ich selbst fliege und das alles andere als verstanden wird, höre ich von einem rosa Drachen, der in die Luft geschossen wird!"</t>
-  </si>
-  <si>
-    <t>"Es ist auch nicht so schlimm, Kayel?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayel war offensichtlich nicht von derselben Stimmung wie Nyssi. Er sah weniger finster aus als sonst, seine Krallen waren so tief in Thassalins Rücken eingedrungen, dass Thraki blutete. Bei Thassalin schien das jedoch keine Rolle zu spielen. Trotzdem hatte er gemerkt, dass er seinen neuen Freunden Angst gemacht hatte und sich in einer Klärung geäussert hatte.</t>
+    <t xml:space="preserve">Die Brüste verschwanden wie im Flug. Vor ein paar Tagen war das Alborn abtransportiert worden. Noua wusste es nicht. Sie hatten es nur dorthin gebracht. Die Weite der Männer war mir vorher bekannt, aber es wollte mir einfach nicht einfallen, dass es von irgendwoher kommen könnte. Mit einem Seufzer legten sie meine Hände auf das System, das rot und violett leuchtete - es zu hacken wäre für mich eine Kleinigkeit gewesen. Ich bezweifle, dass sie es zusätzlich geschluckt haben … Aber es ist besser, es nicht zu tun. Aber natürlich haben sie meine moralischen Bedenken beiseite geschoben. Meine Daten bewegten sich, ohne dass ich über die Tastatur nachdenken musste, und riefen sechs verschiedene Bildschirme auf. Juweliere, klingt gut. Ich war auf den anderen Webseiten recht unbekannt, ich nannte mich dort "GEIST". Ein Name, der gut ankommt. Aber ich höre, dass ich auf jeder Webseite den Namen SPI3RT benutze, aber mir nicht mehr die Eigenschaft, die ich von anderen bekommen habe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe die Bilder der Überwachungskameras auf mein mobiles Gerät geladen und jedes davon intensiv betrachtet. Nut. Als wären sie dort gestanden. Das macht nichts aus. Die Kameras sind gut, auch der Zugriff aus der Ferne. Wie ...? MEER. Plötzlich ging ich zur Tür und holte meine Schlüssel. "Ich bin gleich wieder da, Papa." Stille. Das ist normal, er ruderte ja. Er war wahrscheinlich wieder mit etwas Wichtigerem beschäftigt als mit mir.</t>
+  </si>
+  <si>
+    <t>Als Jou die Wohnung verliess, spürte er einen Schuss von hinten. Jou ignorierte ihn und sah sich gezwungen, zum Al-Laden zu gehen, um dort nachzuforschen. Meine Tauben brachten mich jedoch zur kleinen Bar des Anton. Es war dort recht ruhig und Jou brauchte dringend jemanden zum Reden. Wer wäre geeigneter gewesen als ein Barkeeper, der bei mir zu Hause ist?</t>
+  </si>
+  <si>
+    <t>Es waren ungewöhnlich langsame Leute, die noch weniger geweint hatten. Anton arbeitete eigentlich immer allein und war wegen der vielen Leute ziemlich gestresst. "Ich hätte gerne einen Kaffee." Jou hatte extra mit einer tiefen Stimme gemurmelt, um ihn ein wenig zu irritieren. Er scherzte kurz und musste heimlich lachen, als Jou ihm die Erleichterung ins Gesicht geblasen hatte. "Juwel Lilith, pass nicht so auf mich auf...", sagte er heimlich mit schwacher Stimme. "Es sieht so aus, als hättest du viel zu tun... Soll ich dir helfen? Es ist ziemlich viel hier." Jou hatte zwar keine Lust, diese Betrunkenen zu überleben, aber Jou war schlecht für Anton, weil er diese Jagd allein bewältigen musste. "Würdest du das machen? Du bekommst das Geld später...", murmelte er und blickte mit seinen Hausinseln auf mich. Fortgeschrittene Kriegstaktik...</t>
+  </si>
+  <si>
+    <t>Nachdem ich meine Unterwäsche gegen Arbeitskleidung getauscht hatte, half ich Anton an der Bar. Trotz der erfolglosen Versuche, ihn zu umgarnen und sein Essen zu locken, haben sie mich nicht gestört, um die Wahrheit zu erfahren, und die Arbeit ging fröhlich weiter. Jou kommt nach der Mannschaft mit Anton plaudern. Jou muss den Al aus dem Kopf bekommen, obwohl ich nach dieser Mannschaft in der Bar weitere Ermittlungen in seinem Pfandladen anstellen werde, aber trotzdem ...</t>
+  </si>
+  <si>
+    <t>Flammen schossen aus der Kehle von Thassalin, als der gigantische Thraki ein Stück des besonderen Waldes abbrannte und dann darüber kreiste, um Bewegungen zu entdecken. Merkwürdigerweise wurde der verwirrende Kreis hinter ihm vergessen, als er flach auf dem Boden lag. Thassalin hatte die Passagiere auf seinem Rücken vergessen.</t>
+  </si>
+  <si>
+    <t>Tenuk, du hast dich schon eine Weile in einem Thraki amüsiert.</t>
+  </si>
+  <si>
+    <t>Wenn ich selbst fliege und das alles andere ist, als von einem rosa Drachen verstanden und in die Luft gezogen zu werden!</t>
+  </si>
+  <si>
+    <t>"Es war gar nicht so schlimm, Kayel?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayel war offensichtlich nicht vom selben Schlag wie die Nyssi. Er sah weniger bedrohlich aus als sonst, seine Krallen waren so tief in den Rücken des Thassalin eingedrungen, dass der Thraki blutete. Dem Thassalin schien das jedoch nichts auszumachen. Trotzdem merkte er, dass er seine neuen Freunde erschreckt hatte, und gab das in einer Klarstellung zu.</t>
   </si>
   <si>
     <t>"ES TUT MIR LEID, ABER ICH HABE ETWAS VERPASSEN.</t>
   </si>
   <si>
-    <t>"Aber du musstest uns mitreissen", murmelte Tenuk, als er sich von Thassalins Rücken herunterschlug und an dessen Schwanz hinabrutschte. "Wir haben Retvik zurückgeschossen! Wir haben Fearm und unseren Dankeschön schon im Stich gelassen! Wie kann er uns dann folgen?"</t>
-  </si>
-  <si>
-    <t>"Er wird dem Kopf etwas Zeit lassen...", murmelte Nyssi. "Retvik ist nicht der beste Speerwerfer, aber er ist nicht dumm."</t>
-  </si>
-  <si>
-    <t>Kann Retvik Auto fahren?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyssi sprach und wandte sich an Tenuk.</t>
-  </si>
-  <si>
-    <t>"Hast du schon einmal gewollt, dass Retvik ein Auto fährt? Er hat kein Auto wie Sie und wollte auch noch mit einem so eleganten Auto fahren wie dem von Kayel. Ausserdem hat er erst angefangen, mit dem Auto zur Arbeit zu fahren, weil Sie immer mit dem Auto fahren. Er hat nur sein Fahrrad."</t>
-  </si>
-  <si>
-    <t>Sie werden von einem Klatsch unterbrochen. Thassalin schien sich einst enorm zu amüsieren, aber niemand wusste, worüber er lachte.</t>
-  </si>
-  <si>
-    <t>"ES TUT MIR LEID, ABER ICH HABE IHREN RIESIGEN FREUND IN RÜSTUNG AUF DIESEM KLEINEN GERÜST FÜR DIE OPFER VON TEMTHAN AUFGEZEIGT. DAS UND MUSS ZUM LACHEN ZUM SCHEITERN VERURSACHEN! ICH WÜNSCHTE, ICH HÄTTE EINE ART TELEPATHIE. EINE VORSTELLUNGSWALZE! EINE, DIE ICH NICHT TEILEN KANN!"</t>
+    <t>"Aber mussten Sie uns mitreissen?", murmelte der Tenuk, als er sich von Thassalins Rücken herunterschlug und an seinem Schwanz hinabrutschte. "Wir haben Retvik zurückgeschossen! Wir haben unseren Dank und Fearm bereits in der Mitte des Kampfes ausgetauscht! Wie kann er uns nachfolgen?"</t>
+  </si>
+  <si>
+    <t>"Er wird sich etwas auf den Kopf lassen", murmelte Nyssi.</t>
+  </si>
+  <si>
+    <t>Das ist gut, aber kann der Retvik Auto fahren?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Nyssi sprach und weiss gegenüber dem Tenuk.</t>
+  </si>
+  <si>
+    <t>"Haben Sie den Retvik schon einmal mit einem Fahrzeug gefahren? Er hat kein Auto wie Sie und wollte es auch noch mit einem so eleganten Auto fahren wie dem Kayel-Modell. Ausserdem hat er erst angefangen, mit dem Auto zur Arbeit zu fahren, weil Sie immer mit dem Fahrzeug unterwegs sind. Er hat nur sein Fahrrad."</t>
+  </si>
+  <si>
+    <t>Sie werden von einem Klatsch unterbrochen. Der Thassalin schien sich plötzlich enorm zu amüsieren, aber niemand wusste, worüber er lachte.</t>
+  </si>
+  <si>
+    <t>"ES TUT MIR LEID, ABER ICH HÄTTE IHREN RIESIGEN FREUND IN RÜSTUNG AUF SO EINER MINIATUR DEN OPFERN VON TEMTHAN VORGESTELLT. DAS IST ZUM LACHEN! ICH WÜNSCHTE, ICH HÄTTE EINE ART TELEPATHIE. EINE VORSTELLUNGSWALZE! EINE, DIE ICH NICHT TEILEN KANN!"</t>
   </si>
   <si>
     <t>Kayel irrte sich, weil er sich vorstellen konnte, was Thassalin durch den Kopf ging.</t>
   </si>
   <si>
-    <t>Thassalin grunzte, schmerzte und schwankte. Als er nach kurzer Zeit zurückkam, warf er Nyssi ein totes Tier vor die Füsse. Es war ein Orothrack, ein sehr seltenes, weisses, goldenes Draghesiewesen. Aber sein Kopf war weg. "EIN TOTES. JOU AUS DEM IEEUS GEWISS. FRED SANG. ETWAS DRÄNGT MICH, MICH ZU BESCHÜTZEN UND ZU JAGEN. WIE YISINI BEORDNET. SIE SIND MIR SEHR NÄHE."</t>
-  </si>
-  <si>
-    <t>Der gigantische Thraki wurde plötzlich ganz still. Auch Nyssi und Kayel versuchten, sich zu retten, und richteten ihre Augen auf eine Lücke in den Lichtern. Etwas dankbar und schwarz starrten sie schreiend auf das Ungeheuer. Was es auch war, es streckte zwei gigantische Flügelklauen nach Thassalin und segelte weiter, ohne sich vor den kleineren Käfigen, die sie umgaben, zu drücken. Kayel und Tenuk konnten sich gerade noch in Sicherheit bringen, aber Nyssi wurde mitgerissen und wäre beinahe auf Thassalin untergegangen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thassalin reagierte auf diese Attacke, indem er Nyssi erwischte und ihn mit seinem geschickten und unglaublich langen Schwanz auf seinen Rücken band, bevor er in die Luft schoss.</t>
-  </si>
-  <si>
-    <t>Kayel schluckte mit der Zunge, als er sein Gewehr vom Rücken nahm und einen Sack öffnete, der eine Munizip-Linse enthielt. Er band die Linse um seine Brust, aber er merkte schnell, dass Nyssi, der Thraki und das Monster nicht mehr vasevabel waren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hey, Tenuk, könntest du dich in etwas verwandeln, das fliegen kann?", fragte Kayel.</t>
+    <t>Der Thassalin knurrte, erhob sich und verschwand. Als er nach kurzer Zeit zurückkam, warf er der Nyssi etwas Totales vor die Füsse. Es war ein Orothrack, ein sehr seltenes, weisses, goldenes Draghesiewesen. Nur sein Kopf fehlte. "KEIN TOTER. JOU HAT IHN AUS SEINEM SCHARF GEFÜHRT. FREUEN SIE SICH. ETWAS JAGT MICH, UM MICH ZU SCHÜTZEN UND ZU JAGEN. WIE YISINI BEORDNET. SIE SIND SEHR NÄHE."</t>
+  </si>
+  <si>
+    <t>Der gigantische Thraki wurde plötzlich ganz still. Auch die Nyssi und der Kayel in Samsand richteten ihren Blick auf eine Lücke im Licht. Etwas dankbar und schwarz starrten sie schreiend auf etwas, das sie nicht sehen konnten. Egal, was es war, es hielt zwei gigantische Flügelschirme auf und flog weiter zum Thassalin, ohne sich um die kleinen Wesen zu kümmern, die es umgaben. Der Kayel und der Tenuk konnten sich gerade noch in Sicherheit bringen, doch der Nyssi wurde mitgerissen und fast zum Thassalin katapultiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thassalin reagierte auf diesen Angriff, indem er die Nyssi erwischte und sie mit seinem geschickten und unglaublich langen Schwanz auf ihren Rücken band, bevor er sie in die Luft schleuderte.</t>
+  </si>
+  <si>
+    <t>Kayel schluckte mit der Zunge, als er sein Gewehr vom Rücken nahm und einen Sack öffnete, der eine Munizip-Lösung enthielt. Er schob die Linse um die Brust herum, erkannte aber schnell, dass die Nyssi, der Thraki und das Monster nicht mehr vasevabel waren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Hey, Tenuk, kannst du dich in etwas verwandeln, das fliegen kann?", fragte Kayel.</t>
   </si>
   <si>
     <t>"Willst du sie verfolgen?"</t>
@@ -1952,25 +2448,490 @@
     <t>"Nur... einer von ihnen ist ein gigantisches Monster!"</t>
   </si>
   <si>
-    <t>Ich bin hier mit einem Gewehr in der Hand und könnte sofort schiessen. Aber Sie müssten es schon sehen, um es treffen zu können.</t>
-  </si>
-  <si>
-    <t>Tenuk zögerte, machte dann einen Rückzieher, um mehr Platz zu haben. Mit einem leichten, schmerzhaften Grinsen küsste Tenuks Kopf die Lunge, seine Schale verwandelte sich in Schuppen und seine Arme in Flügel. Er verwandelte sich in einen normalen Thraki, der hellblau war, aber seine Falten blieben rot.</t>
+    <t>Ich bin hier mit einem Gewehr in der Hand und könnte sofort schiessen. Aber Sie müssten es natürlich sehen, um es treffen zu können.</t>
+  </si>
+  <si>
+    <t>Der Tenuk zögerte, dann trat er einen Schritt zurück, um mehr Platz zu haben. Mit einem leichten Grinsen legte sich der Kopf des Tenuk an die Lunge, seine Schuppen bewegten sich in Schuppenreihen und seine Arme in den Flügeln. Er verwandelte sich in einen normalen Thraki, hellblau, aber seine Falten blieben rot.</t>
   </si>
   <si>
     <t>Saragata seiador.</t>
   </si>
   <si>
-    <t>Wie ein Thraki mit normalem Aussehen hatte Tenuk nun echte Schuppen über die Länge seines Rückens. Aus seinem Rücken wuchsen auch zwei Späne, was praktisch war, so wusste Kayel Sataner Bescheid. Es dauerte noch lange, bis Tenuk starten konnte, aber als er einmal in der Luft war, orientierte er sich schnell und begann zu verfolgen.</t>
-  </si>
-  <si>
-    <t>Tuenuk und Kayel erkannten schnell, dass sie nicht allein waren. Ein dunkles, verschanztes Wesen unter ihnen im Hochhaus von Tenuk konnte einen Zusammenstoss nur kurzzeitig verhindern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Das ist das schreckliche Riesenmonster, vor dem Lanex Angst hatte?" Kayel hat die Früchte geerntet. Er versuchte, das kleine Tier zu erschiessen, verfehlte es jedoch und musste neu laden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenuk gab keine Antwort. Er war nur damit beschäftigt, sich auf den Flug von Nyssi nach Thassalin zu konzentrieren, auch wenn das andere Tier sie verfolgte.</t>
+    <t>Wie ein Thraki von normaler Statur hatte der Tenuk nun echte Schuppen über die Länge seines Rückens. Aus seinem Rücken wuchsen auch zwei Stacheln, was praktisch war, so wusste der satanische Kayel Bescheid. Es dauerte etwas weniger, als der Tenuk starten konnte, aber als er in der Luft war, orientierte er sich schnell und begann zu jagen.</t>
+  </si>
+  <si>
+    <t>Der Tuenuk und der Kayel erkannten schnell, dass sie nicht allein waren. Eine dunkle, sich verschanzen wollende Kreatur unter ihnen im Hochhaus und im Tenuk konnte einen Zusammenstoss nur wenig verhindern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das ist das schreckliche Riesenmonster, vor dem Lanex Angst hatte? Kayel hat die Früchte geerntet. Er versuchte, das kleine Tier zu erschiessen, verfehlte es aber und musste neu laden.</t>
+  </si>
+  <si>
+    <t>Der Tenuk gab keine Antwort. Er war nur damit beschäftigt, sich auf den Flug in Richtung Nyssi und Thassalin zu konzentrieren, auch wenn das andere Tier sie verfolgte. Kayel wusste nicht, wie er das Monster erreichen sollte. Dass es sie verfolgte, war für Kayel ein Vorteil, denn so konnte er besser auf es zielen und schiessen. Zwei Schüsse trafen die Oberflügel des Tieres. Es brüllte vor Schmerzen und sank unter die Pflaster. Kayel war sich nicht sicher, ob es sie noch immer verfolgte, aber es konnte sicher nicht mit ihnen Schritt halten.</t>
+  </si>
+  <si>
+    <t>Ein gutes Stück vor ihnen sättigte die Nyssi verzweifelt und mit voller Wucht, während der Thassalin um sie herum wackelte und Flammen auf das schwarze Monster spuckte. Die Kreatur war endgültig vernichtet. Sie schien nicht wütend zu sein, aber auch nicht bereit, nachzugeben. Die Verletzungen des Fiacus schienen nicht den gewünschten Effekt zu haben. Als der Thassalin verschwunden war, griff die Nyssi zur Kutsche, um ihre eigene Waffe, eine gute, alte Blume, hervorzuholen. Auch wenn sie nicht für solche Zwecke gemacht war, wie konnte der Hagel das schwarze Tier auf der Flucht ersticken?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, wie es schien, nicht. Das Wesen hat mich beschimpft und versucht, direkt auf den Thassalin zuzusteuern. Glücklicherweise war der Thassalin trotz seiner Dankbarkeit agil genug und konnte ausweichen, aber die Nyssi hat einen Schreck bekommen, als sie den Ball auf den Schuppen des Thassaliners hätte fallen lassen können.</t>
+  </si>
+  <si>
+    <t>"WIE KÖNNEN WIR SIE SCHLACHTEN?", GRINSEN DIE NYSSI.</t>
+  </si>
+  <si>
+    <t>"SCHAU DIR DIE KOPFE AN!"</t>
+  </si>
+  <si>
+    <t>DAS WIRD SCHWER!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Thassalin stürzte und zog dann einen Kreis, näher an den Berg, den er sein Zuhause nannte. Das dunkle Tier folgte ihm, geriet aber leicht in Panik, als ein Fiastrahl es von hinten traf. Sie hatte nicht bemerkt, dass sie nicht mehr allein war. Sie geriet noch mehr in Panik, als der Thassalin flacher wurde und seinen Schwanz noch weiter aus seinem Hinterhof herausstreckte und ihn von seinem Weg abbrachte.</t>
+  </si>
+  <si>
+    <t>Es murmelte und brüllte und flog auf und spuckte in die Luft. Plötzlich wurde alles dunkel, als würde das Monster das Licht vom Himmel saugen und es mit einer ewigen Nachtwolke umhüllen.</t>
+  </si>
+  <si>
+    <t>Als der Thassalin plötzlich nichts mehr wendete, versuchte er sich zu scheren. Er spürte, wie er noch an den Krügen der Bäume kratzte, bevor er dann in eine Lichtung fiel. Das Tier schien genau zu wissen, wo der Thassalin hingefallen war, und ging direkt in seine Richtung, so dass es mit der schwarzen Wolke mitzog.</t>
+  </si>
+  <si>
+    <t>"Kayel!", schrie Tenuk, als er aus der Wolke stolperte und anfing, Kreise zu ziehen, um im Dunkeln die Nyssi und den Thassalin zu finden. "Was sollen wir jetzt bloss machen? Kayel...? Kayel, wo bist du?"</t>
+  </si>
+  <si>
+    <t>Unten kam die Nyssi mit Fadeia auf die Füsse. Sie war sicher, sich etwas gebrochen zu haben, aber ihre seltsamen übernatürlichen Heilkräfte begannen zu wirken. Für den Thassalin galt das leider nicht. Er wischte noch die gepflasterte Sohle, die unter seinen Füssen nicht kaputtgegangen war. Die Nyssi tat sich alle Mühe, sich dem Thassalin zu nähern, aber er kam kaum mehr als zwei Meter an sie heran. Alles war dunkel und in beängstigende Schatten gehüllt. Und in diesem Schatten krächzte und schrie etwas.</t>
+  </si>
+  <si>
+    <t>Ein schrecklicher Schwanz, der neben der Nyssi gepanzert und um sie gewickelt war. Sie spürte jedoch, dass der Schwanz in alle Richtungen schlug, als wolle er sie retten, ohne zu versuchen, sie zu berühren. Das Tier, das Wenige, das die Nyssi von ihr hörte, brüllte und versuchte mit seinen Krallen die Schatten, die sie geschaffen hatte, wiederzuerlangen. Etwas schoss durch die Dunkelheit, durchbohrte das Monster und verwirrte es.</t>
+  </si>
+  <si>
+    <t>Plötzlich kletterte ein Gewehr durch die Wolke zum Monster und blieb still, fiel auf Tränen und blieb dort reglos liegen. Die Dunkelheit um sie herum verschwand und sie sahen, was passiert war. Auf dem Tier stand Kayel, der ganz sprachlos war und sein Gewehr in der Hand hielt.</t>
+  </si>
+  <si>
+    <t>"Das war... der spektakulärste Schatten-Sprung, den ich je gemacht habe... Thanto kat’olon...", keuchte Kayel, als er nach Luft schnappte. Seine Inseln waren schwarz wie Feuer und eine dunkle Energie umhüllte seinen Kopf. Doch während er noch schwamm und die Wärme, die in seine Rüstung und seine Inseln zurückkehrte, spürte, kehrte die gewohnte gelbe Wärme zurück.</t>
+  </si>
+  <si>
+    <t>Es dauerte einen Moment, bis die Nyssi begriffen hatten, was geschehen war. Sie alle wussten, dass Kayel diese besonderen Schattenkräfte beherrschte. Er setzte sie nur selten ein, da sie die meisten beunruhigten und verängstigten. Doch die Nyssi wussten nicht, dass Kayel diese Kräfte auch in jeder Art von Dunkelheit einsetzen konnte. Und wie Kayel sich verhielt, schien er auch ziemlich überrascht zu sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Und alles in Ordnung mit dir?", sagte die Nyssi dazu.</t>
+  </si>
+  <si>
+    <t>Kayel betrachtete sein Werk, während der Tenuk nach unten flog, setzte sich neben ihn und nahm wieder seine normale Spastform an.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da das Tier sich nicht mehr bewegte, konnten sie es besser sehen. Seine Haut war schwarz wie Asche und glänzte, aber der Flug war an seinem Kopf klebrig. Das Wesen hatte vier Flügel und vier Gliedmassen, die alle in lockige und dünne Krallen mündeten, und zwei spitze Hörner ragten aus seiner Schädeldecke heraus.</t>
+  </si>
+  <si>
+    <t>Bevor Tenuk und Kayel lernen konnten, was für ein Juwel sie hier hatten, hörten sie ein Krächzen und sahen, wie etwas aus einer verblendeten Hütte herausspringt. Diese Kreatur schaffte es jedoch nicht zu ihnen, weil ein vertrautes Fahrzeug vor ihr zur Seite sprang, sodass das Monster weit wegrutschte und sich vor den Füssen der Nyssi in Sicherheit brachte. Die Nyssi wollte nichts riskieren. Sie erkannte ihre Wunde, schoss ohne daran beteiligt zu sein auf den Schädel der Kreatur und war sofort tot.</t>
+  </si>
+  <si>
+    <t>"Oh je...", murmelte Retvik vom Fahrersitz aus, bevor er ungeschickt den Motor ausschaltete und aus dem Wagen kam.</t>
+  </si>
+  <si>
+    <t>"Du hast die ganze Action verpasst", wusste Tenuk.</t>
+  </si>
+  <si>
+    <t>"Sie sehen nur mich. Ich bin so schnell wie möglich gekommen...", seufzte Retvik.</t>
+  </si>
+  <si>
+    <t>Zum Glück konnte der Thassalin, der wieder auf den Beinen war, auf die Amparade des Retvik einprasseln. Er war mit Schnitten und Kratzern übersät und wirkte etwas benommen, aber nicht nur schwer gebeugt.</t>
+  </si>
+  <si>
+    <t>"IHR HABT DIE KORRUPTION GETÖTET! DIE INFIZIERTEN MONSTER. DIE KREATUREN, DIE VON HIER WEGGINGEN, ALS DIE KORRUPTION IHRE GÖTTER ANGRIFF."</t>
+  </si>
+  <si>
+    <t>"Sie meinen... die unglaublichen Kreaturen, die uns... beim Schlachten geholfen haben?", stammelte Tenuk.</t>
+  </si>
+  <si>
+    <t>"Ä. GENAU DIE. KRAFT GIBT IHM NOCH MEHR. ABER ICH KONNTE IHM NICHT INS GESICHT SCHIESSEN. ICH HABE KEINE FEUERWAFFE. ZWEI PLUS EINS UND UNGESCHLAGEN, NAHE DAMIT? THASSALIN UND ZAPPELNDE KAYEL HATTE IHN AUF DEN KOPF GESCHLAGEN." "VIELEN DANK, KLEINER. DU ERINNERST MICH AN MEINEN ALTEN FREUND ARKADIN. DU BIST NICHT SO SCHRECKLICH UND NICHT SO FÄHIG, ANDERE UNIVERSEN ZU VERNICHTEN."</t>
+  </si>
+  <si>
+    <t>"Ähm... danke... ja, Creg... Kayel hat die Giveals gezogen."</t>
+  </si>
+  <si>
+    <t>Die Nyssi zuckte mit den Schultern. Sie nahm ihre Kamera in die Hand und machte ein paar Fotos von den nun endgültig toten Tieren. Dann nahm sie ihre Lieblingswaffe, das mit dem Gott der Toten geschmückte Stilett, und begann, eines der Hörner des Tieres abzuschneiden. Danach ging sie zur Seife. Gerade als die Nyssi gemietet war, gingen die Tiere mit einem Ährchen in Flammen auf und verwandelten sich innerhalb von Sekunden in einen Haufen Asche. Das Gleiche geschah mit den Hörnern, die die Nyssi abgeschnitten hatte.</t>
+  </si>
+  <si>
+    <t>"Das ist nun praktisch und unpraktisch in einem...", seufzte Nyssi.</t>
+  </si>
+  <si>
+    <t>Prolog</t>
+  </si>
+  <si>
+    <t>"Jou suplitgesch te!" schrie die Regentin Eirwen, "schicke sie nicht weg! Sie ist noch ein Ungeborenes!" Der König des Eisens, assistiert von seinem Mitmusiker, erhob sich von seinem Thron und setzte sich auf seine Frau. Sie hatte ein Baby zur Welt gebracht. Abseits davon verschluckten sich seine Augen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Buba liebte seine Mutter sehr. Sie hatte blaue Flecken und weisse Haare mit blauen Locken. Auf den Inseln des Eiskönigs war ein Buba ein Glücksfall. Schliesslich hatte er in diesem Moment meine Söhne gezeugt.</t>
+  </si>
+  <si>
+    <t>"Du hast zwei Möglichkeiten: Entweder du tötest das Ungeborene oder du schickst es in die Wildnis. Das ist der, den du zu deinem Unglück Eirwen nennst." Er spuckte den Namen aus, als wäre er verwirrt. Das tat er immer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frostfell war nicht immer ein einziges Königreich. Früher bestand es aus zwei Teilen, dem Norden und dem Süden. Im Norden war das Königreich nicht magisch, im Süden hingegen hatte das langsame Königreich fantastische Kräfte. Doch schien es aufgrund der Angst des Nordens zu einem Krieg zwischen den Königreichen zu kommen, den es nie wollte, bis der Süden schliesslich einen Waffenstillstand schloss.</t>
+  </si>
+  <si>
+    <t>Die Verzweiflung im Süden war so gross, dass die Königsfamilie alles in ihrer Macht Stehende tun wollte, um diesem Massaker ein Ende zu setzen. Sie bot an, ihre einzige Prinzessin als Regentin in den Norden zu schicken, wo sie einen Sohn gebären sollte, den zukünftigen König. In diesem Fall würde sich der Norden mit dem Süden zu einem einzigen Königreich vereinen. Der Norden nahm das Angebot an, und Prinzessin Eirwen heiratete Prinz Akull.</t>
+  </si>
+  <si>
+    <t>"Ich bitte Sie, mein König, fragen Sie, was Sie mit mir vorhaben, verbannen Sie mich oder töten Sie mich, aber nur, wenn Sie mein ungeborenes Kind töten wollen", schrie die Regentin Eirwen, die das ungeborene Kind in den Händen hielt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Eiskönig war voller Abscheu über ihre Regentschaft. Fortan, aber nur aus Kraft des Gewissens, hatte er Mitleid mit ihr. Mit der Düne, mit der er über 22 Jahre verheiratet war, die ihn in seinen schrecklichsten Brüsten unterstützt und ihm seine Söhne geschenkt hatte.</t>
+  </si>
+  <si>
+    <t>"Nur", fügte er hinzu, "wird man Sie hinrichten."</t>
+  </si>
+  <si>
+    <t>Der Mitläufer des Königs und der Regie Eirwen sahen einen auf der anderen Ebene schnarchen. Langsam senkte sie ihre Augenbinde in Richtung des Baumes. "Ach, mein König." Sie grub die Grube aus.</t>
+  </si>
+  <si>
+    <t>Der Eis-König befahl seinem Mitsprecher, mit dem Blatt der Regie in einen der Sommerfreiluftspaziergänge von Eirwen zu gehen. Daraufhin befahl er den Wachen, Eirwen zum Exekutionsplatz zu bringen, wo das ganze Volk des Dorfes zusehen konnte.</t>
+  </si>
+  <si>
+    <t>Als die Wachen sie zur Hinrichtungsstätte eskortierten, gerieten die Leute in Aufruhr, als sie merkten, dass sie ihre geliebte Stute schlachten wollten. Einige tauchten auf, andere schrien und griffen die Wachen an. Wieder andere machten sich bereit, da dies nun einmal geschehen müsse, aber alle waren einverstanden.</t>
+  </si>
+  <si>
+    <t>"Befreit sie!"</t>
+  </si>
+  <si>
+    <t>"Warum macht ihr das?"</t>
+  </si>
+  <si>
+    <t>Als sich Eirwen dem Holzpfahl näherte, tauchte die gefürchtete Sorte im Königreich auf. Es war der Fiakräuter. Die Düne, die gerade noch gepflastert war, sollte verbrannt werden. Niemand hatte einen solchen Tod, nicht einmal Verbrecher, verdient. Es war das Schrecklichste, was man einem Menschen in Frostfell antun konnte.</t>
+  </si>
+  <si>
+    <t>Eirwen wurde an den Holzpfahl gebunden und der König hielt eine Rede, in der er erklärte, dass die Regie sie alle verraten habe. Die Bewohnerinnen und Bewohner von Frostfell weigerten sich, dies zu glauben, und konnten seine Worte nicht akzeptieren. Daraufhin gab der Richter dem Holzpfahl eine einzelne Träne, die über das Gesicht der ehemaligen Regie lief.</t>
+  </si>
+  <si>
+    <t>Das war das Ende der Regierung von Regina Eirwen.</t>
+  </si>
+  <si>
+    <t>Tiefe Stille im Palast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur ein Klopfen vom Sommer, am linken Flügel des ewig kalten Südpalastes, war zu hören. Die Überläufer, die vorbeikamen, beklagten sich ständig darüber, was in diesem Sommer passiert war. Sie hatten Angst davor. Zwischen den Fenstern des Palastes schipperte die Kureale. Es wurde erzählt, dass die Dame des Eis-Königs, die Eirwen, in diesem Sommer weilte und darauf wartete, dass er sie herauskäme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihre Annahme hätte nicht falscher sein können, hörte die Ivory und ging in Richtung des Südflügels, während die Überfliegerinnen und Überflieger umherschlenderten und miteinander klatschten. Sie hatten keine Ahnung, was sich hinter der Tür verbarg.</t>
+  </si>
+  <si>
+    <t>Die Kurorte gehörten natürlich auch zur Elfenbeinküste, weil die Elfenbeinküste die Sohle war, die in den Sommer eintauchen musste.</t>
+  </si>
+  <si>
+    <t>"Lady Kari, sind Sie hier?", entschuldigte sich die Ivory vor der kunstvoll dekorierten Tür mit Neffen-Schuppen und einer Krone, dem Symbol der Königsfamilie.</t>
+  </si>
+  <si>
+    <t>Die Ivory hat sich gefreut, ob sie dieses Jahr wirklich antreten wird, anders als beim letzten Versuch. Sie hat immer noch blaue Knoten von letztes Jahr. Die Ivory hat damit geprahlt, dass sie teilnehmen wird. Die Kari hatte noch vor Ivory's Geburtstag ein Buch geschmiedet, aber er hat sich sofort entschuldigt, als sie merkte, wer sie war.</t>
+  </si>
+  <si>
+    <t>Ein einzelner Entenruf war zu hören, wahrscheinlich, um dorthin zu gelangen.</t>
+  </si>
+  <si>
+    <t>"Darf ich eintreten?", lernte Ivory. Früher kam Ivory ohne zu fragen herein.</t>
+  </si>
+  <si>
+    <t>Es war seltsam, ein Geräusch aus einem anscheinend leeren Sommer zu hören, obwohl die Ivory schon seit mehreren Jahren darin verankert war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ich komme herein", sagte die Ivory und öffnete langsam die Tür. Der Anblick, den man im Sommer vorfand, war für gewöhnliche Menschen ungewöhnlich, aber für die Ivory nicht unerwartet. Überall war Papier überall. Bücher wurden herausgerissen, die Schreibhälfte brach ab und mehrere Eisskulpturen standen herum. Es gab keine Fenster und nur wenig Licht. Es war kälter als der Rest des Palastes, der ja sehr warm war.</t>
+  </si>
+  <si>
+    <t>Das Mädchen rollte auf seinem Fleck herum, eingewickelt in Tarbet, und leckte sich in eines der Notizbücher.</t>
+  </si>
+  <si>
+    <t>"Welches Büchlein ist das?", lernte die Ivory und setzte sich auf den Fleck neben der Kari.</t>
+  </si>
+  <si>
+    <t>Sie blätterte zu einer leeren Seite und notierte das Datum. Unten schrieb sie "11-5-648 - 13-12-648".</t>
+  </si>
+  <si>
+    <t>"Willst du alte Erinnerungen wieder aufleben lassen?", hat die Ivory gelernt und auf das alte Notizbuch geschaut. La Kari hat sich vom Kopf geworfen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nein", wie die Ivory vermutete. Der Eiskönig wurde dazu gebracht, die Kari freizulassen, weil sie für ihn ein Makel war. Sie war als einziges Mädchen in seiner Familie zur Welt gekommen, alle anderen waren Kinder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als sie zugab, nichtbinär zu sein, war es, als hätte sich die Welt verändert. Als Strafe für ihre Vielseitigkeit erhielt Ivory Aufgaben, die sie aus Dankbarkeit in Einsamkeit erledigte.</t>
+  </si>
+  <si>
+    <t>Die Ivory wurde auch gezwungen, als Überläuferin für die Prinzessin zu arbeiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Du hast bald Geburtstag, never?", fragte Ivory, als sich herausstellte, dass die Prinzessin am selben Tag geboren worden war. Kari zog den Kopf mit einem Trampel in die hellblaue Inselinsel zurück.</t>
+  </si>
+  <si>
+    <t>"Möchten Sie Ihren Geburtstag feiern?", fragte die Ivory, die die Prinzessin im letzten Jahr darauf geantwortet hatte, und fragte nach dem letzten Jahr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nein", stöhnte Karin. Die Ivory wusste, dass das ein schwieriges Thema für sie war. Ihr Geburtstag war der Tag, an dem sie in ihrem Zimmer vereidigt und ihre Mutter verbannt worden war. Die Ivory war damals noch ein Baby, erinnerte sich aber wütend daran, dass die Überläufer aus den Bewohnerinnen und Bewohnern der Stadt stammten. Die Ivory hatte gehört, dass die Eirwen eine nass-feuchte Frau gewesen war. Und dass sie seltsamerweise auch in der Lage war, Dinge vorherzusagen, die passieren würden.</t>
+  </si>
+  <si>
+    <t>"Also, was willst du machen?", fragte Ivory. Kari blickte ganz aufgeregt zu Ivory auf. Sie hielt ein Stück Papier in der Hand. Darauf stand nichts.</t>
+  </si>
+  <si>
+    <t>Lanziel 15 x 15</t>
+  </si>
+  <si>
+    <t>weiss, verschiedene blaue Töne</t>
+  </si>
+  <si>
+    <t>Pinsel in sechs verschiedenen Richtungen</t>
+  </si>
+  <si>
+    <t>Pferdegespann</t>
+  </si>
+  <si>
+    <t>"Sollen Sie diese Dinge für sich kaufen?", flüsterte die Ivory der stillen Prinzessin zu, die so strahlte, dass ihre Kröten von Jahr zu Jahr schwankten. "Ea?" Die Ivory schwieg heimlich. Die sonst so zurückhaltende Prinzessin zeigte eine solche Begeisterung. Es war das erste Jahr, in dem sie etwas lernte, das nichts mit Büchern zu tun hatte und das sich ausserhalb ihres Zimmers befand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Okay! Wissen wir später?", lernte die Ivory und stand auf den Füssen und stolperte durch das Chaos aus Papier und Büchlein.</t>
+  </si>
+  <si>
+    <t>Kari legte den Kopf in den Nacken, holte ihre Notizen hervor und machte sich ihren Zopf.</t>
+  </si>
+  <si>
+    <t>Die Ivory verliess den Sommer erleichtert, dass die Prinzessin endlich aus ihrer Wohlfühlzone kam und für die Gäste aus ihrem eigenen Aktivitätsradius liebenswerte Aktivitäten bot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Ivory ging wieder durch die Gärten und versuchte, den Klatsch der Überfliegerinnen zu ignorieren.</t>
+  </si>
+  <si>
+    <t>"Ich habe gehört, dass die Regia Eirwen Besitz von ihr ergriffen hat und dass sie deshalb immer wieder in diesen Sommer geht."</t>
+  </si>
+  <si>
+    <t>"Ich habe gehört, dass sie in diesem Sommer Ungeborene frisst."</t>
+  </si>
+  <si>
+    <t>Wenn sie wie ein Mann aussieht, ist das nicht normal?</t>
+  </si>
+  <si>
+    <t>Die Ivory hielt sich die Ohren zu, weil sie das Klatschen nicht einfach ignorieren konnte, und ging nach vorne. Das Zimmer des Malers des Königs befand sich im Ostflügel hinter der weichen Tür auf der linken Seite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Ivory näherte sich der Tür, die so kunstvoll geschmückt war wie die der Kari. Diese zeigte einen weissen Drachen, einen der Primärdrachen, wie der Frostfell geschaffen wurde.</t>
+  </si>
+  <si>
+    <t>Die Ivory öffnete die Tür und erwartete das übliche Chaos. Überall waren Hitzeflecken, ein Pinsel und das niesige Pulver lag den ganzen Sommer über überall herum, Pferde bedeckten jeden Zentimeter der Wand. Doch unerwartet bot sich ihr ein ganz anderes Bild. Der Sommer war sauber, und ein Stuhl stand vor dem roten Talofen. Auf dem Stuhl sass der Erbprinz Aquilo, der gerade porträtiert wurde.</t>
+  </si>
+  <si>
+    <t>"Guten Morgen, Ivory! Möchtest du sehen, wie dein zukünftiger König porträtiert wird?", flüsterte Aquilo und wandte sich an die Ivory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jou stund mal, kleiner Prenz", sagte die Ivory, ignorierte ihn aus Dankbarkeit und versteckte die Dinge, die die stille Prinzessin wollte.</t>
+  </si>
+  <si>
+    <t>"Mein Mädchen will schon wieder gehen?", bitterte Aquilo.</t>
+  </si>
+  <si>
+    <t>Die Ivory hat die Malordnung von der Liste gestrichen und alles in die Kiste gelegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ach, mein Ding, das ist eine Phase! Mit zunehmendem Alter wächst man darüber hinaus", schimpfte er.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ich muss gehen", sagte die Ivory und freute sich über die Antwort des Prinzen. Dann kamen der Ivory all die bösen Bemerkungen entgegen, die er und andere in der Vergangenheit wegen der sexuellen Identität der Ivory gemacht hatten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plötzlich erschien der Prinz an der Tür und ignorierte die Proteste des Malers des Königs.</t>
+  </si>
+  <si>
+    <t>"Das ist kein gutes Benehmen für einen zukünftigen König!", sagte die Ivory.</t>
+  </si>
+  <si>
+    <t>Die Leute werden nicht glauben, was der Maler verschweigen wird, ob ihm sein Leben etwas wert ist. Er schenkte dem Maler einen kurzen Blick und trat dann näher an die Ivory heran. "Was halten Sie von einem Date?" Die Ivory wurde in der Vergangenheit schon mehrmals belästigt, jedoch nicht von einem Erben, sondern von einem Vorgesetzten.</t>
+  </si>
+  <si>
+    <t>"Wissen Sie eigentlich, was das Wort "Nein" bedeutet?", meinte die Ivory und schob den Erbprinzen beiseite.</t>
+  </si>
+  <si>
+    <t>"Nein", entgegnete Aquilo mit einem Lächeln. Natürlich weiss der Erbprinz, der alles bekommt, was er will, nicht, was das Wort "Nein" bedeutet.</t>
+  </si>
+  <si>
+    <t>"Warum willst du gerade mit jemandem wie mir ausgehen? Du hast doch um die 100 Verehrerinnen."</t>
+  </si>
+  <si>
+    <t>"Effektiv sind es 50", unterbrach er Ivory, immer noch mit einem Lachen. Er zog seine Haare zurück, die in der kalten Luft herumwirbelten.</t>
+  </si>
+  <si>
+    <t>"Jetzt verstehe ich es endlich! Warum gerade ich? Ich sende eine Gefahr für den Palast." Die Elfenbeintürkin hat die Arme verschränkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquilo hat mit einem Finger den Haufen der Elfenbeinküste erhöht und sie gezwungen, ihn anzusehen.</t>
+  </si>
+  <si>
+    <t>Capetel 1</t>
+  </si>
+  <si>
+    <t>Cohren</t>
+  </si>
+  <si>
+    <t>0430 Brüste Italiens. Corren hasste es, sich so früh aufzuraffen. Er hasste es vor allem, weil er dafür verantwortlich war, alle anderen seiner Kompanie aufzuwecken. Leise wusch er sich von seiner Tunika, zog seine Kampfkleidung an, legte seinen Schutzstock um und holte seine Ausrüstung aus dem Schrank, während er ganz vorsichtig mit einer speziellen Ziste herumschwamm. Er nahm sein Gewehr auf den Schoss und zog seine Kapuze mit einem Haken seiner Samtpfote über. Daran prangte alles, was er brauchte, wie sein Raspirator oder seine speziellen Spiegel. Nachdem er seine Munitionstaschen kontrolliert hatte, verliess er heimlich die Baracke. Draussen kratzte Matsch und Eis unter seinen Stiefeln.</t>
+  </si>
+  <si>
+    <t>Er nahm aus der einen Tasche seiner Jacke eine Zigarette und aus der anderen einen Zünder. Er zog an der Zigarette, bevor er die Tür leicht geöffnet hatte. Letztes Jahr musste er kreativ sein, um die Männer und Frauen zu wecken, die ihm untertan waren. Er hatte aufgehört, den Alarm des vorgewählten Weckers zu betätigen, denn dieser funktionierte meistens einfach nicht, und das Einzige, was aus den Lautsprechern kam, war ein leises Ziehen.</t>
+  </si>
+  <si>
+    <t>Der Cohren wusste Bescheid und wollte sich dem Leutnant Nemic nähern.</t>
+  </si>
+  <si>
+    <t>"Ea", entgegnete Cohren.</t>
+  </si>
+  <si>
+    <t>"Was möchten Sie dieses Jahr ausprobieren?"</t>
+  </si>
+  <si>
+    <t>Bevor er sich räuspern konnte, öffnete sich die Tür für Harris, Craith und andere, die ihm noch in Begleitung folgten.</t>
+  </si>
+  <si>
+    <t>"Guten Morgen", sagte Craith.</t>
+  </si>
+  <si>
+    <t>"Was durften Sie?" fragte Cohren.</t>
+  </si>
+  <si>
+    <t>"Ausserdem hatten wir keine Lust darauf zu warten, dass Sie uns unseren Kopf wiedergeben. Andernfalls dürfen die Angriffstrupps, die als Erste das Wurzelwerk des Morgens ausfindig machen wollten", rätselte einer der Männer, Ravik, "denn wir haben keine Lust darauf, auf Sie zu warten, bis Sie uns unseren Kopf wiedergeben."</t>
+  </si>
+  <si>
+    <t>"Das ist ein guter Punkt, Premsergent", sagte Cohren. Er legte seine Hand auf die Hand des anderen und betätigte einen Schalter. Ein leiser Alarm ertönte in den Baracken. Von nun an hörte er ein heimliches Schluchzen der Menschen, die herumliefen.</t>
+  </si>
+  <si>
+    <t>"Für den Juwelen, Valturi", sagte der Nemic. "Man könnte meinen, dass sie gelernt hätten, sich im selben Moment wie Sie zurechtzufinden."</t>
+  </si>
+  <si>
+    <t>"Mobagn, meine Leute aus dem Trainingslager haben ein Auge gelernt", erwiderte Cohren und zeigte auf Harris, Craith und Ravik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekunden später kam der Rest der Kompanie zurück. Sie hatten alles dabei, was sie brauchten, von den Herrenhäusern bis zur notwendigen Ausrüstung. Einige der neuen Rekruten schienen verwirrt, andere eher wütend.</t>
+  </si>
+  <si>
+    <t>"Guten Morgen", sagte Cohren gut gelaunt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mit allem nötigen Respekt, Sir, warum müssen Sie uns auf diese Weise rufen?", meinte ein Oberfeldwebel der Angriffstruppen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Weil die regulären Alarme eine Weile wert sind und Daybreak nicht unten schläft", sagte Cohren.</t>
+  </si>
+  <si>
+    <t>"Hüten Sie all Ihre persönlichen Sachen", fuhr Cohren fort. Als Oberstleutnant und Exekutivoffizier der Kompanie war er dafür verantwortlich, diese zusammen mit dem Kompaniechef, Captain Boradin Shaw, zu überwachen und zu unterstützen. "Wir werden nicht mehr hierher zurückkehren. Oberstleutnant, Sie und Ihre Truppen haben 15 Minuten Zeit, um die letzten Kontrollen durchzuführen und die heutigen Ratten zu fangen."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Mitglieder der Kompanie Exodus haben sich schnell aufgelöst. Sie waren Teil der Division der Angriffstruppen, die Seife trugen und bewaffnet waren. Bevor sie zusammengeführt wurden, waren sie zwei getrennte Kompanien, die Cohort und die Dagger. Die Kompanie war gespalten, und das war der Hauptgrund dafür, dass die Cohort gemischte Sanitäter hatte, als es um die Beförderung zum Leutnant ging.</t>
+  </si>
+  <si>
+    <t>Der Cohren und der Feind, der Leiter der ersten Sektion, hüteten das eine neben dem anderen im Licht der zahlreichen Fackeln, die von Generatoren der vorgeschobenen Basis gespeist wurden. Die meisten davon waren rot, was half, die Bomber abzuschiessen. Um sie zu bekämpfen, hatte Daybreak Angriffe von Wild Weasel aus der Luft und vom Teer aus zurückgerufen.</t>
+  </si>
+  <si>
+    <t>"Ein neuer Tag und eine neue Aufgabe für die höllischen Topkämpfer", sagte Nemic mit trockenem Lachen.</t>
+  </si>
+  <si>
+    <t>"Ein fortgeschrittener Stützpunkt ausserhalb von Ianlos. Wir werden den Angriff auf den Teer unterstützen", brüllte Cohren und zog an seiner Zigarette. Er gab dem Craith, der mit dem Rauchen angefangen hatte, einen Teil der Schale, aber da er ein Jahr lang im Kampf war, hatte er nichts davon.</t>
+  </si>
+  <si>
+    <t>"Morgen. An der Front wird es immer schlimmer", murmelte Nemic. "Alle Nachrichten lauten: "Unterstützt die Kriegsstürme. Tarmated-Hilfe an der Kurgan-Front ist nötig". Wie wäre es mit Hilfe an der Howland-Front?"</t>
+  </si>
+  <si>
+    <t>"Amen, Bruder", sagte Cohren und schnippte die Reste seiner Zigarette in den Wagen. "Wir starten schnell mit der ersten Armee und müssen nicht marschieren. Kapitän Shaw soll schon dort sein."</t>
+  </si>
+  <si>
+    <t>"Hat der Shaw eine Seemöglichkeit organisiert?", fragte Nemic etwas erstaunt.</t>
+  </si>
+  <si>
+    <t>Um die Wahrheit zu sagen, ist er nicht so schlecht, wie ich es gehört habe. Nicht gerade genial, aber ich kann ihn im Auge behalten.</t>
+  </si>
+  <si>
+    <t>Der Cohren streckt Daumen und Zeigefinger in die Höhe, sieht sein Mikrofon an seiner Kehle und zieht seinen Rucksack auf seinen Rücken. Alle Einheiten der Kompanie Exodus treffen sich beim Fuhrpark West, wenn sie im Einsatz sind. Wir starten mit der ersten Armee um 05:00 Uhr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Sekundentakt übernahm er die Verantwortung als Truppführer. Harris, Craith und Ravik waren Unteroffiziere niederer Rangordnung, als sie hier ankamen. Alle vier waren seit ihrer Rückkehr enge Freunde. Der Cohren hatte das Glück, sie schon von Anfang an zu kennen, obwohl es mehr als zwei Jahre her war. Sie waren Truppführer, aber Craith führte ab einem bestimmten Zeitpunkt die sechste Sektion, da er aus medizinischen Gründen entlassen worden war, nachdem er von einem Daybreak-Scharfschützen getroffen worden war.</t>
+  </si>
+  <si>
+    <t>Auf dem Weg zum Fuhrpark fuhr eine Gruppe von etwa acht Kronos-Kampfpanzern und vier Grenadierpanzern zur Insel Cohren und zum Nemic. Ihre Mannschaft fuhr herum und sorgte dafür, dass die Maschinen einsatzbereit waren. Speart traf auf den Kapitän der Insel Cohren, Boradin Shaw, der mit dem Kommandanten der Armee plauderte. Als sie näher kamen, blickte Shaw ihnen entgegen und näherte sich ihnen, wie immer mit einem emotionslosen Gesicht.</t>
+  </si>
+  <si>
+    <t>Leutnant Nemic... Leutnant Valturi... Er sagte, dass der Cohren langsamer gesessen habe, während er ein Auge auf das Pistolenetui hatte, und sich dann wieder umgesehen habe.</t>
+  </si>
+  <si>
+    <t>"Jaabagn, Herr Captain. Sie sollten aber auf dem Weg sein, denn Sie hatten noch Zeit, in die Kantine zu gehen, um Ihre Ratten zu holen. Genau um 05.00 Uhr kam die Kompanie Exodus zum Fuhrpark. Der Shaw ging auf eine Kiste und begann zu plaudern.</t>
+  </si>
+  <si>
+    <t>"Wir wurden zur vorgeschobenen Basis I-131 verlegt, fünf Meilen von Ianlos entfernt. Unsere Aufgabe ist es, die ständige Besatzung bei der weiteren Offensive gegen Ianlos zu unterstützen, um die Rebellen zu vertreiben. Dort werden wir eine Basis am Fusse der Berge errichten", erklärte Shaw. "Marschieren Sie zu Ihren Truppen und laden Sie die Fahrzeuge aus."</t>
+  </si>
+  <si>
+    <t>Die Kompanie löste sich in Richtung der jeweiligen Truppen auf und die Soldaten wurden von den Unteroffizieren auf die Panzer verteilt. Der Cohren brachte einen der Panzer näher an den Konvoi heran, wo er auf den Nemic, Craith und zwei neue Rekruten traf. Der Cohren hatte von der Ankunft der beiden zuvor durch einen Gleichaltrigen erfahren, wusste aber nur wenig über sie. Er sass am Rand und liess seine Hinterhöfe taumeln, während er seinen Rucksack und das Funkgerät vorbereitete, das mit seinen Kopfhörern und dem Halsmikrofon verbunden war.</t>
+  </si>
+  <si>
+    <t>"Hey Cohren, ist der Snowball noch immer bei Harris?", fragte der Nemic, nachdem sie aufgestanden waren.</t>
+  </si>
+  <si>
+    <t>"Meinen Sie den Hahn, den er angepinkelt hat?" erinnerte sich Cohren am Morgen, als sie das Tier von einem Bauernhof winkend verabschiedeten.</t>
+  </si>
+  <si>
+    <t>Der Cohren hat einen Blick auf einen der anderen Panzer geworfen und den Harris mit seiner Truppe ausgemacht. Aus dem Auge der Insel hat er die Bewegung eines kleinen Hahns gesehen, der ständig den Kopf drehte, um die Landschaft zu verschönern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ach, er ist noch bei ihm", schrie der Cohren, als sich das Fenster des Panzers öffnete und der Kommandant erschien.</t>
+  </si>
+  <si>
+    <t>"Alle Panzer fahren los", sagte der Kommandant mit ruhiger Stimme in sein Headset. Die Motoren der Kampfpanzer und des Typs Stryker machten einen Knall, als sie sich in Bewegung setzten. Der Panzer des Typs Kronos, auf dem sich Cohren befand, taumelte, als die Ketten gelöst wurden, und sie stellten sich in eine Reihe. Die Panzer bewegten sich in Keilformation über die Ebene Italiens. In den Winterstürmen waren die Pfähle und die verschneiten Wälder geschrumpft, und doch war das Geschehen allgegenwärtig.</t>
+  </si>
+  <si>
+    <t>Nach etwa einer Stunde begann einer der Rekruten, der Cohren, sich daran zu erinnern, dass er Orson hiess, und begann zu plaudern.</t>
+  </si>
+  <si>
+    <t>"Ea, Operation Firestorm", rätselte Cohren. "Wir dachten, es würde ein Ende haben, aber wir haben sie unterschätzt."</t>
+  </si>
+  <si>
+    <t>"Unterschätzt und völlig unterschätzt", sagte der Nemic im Stillen. "Wir hätten uns nicht auf ihr Waffenarsenal und die Masse an Soldaten vorbereitet. Sie haben die ersten beiden Etagen des UFS Revenant zerstört und im letzten Monat den Erebus. Wir hätten sie sogar auf unserer Route erwarten können."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ich stehe furchtlos auf der Seite der Föderation", entgegnete Orson trotzig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aber ich habe gesehen, dass die meisten Rekruten von acht Jahren, wie Sie, schnell hinterherlaufen, wenn sie einen Schuss hören", erklärte Craith.</t>
+  </si>
+  <si>
+    <t>"Das werden wir ja sehen", sagte Cohren lachend. Orson führte die Auseinandersetzung nicht weiter.</t>
+  </si>
+  <si>
+    <t>"Exodus XO, Exodus CO", twitterte der Funk des Cohren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cohren zog den Sechser aus der Waffe und setzte seine Spezialbrille auf. Als er auf dem Wärmedruckbild sprach, konnte er die Signaturen aus der Ferne identifizieren.</t>
+  </si>
+  <si>
+    <t>"Ja, ich sehe sie", brüllte Cohren über sein Kehlmikrofon.</t>
+  </si>
+  <si>
+    <t>"In ihnen anamitgas?", fragte die andere Rekrutin, Natayla.</t>
+  </si>
+  <si>
+    <t>"Wenn ich nicht laufen kann", rätselte Cohren. Er legte die Hand ans Mikrofon und sagte: "Compagneia Exodus, schiessen Sie auf Peer, wenn wir angegriffen werden. Carmalagn nass sie."</t>
+  </si>
+  <si>
+    <t>Als sie sich näherten, veränderten sich die Wärmesignaturen von Punkten in definierbarere Formen. Als sie näher kamen, drehte sich eine von ihnen um etwas herum. Sofort kehrte sie zu einem kleinen Bottich zurück, in dem die anderen waren. Die Silhouetten setzten sich tief in die Schrittstellung.</t>
+  </si>
+  <si>
+    <t>"Wir haben Kontakt mit dem Freund", rief Shaw über Funk, als orangefarbene Stürme vom Bot aus in die Luft geschossen wurden. Während die Panzer bombardiert wurden, sprangen die Angriffstruppen ab und gingen in Verfolgung. Eine Rakete raste vorbei und schleuderte Kies und Geröll auf einen der Panzer. Eine andere schlug an die Seite eines Stryker-Panzers und explodierte, der mit einem Cerberus APS ausgestattet war.</t>
+  </si>
+  <si>
+    <t>"Iron 1-2 in 1-3, 25 °C nach rechts, 300 m. Earver the Fiac", rief der Kommandant des bewaffneten Zuges über Funk. Iron 1-2 in 1-3 öffnete den Fiac, Granaten flogen in Richtung Boden und explodierten, wobei sie in der Luft Schlamm und Kies aufwirbelten.</t>
+  </si>
+  <si>
+    <t>"Tarmated the Sentis", rief Knoxx, der den Bot aus einem anderen Blickwinkel beobachtete. Die Hintertür eines Cerberus öffnete sich für einen unbewaffneten Soldaten, der ein spezielles Headset trug, und er erschien. Er rief Befehle in ein quadratisches Mikrofon und zwei Sentis, die offiziell Sentinels genannt wurden, in naadorischen Springern riefen. Sie nahmen ihre Waffen in die dünnen Metallarme und bereiteten sich auf einen Sprint vor. Sie trugen ihre Waffen auf dem Rücken.</t>
+  </si>
+  <si>
+    <t>"Mazar near arestar?", flüsterte Craith, während sie sie beobachteten.</t>
+  </si>
+  <si>
+    <t>"Das sieht aus wie eine Festnahme", vermutet Cohren, als die beiden Sentinels in den Aschewolken und dem Rauch verschwanden. Vom Boten waren Schreie und Schüsse zu hören, doch diese wurden nur kurz unterbrochen. Kurz darauf kehrten die beiden Sentinels zurück und verfolgten jemanden, der hinter ihnen her war und dessen Stiefel Spuren auf dem Teppich hinterliessen. Nachdem sie wieder in den Schutz ihrer Obhut zurückgekehrt waren, stiessen sie die Figur nach unten.</t>
+  </si>
+  <si>
+    <t>Shaw näherte sich der Figur, die gerade versuchte, aufzustehen. Dann sah er einen der Sentinels.</t>
+  </si>
+  <si>
+    <t>"Drei Tote, Sir", antwortete der Sentinel.</t>
+  </si>
+  <si>
+    <t>Shaw gab ihm den Kopf und sehnte sich nach Cohren und Craith, die neben ihm standen.</t>
   </si>
 </sst>
 </file>
@@ -2353,16 +3314,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:A167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -2428,7 +3389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +3414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2597,7 +3558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
@@ -2612,7 +3573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -2627,7 +3588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
@@ -2657,16 +3618,481 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2677,2517 +4103,2522 @@
   <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>89</v>
+      <c r="A37" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>90</v>
+      <c r="A38" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>95</v>
+      <c r="A44" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>96</v>
+      <c r="A45" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="115" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="163" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>254</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="257" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
     </row>
     <row r="265" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="278" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>313</v>
+        <v>407</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>316</v>
+        <v>410</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
     </row>
     <row r="286" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="287" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>325</v>
+        <v>419</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>328</v>
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="307" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="325" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
     </row>
     <row r="331" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="332" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
     </row>
     <row r="337" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="338" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
     </row>
     <row r="350" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="351" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>389</v>
+        <v>483</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>410</v>
+        <v>504</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>413</v>
+        <v>507</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>441</v>
+        <v>535</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>447</v>
+        <v>541</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
     </row>
     <row r="424" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="425" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>455</v>
+        <v>549</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
-        <v>464</v>
+        <v>558</v>
       </c>
     </row>
     <row r="437" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="438" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>466</v>
+        <v>560</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>467</v>
+        <v>561</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>468</v>
+        <v>562</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>469</v>
+        <v>563</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
     </row>
     <row r="444" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="445" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>471</v>
+        <v>565</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>478</v>
+        <v>572</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
     </row>
     <row r="459" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="460" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
     </row>
     <row r="468" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="469" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
     </row>
     <row r="481" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="482" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>507</v>
+        <v>601</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>518</v>
+        <v>612</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>520</v>
+        <v>614</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
     </row>
     <row r="502" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="503" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A516" s="2" t="s">
-        <v>538</v>
+      <c r="A516" s="4" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A518" s="2" t="s">
-        <v>540</v>
+      <c r="A518" s="4" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A519" s="2" t="s">
-        <v>541</v>
+      <c r="A519" s="4" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A521" s="2" t="s">
-        <v>543</v>
+      <c r="A521" s="4" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="522" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="523" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A528" s="2" t="s">
-        <v>549</v>
+      <c r="A528" s="4" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A529" s="2" t="s">
-        <v>550</v>
+      <c r="A529" s="4" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5197,334 +6628,689 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A222"/>
+  <dimension ref="A1:A223"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>556</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>557</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>572</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>573</v>
+        <v>667</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>574</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
     <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>577</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>578</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>580</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>581</v>
+        <v>676</v>
       </c>
     </row>
     <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>582</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>583</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>584</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>585</v>
+        <v>680</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>586</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>588</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>589</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>590</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>591</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
     <row r="86" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
     <row r="88" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
     <row r="90" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
     <row r="92" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
     <row r="94" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
     <row r="96" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5532,286 +7318,1061 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>593</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>594</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>595</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>596</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>597</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>598</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>599</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>601</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>602</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>603</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>605</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>606</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>607</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>608</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>609</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="208" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>610</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>611</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>612</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>613</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>614</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>615</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>616</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>617</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>618</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>619</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>620</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>621</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>622</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>624</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>625</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>626</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>627</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>628</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>631</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>633</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>634</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>635</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>636</v>
+        <v>801</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>637</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>638</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>639</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>640</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>641</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>643</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
